--- a/sac/SWP CSEA.xlsx
+++ b/sac/SWP CSEA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinak\Downloads\Certificates\Week 1\CSEA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinak\Desktop\Projects\sac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F11EA25-86DB-4912-81BB-25A878B3BF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5570AA09-7801-46F3-BB6D-A3914AA4DABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{98530AE3-B1EA-4AA6-8635-CF13E503A420}"/>
   </bookViews>
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E194664F-41AC-47E3-BFD0-DB53E9C4F948}">
   <dimension ref="A1:L944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C120" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1778,19 +1778,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>2210030116</v>
+        <v>2200032942</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>412</v>
       </c>
       <c r="F2" t="s">
         <v>286</v>
@@ -1803,15 +1803,15 @@
       </c>
       <c r="I2" t="str">
         <f>H2&amp;E2&amp;H2</f>
-        <v>"SWP CSEA-1.pdf"</v>
+        <v>"SWP CSEA-124.pdf"</v>
       </c>
       <c r="J2" t="str">
         <f>G2&amp;F2&amp;I2&amp;F2&amp;K2</f>
-        <v>ren "SWP CSEA-1.pdf" "2210030116.pdf"</v>
+        <v>ren "SWP CSEA-124.pdf" "2200032942.pdf"</v>
       </c>
       <c r="K2" t="str">
         <f>H2&amp;A2&amp;L2&amp;H2</f>
-        <v>"2210030116.pdf"</v>
+        <v>"2200032942.pdf"</v>
       </c>
       <c r="L2" t="s">
         <v>288</v>
@@ -1819,19 +1819,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>2210030101</v>
+        <v>2210030001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="F3" t="s">
         <v>286</v>
@@ -1843,16 +1843,16 @@
         <v>287</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I7" si="0">H3&amp;E3&amp;H3</f>
-        <v>"SWP CSEA-2.pdf"</v>
+        <f>H3&amp;E3&amp;H3</f>
+        <v>"SWP CSEA-132.pdf"</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J7" si="1">G3&amp;F3&amp;I3&amp;F3&amp;K3</f>
-        <v>ren "SWP CSEA-2.pdf" "2210030101.pdf"</v>
+        <f>G3&amp;F3&amp;I3&amp;F3&amp;K3</f>
+        <v>ren "SWP CSEA-132.pdf" "2210030001.pdf"</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K7" si="2">H3&amp;A3&amp;L3&amp;H3</f>
-        <v>"2210030101.pdf"</v>
+        <f>H3&amp;A3&amp;L3&amp;H3</f>
+        <v>"2210030001.pdf"</v>
       </c>
       <c r="L3" t="s">
         <v>288</v>
@@ -1860,19 +1860,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>2210030086</v>
+        <v>2210030006</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>291</v>
+        <v>367</v>
       </c>
       <c r="F4" t="s">
         <v>286</v>
@@ -1884,16 +1884,16 @@
         <v>287</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSEA-3.pdf"</v>
+        <f>H4&amp;E4&amp;H4</f>
+        <v>"SWP CSEA-79.pdf"</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSEA-3.pdf" "2210030086.pdf"</v>
+        <f>G4&amp;F4&amp;I4&amp;F4&amp;K4</f>
+        <v>ren "SWP CSEA-79.pdf" "2210030006.pdf"</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030086.pdf"</v>
+        <f>H4&amp;A4&amp;L4&amp;H4</f>
+        <v>"2210030006.pdf"</v>
       </c>
       <c r="L4" t="s">
         <v>288</v>
@@ -1901,19 +1901,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>2210030222</v>
+        <v>2210030007</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>368</v>
       </c>
       <c r="F5" t="s">
         <v>286</v>
@@ -1925,16 +1925,16 @@
         <v>287</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSEA-4.pdf"</v>
+        <f>H5&amp;E5&amp;H5</f>
+        <v>"SWP CSEA-80.pdf"</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSEA-4.pdf" "2210030222.pdf"</v>
+        <f>G5&amp;F5&amp;I5&amp;F5&amp;K5</f>
+        <v>ren "SWP CSEA-80.pdf" "2210030007.pdf"</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030222.pdf"</v>
+        <f>H5&amp;A5&amp;L5&amp;H5</f>
+        <v>"2210030007.pdf"</v>
       </c>
       <c r="L5" t="s">
         <v>288</v>
@@ -1942,19 +1942,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>2210030214</v>
+        <v>2210030009</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F6" t="s">
         <v>286</v>
@@ -1966,16 +1966,16 @@
         <v>287</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSEA-5.pdf"</v>
+        <f>H6&amp;E6&amp;H6</f>
+        <v>"SWP CSEA-67.pdf"</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSEA-5.pdf" "2210030214.pdf"</v>
+        <f>G6&amp;F6&amp;I6&amp;F6&amp;K6</f>
+        <v>ren "SWP CSEA-67.pdf" "2210030009.pdf"</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030214.pdf"</v>
+        <f>H6&amp;A6&amp;L6&amp;H6</f>
+        <v>"2210030009.pdf"</v>
       </c>
       <c r="L6" t="s">
         <v>288</v>
@@ -1983,19 +1983,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>2210030068</v>
+        <v>2210030012</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="F7" t="s">
         <v>286</v>
@@ -2007,16 +2007,16 @@
         <v>287</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSEA-6.pdf"</v>
+        <f>H7&amp;E7&amp;H7</f>
+        <v>"SWP CSEA-89.pdf"</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSEA-6.pdf" "2210030068.pdf"</v>
+        <f>G7&amp;F7&amp;I7&amp;F7&amp;K7</f>
+        <v>ren "SWP CSEA-89.pdf" "2210030012.pdf"</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030068.pdf"</v>
+        <f>H7&amp;A7&amp;L7&amp;H7</f>
+        <v>"2210030012.pdf"</v>
       </c>
       <c r="L7" t="s">
         <v>288</v>
@@ -2024,19 +2024,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>2210030114</v>
+        <v>2210030013</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="E8" t="s">
-        <v>296</v>
+        <v>399</v>
       </c>
       <c r="F8" t="s">
         <v>286</v>
@@ -2048,16 +2048,16 @@
         <v>287</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" ref="I8:I71" si="3">H8&amp;E8&amp;H8</f>
-        <v>"SWP CSEA-7.pdf"</v>
+        <f>H8&amp;E8&amp;H8</f>
+        <v>"SWP CSEA-111.pdf"</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" ref="J8:J71" si="4">G8&amp;F8&amp;I8&amp;F8&amp;K8</f>
-        <v>ren "SWP CSEA-7.pdf" "2210030114.pdf"</v>
+        <f>G8&amp;F8&amp;I8&amp;F8&amp;K8</f>
+        <v>ren "SWP CSEA-111.pdf" "2210030013.pdf"</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" ref="K8:K71" si="5">H8&amp;A8&amp;L8&amp;H8</f>
-        <v>"2210030114.pdf"</v>
+        <f>H8&amp;A8&amp;L8&amp;H8</f>
+        <v>"2210030013.pdf"</v>
       </c>
       <c r="L8" t="s">
         <v>288</v>
@@ -2065,19 +2065,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>2210030352</v>
+        <v>2210030016</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="F9" t="s">
         <v>286</v>
@@ -2089,16 +2089,16 @@
         <v>287</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-8.pdf"</v>
+        <f>H9&amp;E9&amp;H9</f>
+        <v>"SWP CSEA-52.pdf"</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-8.pdf" "2210030352.pdf"</v>
+        <f>G9&amp;F9&amp;I9&amp;F9&amp;K9</f>
+        <v>ren "SWP CSEA-52.pdf" "2210030016.pdf"</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030352.pdf"</v>
+        <f>H9&amp;A9&amp;L9&amp;H9</f>
+        <v>"2210030016.pdf"</v>
       </c>
       <c r="L9" t="s">
         <v>288</v>
@@ -2106,19 +2106,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>2210030075</v>
+        <v>2210030018</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F10" t="s">
         <v>286</v>
@@ -2130,16 +2130,16 @@
         <v>287</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-9.pdf"</v>
+        <f>H10&amp;E10&amp;H10</f>
+        <v>"SWP CSEA-11.pdf"</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-9.pdf" "2210030075.pdf"</v>
+        <f>G10&amp;F10&amp;I10&amp;F10&amp;K10</f>
+        <v>ren "SWP CSEA-11.pdf" "2210030018.pdf"</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030075.pdf"</v>
+        <f>H10&amp;A10&amp;L10&amp;H10</f>
+        <v>"2210030018.pdf"</v>
       </c>
       <c r="L10" t="s">
         <v>288</v>
@@ -2147,19 +2147,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>2210030077</v>
+        <v>2210030019</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>299</v>
+        <v>376</v>
       </c>
       <c r="F11" t="s">
         <v>286</v>
@@ -2171,16 +2171,16 @@
         <v>287</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-10.pdf"</v>
+        <f>H11&amp;E11&amp;H11</f>
+        <v>"SWP CSEA-88.pdf"</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-10.pdf" "2210030077.pdf"</v>
+        <f>G11&amp;F11&amp;I11&amp;F11&amp;K11</f>
+        <v>ren "SWP CSEA-88.pdf" "2210030019.pdf"</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030077.pdf"</v>
+        <f>H11&amp;A11&amp;L11&amp;H11</f>
+        <v>"2210030019.pdf"</v>
       </c>
       <c r="L11" t="s">
         <v>288</v>
@@ -2188,19 +2188,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>2210030018</v>
+        <v>2210030027</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="F12" t="s">
         <v>286</v>
@@ -2212,16 +2212,16 @@
         <v>287</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-11.pdf"</v>
+        <f>H12&amp;E12&amp;H12</f>
+        <v>"SWP CSEA-110.pdf"</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-11.pdf" "2210030018.pdf"</v>
+        <f>G12&amp;F12&amp;I12&amp;F12&amp;K12</f>
+        <v>ren "SWP CSEA-110.pdf" "2210030027.pdf"</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030018.pdf"</v>
+        <f>H12&amp;A12&amp;L12&amp;H12</f>
+        <v>"2210030027.pdf"</v>
       </c>
       <c r="L12" t="s">
         <v>288</v>
@@ -2229,19 +2229,19 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>2210030363</v>
+        <v>2210030030</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="F13" t="s">
         <v>286</v>
@@ -2253,16 +2253,16 @@
         <v>287</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-12.pdf"</v>
+        <f>H13&amp;E13&amp;H13</f>
+        <v>"SWP CSEA-32.pdf"</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-12.pdf" "2210030363.pdf"</v>
+        <f>G13&amp;F13&amp;I13&amp;F13&amp;K13</f>
+        <v>ren "SWP CSEA-32.pdf" "2210030030.pdf"</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030363.pdf"</v>
+        <f>H13&amp;A13&amp;L13&amp;H13</f>
+        <v>"2210030030.pdf"</v>
       </c>
       <c r="L13" t="s">
         <v>288</v>
@@ -2270,19 +2270,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>2210030334</v>
+        <v>2210030032</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="E14" t="s">
-        <v>302</v>
+        <v>414</v>
       </c>
       <c r="F14" t="s">
         <v>286</v>
@@ -2294,16 +2294,16 @@
         <v>287</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-13.pdf"</v>
+        <f>H14&amp;E14&amp;H14</f>
+        <v>"SWP CSEA-126.pdf"</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-13.pdf" "2210030334.pdf"</v>
+        <f>G14&amp;F14&amp;I14&amp;F14&amp;K14</f>
+        <v>ren "SWP CSEA-126.pdf" "2210030032.pdf"</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030334.pdf"</v>
+        <f>H14&amp;A14&amp;L14&amp;H14</f>
+        <v>"2210030032.pdf"</v>
       </c>
       <c r="L14" t="s">
         <v>288</v>
@@ -2311,19 +2311,19 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>2210030343</v>
+        <v>2210030036</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="F15" t="s">
         <v>286</v>
@@ -2335,16 +2335,16 @@
         <v>287</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-14.pdf"</v>
+        <f>H15&amp;E15&amp;H15</f>
+        <v>"SWP CSEA-31.pdf"</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-14.pdf" "2210030343.pdf"</v>
+        <f>G15&amp;F15&amp;I15&amp;F15&amp;K15</f>
+        <v>ren "SWP CSEA-31.pdf" "2210030036.pdf"</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030343.pdf"</v>
+        <f>H15&amp;A15&amp;L15&amp;H15</f>
+        <v>"2210030036.pdf"</v>
       </c>
       <c r="L15" t="s">
         <v>288</v>
@@ -2352,19 +2352,19 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>2210030487</v>
+        <v>2210030039</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="E16" t="s">
-        <v>304</v>
+        <v>396</v>
       </c>
       <c r="F16" t="s">
         <v>286</v>
@@ -2376,16 +2376,16 @@
         <v>287</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-15.pdf"</v>
+        <f>H16&amp;E16&amp;H16</f>
+        <v>"SWP CSEA-108.pdf"</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-15.pdf" "2210030487.pdf"</v>
+        <f>G16&amp;F16&amp;I16&amp;F16&amp;K16</f>
+        <v>ren "SWP CSEA-108.pdf" "2210030039.pdf"</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030487.pdf"</v>
+        <f>H16&amp;A16&amp;L16&amp;H16</f>
+        <v>"2210030039.pdf"</v>
       </c>
       <c r="L16" t="s">
         <v>288</v>
@@ -2393,19 +2393,19 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>2210030494</v>
+        <v>2210030040</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>305</v>
+        <v>397</v>
       </c>
       <c r="F17" t="s">
         <v>286</v>
@@ -2417,16 +2417,16 @@
         <v>287</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-16.pdf"</v>
+        <f>H17&amp;E17&amp;H17</f>
+        <v>"SWP CSEA-109.pdf"</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-16.pdf" "2210030494.pdf"</v>
+        <f>G17&amp;F17&amp;I17&amp;F17&amp;K17</f>
+        <v>ren "SWP CSEA-109.pdf" "2210030040.pdf"</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030494.pdf"</v>
+        <f>H17&amp;A17&amp;L17&amp;H17</f>
+        <v>"2210030040.pdf"</v>
       </c>
       <c r="L17" t="s">
         <v>288</v>
@@ -2434,19 +2434,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>2210030140</v>
+        <v>2210030045</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="E18" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="F18" t="s">
         <v>286</v>
@@ -2458,16 +2458,16 @@
         <v>287</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-17.pdf"</v>
+        <f>H18&amp;E18&amp;H18</f>
+        <v>"SWP CSEA-107.pdf"</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-17.pdf" "2210030140.pdf"</v>
+        <f>G18&amp;F18&amp;I18&amp;F18&amp;K18</f>
+        <v>ren "SWP CSEA-107.pdf" "2210030045.pdf"</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030140.pdf"</v>
+        <f>H18&amp;A18&amp;L18&amp;H18</f>
+        <v>"2210030045.pdf"</v>
       </c>
       <c r="L18" t="s">
         <v>288</v>
@@ -2475,19 +2475,19 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>2210030050</v>
+        <v>2210030047</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="F19" t="s">
         <v>286</v>
@@ -2499,16 +2499,16 @@
         <v>287</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-18.pdf"</v>
+        <f>H19&amp;E19&amp;H19</f>
+        <v>"SWP CSEA-63.pdf"</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-18.pdf" "2210030050.pdf"</v>
+        <f>G19&amp;F19&amp;I19&amp;F19&amp;K19</f>
+        <v>ren "SWP CSEA-63.pdf" "2210030047.pdf"</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030050.pdf"</v>
+        <f>H19&amp;A19&amp;L19&amp;H19</f>
+        <v>"2210030047.pdf"</v>
       </c>
       <c r="L19" t="s">
         <v>288</v>
@@ -2516,19 +2516,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>2210030064</v>
+        <v>2210030048</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="F20" t="s">
         <v>286</v>
@@ -2540,16 +2540,16 @@
         <v>287</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-19.pdf"</v>
+        <f>H20&amp;E20&amp;H20</f>
+        <v>"SWP CSEA-51.pdf"</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-19.pdf" "2210030064.pdf"</v>
+        <f>G20&amp;F20&amp;I20&amp;F20&amp;K20</f>
+        <v>ren "SWP CSEA-51.pdf" "2210030048.pdf"</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030064.pdf"</v>
+        <f>H20&amp;A20&amp;L20&amp;H20</f>
+        <v>"2210030048.pdf"</v>
       </c>
       <c r="L20" t="s">
         <v>288</v>
@@ -2557,19 +2557,19 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>2210030388</v>
+        <v>2210030050</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F21" t="s">
         <v>286</v>
@@ -2581,16 +2581,16 @@
         <v>287</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-20.pdf"</v>
+        <f>H21&amp;E21&amp;H21</f>
+        <v>"SWP CSEA-18.pdf"</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-20.pdf" "2210030388.pdf"</v>
+        <f>G21&amp;F21&amp;I21&amp;F21&amp;K21</f>
+        <v>ren "SWP CSEA-18.pdf" "2210030050.pdf"</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030388.pdf"</v>
+        <f>H21&amp;A21&amp;L21&amp;H21</f>
+        <v>"2210030050.pdf"</v>
       </c>
       <c r="L21" t="s">
         <v>288</v>
@@ -2598,19 +2598,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>2210030372</v>
+        <v>2210030050</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
-        <v>310</v>
+        <v>392</v>
       </c>
       <c r="F22" t="s">
         <v>286</v>
@@ -2622,16 +2622,16 @@
         <v>287</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-21.pdf"</v>
+        <f>H22&amp;E22&amp;H22</f>
+        <v>"SWP CSEA-104.pdf"</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-21.pdf" "2210030372.pdf"</v>
+        <f>G22&amp;F22&amp;I22&amp;F22&amp;K22</f>
+        <v>ren "SWP CSEA-104.pdf" "2210030050.pdf"</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030372.pdf"</v>
+        <f>H22&amp;A22&amp;L22&amp;H22</f>
+        <v>"2210030050.pdf"</v>
       </c>
       <c r="L22" t="s">
         <v>288</v>
@@ -2639,19 +2639,19 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>2210030338</v>
+        <v>2210030052</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>48</v>
+        <v>249</v>
       </c>
       <c r="E23" t="s">
-        <v>292</v>
+        <v>413</v>
       </c>
       <c r="F23" t="s">
         <v>286</v>
@@ -2663,16 +2663,16 @@
         <v>287</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-22.pdf"</v>
+        <f>H23&amp;E23&amp;H23</f>
+        <v>"SWP CSEA-125.pdf"</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-22.pdf" "2210030338.pdf"</v>
+        <f>G23&amp;F23&amp;I23&amp;F23&amp;K23</f>
+        <v>ren "SWP CSEA-125.pdf" "2210030052.pdf"</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030338.pdf"</v>
+        <f>H23&amp;A23&amp;L23&amp;H23</f>
+        <v>"2210030052.pdf"</v>
       </c>
       <c r="L23" t="s">
         <v>288</v>
@@ -2680,19 +2680,19 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>2210030419</v>
+        <v>2210030055</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="F24" t="s">
         <v>286</v>
@@ -2704,16 +2704,16 @@
         <v>287</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-23.pdf"</v>
+        <f>H24&amp;E24&amp;H24</f>
+        <v>"SWP CSEA-66.pdf"</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-23.pdf" "2210030419.pdf"</v>
+        <f>G24&amp;F24&amp;I24&amp;F24&amp;K24</f>
+        <v>ren "SWP CSEA-66.pdf" "2210030055.pdf"</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030419.pdf"</v>
+        <f>H24&amp;A24&amp;L24&amp;H24</f>
+        <v>"2210030055.pdf"</v>
       </c>
       <c r="L24" t="s">
         <v>288</v>
@@ -2721,19 +2721,19 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>2210030399</v>
+        <v>2210030064</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F25" t="s">
         <v>286</v>
@@ -2745,16 +2745,16 @@
         <v>287</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-24.pdf"</v>
+        <f>H25&amp;E25&amp;H25</f>
+        <v>"SWP CSEA-19.pdf"</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-24.pdf" "2210030399.pdf"</v>
+        <f>G25&amp;F25&amp;I25&amp;F25&amp;K25</f>
+        <v>ren "SWP CSEA-19.pdf" "2210030064.pdf"</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030399.pdf"</v>
+        <f>H25&amp;A25&amp;L25&amp;H25</f>
+        <v>"2210030064.pdf"</v>
       </c>
       <c r="L25" t="s">
         <v>288</v>
@@ -2762,19 +2762,19 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>2210030200</v>
+        <v>2210030064</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="E26" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="F26" t="s">
         <v>286</v>
@@ -2786,16 +2786,16 @@
         <v>287</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-25.pdf"</v>
+        <f>H26&amp;E26&amp;H26</f>
+        <v>"SWP CSEA-105.pdf"</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-25.pdf" "2210030200.pdf"</v>
+        <f>G26&amp;F26&amp;I26&amp;F26&amp;K26</f>
+        <v>ren "SWP CSEA-105.pdf" "2210030064.pdf"</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030200.pdf"</v>
+        <f>H26&amp;A26&amp;L26&amp;H26</f>
+        <v>"2210030064.pdf"</v>
       </c>
       <c r="L26" t="s">
         <v>288</v>
@@ -2803,19 +2803,19 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>2210030201</v>
+        <v>2210030066</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="E27" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="F27" t="s">
         <v>286</v>
@@ -2827,16 +2827,16 @@
         <v>287</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-26.pdf"</v>
+        <f>H27&amp;E27&amp;H27</f>
+        <v>"SWP CSEA-85.pdf"</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-26.pdf" "2210030201.pdf"</v>
+        <f>G27&amp;F27&amp;I27&amp;F27&amp;K27</f>
+        <v>ren "SWP CSEA-85.pdf" "2210030066.pdf"</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030201.pdf"</v>
+        <f>H27&amp;A27&amp;L27&amp;H27</f>
+        <v>"2210030066.pdf"</v>
       </c>
       <c r="L27" t="s">
         <v>288</v>
@@ -2844,19 +2844,19 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>2210030200</v>
+        <v>2210030067</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="E28" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="F28" t="s">
         <v>286</v>
@@ -2868,16 +2868,16 @@
         <v>287</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-27.pdf"</v>
+        <f>H28&amp;E28&amp;H28</f>
+        <v>"SWP CSEA-84.pdf"</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-27.pdf" "2210030200.pdf"</v>
+        <f>G28&amp;F28&amp;I28&amp;F28&amp;K28</f>
+        <v>ren "SWP CSEA-84.pdf" "2210030067.pdf"</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030200.pdf"</v>
+        <f>H28&amp;A28&amp;L28&amp;H28</f>
+        <v>"2210030067.pdf"</v>
       </c>
       <c r="L28" t="s">
         <v>288</v>
@@ -2885,19 +2885,19 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>2210030201</v>
+        <v>2210030068</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="F29" t="s">
         <v>286</v>
@@ -2909,16 +2909,16 @@
         <v>287</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-28.pdf"</v>
+        <f>H29&amp;E29&amp;H29</f>
+        <v>"SWP CSEA-6.pdf"</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-28.pdf" "2210030201.pdf"</v>
+        <f>G29&amp;F29&amp;I29&amp;F29&amp;K29</f>
+        <v>ren "SWP CSEA-6.pdf" "2210030068.pdf"</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030201.pdf"</v>
+        <f>H29&amp;A29&amp;L29&amp;H29</f>
+        <v>"2210030068.pdf"</v>
       </c>
       <c r="L29" t="s">
         <v>288</v>
@@ -2926,19 +2926,19 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>2210030387</v>
+        <v>2210030071</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="F30" t="s">
         <v>286</v>
@@ -2950,16 +2950,16 @@
         <v>287</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-29.pdf"</v>
+        <f>H30&amp;E30&amp;H30</f>
+        <v>"SWP CSEA-57.pdf"</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-29.pdf" "2210030387.pdf"</v>
+        <f>G30&amp;F30&amp;I30&amp;F30&amp;K30</f>
+        <v>ren "SWP CSEA-57.pdf" "2210030071.pdf"</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030387.pdf"</v>
+        <f>H30&amp;A30&amp;L30&amp;H30</f>
+        <v>"2210030071.pdf"</v>
       </c>
       <c r="L30" t="s">
         <v>288</v>
@@ -2967,19 +2967,19 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>2210030255</v>
+        <v>2210030072</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="F31" t="s">
         <v>286</v>
@@ -2991,16 +2991,16 @@
         <v>287</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-30.pdf"</v>
+        <f>H31&amp;E31&amp;H31</f>
+        <v>"SWP CSEA-58.pdf"</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-30.pdf" "2210030255.pdf"</v>
+        <f>G31&amp;F31&amp;I31&amp;F31&amp;K31</f>
+        <v>ren "SWP CSEA-58.pdf" "2210030072.pdf"</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030255.pdf"</v>
+        <f>H31&amp;A31&amp;L31&amp;H31</f>
+        <v>"2210030072.pdf"</v>
       </c>
       <c r="L31" t="s">
         <v>288</v>
@@ -3008,19 +3008,19 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>2210030036</v>
+        <v>2210030073</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="F32" t="s">
         <v>286</v>
@@ -3032,16 +3032,16 @@
         <v>287</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-31.pdf"</v>
+        <f>H32&amp;E32&amp;H32</f>
+        <v>"SWP CSEA-83.pdf"</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-31.pdf" "2210030036.pdf"</v>
+        <f>G32&amp;F32&amp;I32&amp;F32&amp;K32</f>
+        <v>ren "SWP CSEA-83.pdf" "2210030073.pdf"</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030036.pdf"</v>
+        <f>H32&amp;A32&amp;L32&amp;H32</f>
+        <v>"2210030073.pdf"</v>
       </c>
       <c r="L32" t="s">
         <v>288</v>
@@ -3049,19 +3049,19 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>2210030030</v>
+        <v>2210030075</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="F33" t="s">
         <v>286</v>
@@ -3073,16 +3073,16 @@
         <v>287</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-32.pdf"</v>
+        <f>H33&amp;E33&amp;H33</f>
+        <v>"SWP CSEA-9.pdf"</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-32.pdf" "2210030030.pdf"</v>
+        <f>G33&amp;F33&amp;I33&amp;F33&amp;K33</f>
+        <v>ren "SWP CSEA-9.pdf" "2210030075.pdf"</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030030.pdf"</v>
+        <f>H33&amp;A33&amp;L33&amp;H33</f>
+        <v>"2210030075.pdf"</v>
       </c>
       <c r="L33" t="s">
         <v>288</v>
@@ -3090,19 +3090,19 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>2210030204</v>
+        <v>2210030077</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="F34" t="s">
         <v>286</v>
@@ -3114,16 +3114,16 @@
         <v>287</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-33.pdf"</v>
+        <f>H34&amp;E34&amp;H34</f>
+        <v>"SWP CSEA-10.pdf"</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-33.pdf" "2210030204.pdf"</v>
+        <f>G34&amp;F34&amp;I34&amp;F34&amp;K34</f>
+        <v>ren "SWP CSEA-10.pdf" "2210030077.pdf"</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030204.pdf"</v>
+        <f>H34&amp;A34&amp;L34&amp;H34</f>
+        <v>"2210030077.pdf"</v>
       </c>
       <c r="L34" t="s">
         <v>288</v>
@@ -3131,19 +3131,19 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>2210030236</v>
+        <v>2210030080</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="F35" t="s">
         <v>286</v>
@@ -3155,16 +3155,16 @@
         <v>287</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-34.pdf"</v>
+        <f>H35&amp;E35&amp;H35</f>
+        <v>"SWP CSEA-48.pdf"</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-34.pdf" "2210030236.pdf"</v>
+        <f>G35&amp;F35&amp;I35&amp;F35&amp;K35</f>
+        <v>ren "SWP CSEA-48.pdf" "2210030080.pdf"</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030236.pdf"</v>
+        <f>H35&amp;A35&amp;L35&amp;H35</f>
+        <v>"2210030080.pdf"</v>
       </c>
       <c r="L35" t="s">
         <v>288</v>
@@ -3172,19 +3172,19 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>2210030429</v>
+        <v>2210030081</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F36" t="s">
         <v>286</v>
@@ -3196,16 +3196,16 @@
         <v>287</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-35.pdf"</v>
+        <f>H36&amp;E36&amp;H36</f>
+        <v>"SWP CSEA-47.pdf"</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-35.pdf" "2210030429.pdf"</v>
+        <f>G36&amp;F36&amp;I36&amp;F36&amp;K36</f>
+        <v>ren "SWP CSEA-47.pdf" "2210030081.pdf"</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030429.pdf"</v>
+        <f>H36&amp;A36&amp;L36&amp;H36</f>
+        <v>"2210030081.pdf"</v>
       </c>
       <c r="L36" t="s">
         <v>288</v>
@@ -3213,19 +3213,19 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>2210030462</v>
+        <v>2210030085</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="E37" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="F37" t="s">
         <v>286</v>
@@ -3237,16 +3237,16 @@
         <v>287</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-36.pdf"</v>
+        <f>H37&amp;E37&amp;H37</f>
+        <v>"SWP CSEA-86.pdf"</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-36.pdf" "2210030462.pdf"</v>
+        <f>G37&amp;F37&amp;I37&amp;F37&amp;K37</f>
+        <v>ren "SWP CSEA-86.pdf" "2210030085.pdf"</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030462.pdf"</v>
+        <f>H37&amp;A37&amp;L37&amp;H37</f>
+        <v>"2210030085.pdf"</v>
       </c>
       <c r="L37" t="s">
         <v>288</v>
@@ -3254,19 +3254,19 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>2210030403</v>
+        <v>2210030086</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="F38" t="s">
         <v>286</v>
@@ -3278,16 +3278,16 @@
         <v>287</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-37.pdf"</v>
+        <f>H38&amp;E38&amp;H38</f>
+        <v>"SWP CSEA-3.pdf"</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-37.pdf" "2210030403.pdf"</v>
+        <f>G38&amp;F38&amp;I38&amp;F38&amp;K38</f>
+        <v>ren "SWP CSEA-3.pdf" "2210030086.pdf"</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030403.pdf"</v>
+        <f>H38&amp;A38&amp;L38&amp;H38</f>
+        <v>"2210030086.pdf"</v>
       </c>
       <c r="L38" t="s">
         <v>288</v>
@@ -3295,19 +3295,19 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>2210030420</v>
+        <v>2210030092</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="E39" t="s">
-        <v>326</v>
+        <v>410</v>
       </c>
       <c r="F39" t="s">
         <v>286</v>
@@ -3319,16 +3319,16 @@
         <v>287</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-38.pdf"</v>
+        <f>H39&amp;E39&amp;H39</f>
+        <v>"SWP CSEA-122.pdf"</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-38.pdf" "2210030420.pdf"</v>
+        <f>G39&amp;F39&amp;I39&amp;F39&amp;K39</f>
+        <v>ren "SWP CSEA-122.pdf" "2210030092.pdf"</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030420.pdf"</v>
+        <f>H39&amp;A39&amp;L39&amp;H39</f>
+        <v>"2210030092.pdf"</v>
       </c>
       <c r="L39" t="s">
         <v>288</v>
@@ -3336,19 +3336,19 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>2210030434</v>
+        <v>2210030101</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="F40" t="s">
         <v>286</v>
@@ -3360,16 +3360,16 @@
         <v>287</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-39.pdf"</v>
+        <f>H40&amp;E40&amp;H40</f>
+        <v>"SWP CSEA-2.pdf"</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-39.pdf" "2210030434.pdf"</v>
+        <f>G40&amp;F40&amp;I40&amp;F40&amp;K40</f>
+        <v>ren "SWP CSEA-2.pdf" "2210030101.pdf"</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030434.pdf"</v>
+        <f>H40&amp;A40&amp;L40&amp;H40</f>
+        <v>"2210030101.pdf"</v>
       </c>
       <c r="L40" t="s">
         <v>288</v>
@@ -3377,19 +3377,19 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>2210030504</v>
+        <v>2210030103</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="F41" t="s">
         <v>286</v>
@@ -3401,16 +3401,16 @@
         <v>287</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-40.pdf"</v>
+        <f>H41&amp;E41&amp;H41</f>
+        <v>"SWP CSEA-50.pdf"</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-40.pdf" "2210030504.pdf"</v>
+        <f>G41&amp;F41&amp;I41&amp;F41&amp;K41</f>
+        <v>ren "SWP CSEA-50.pdf" "2210030103.pdf"</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030504.pdf"</v>
+        <f>H41&amp;A41&amp;L41&amp;H41</f>
+        <v>"2210030103.pdf"</v>
       </c>
       <c r="L41" t="s">
         <v>288</v>
@@ -3418,19 +3418,19 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>2210030455</v>
+        <v>2210030114</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="F42" t="s">
         <v>286</v>
@@ -3442,16 +3442,16 @@
         <v>287</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-41.pdf"</v>
+        <f>H42&amp;E42&amp;H42</f>
+        <v>"SWP CSEA-7.pdf"</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-41.pdf" "2210030455.pdf"</v>
+        <f>G42&amp;F42&amp;I42&amp;F42&amp;K42</f>
+        <v>ren "SWP CSEA-7.pdf" "2210030114.pdf"</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030455.pdf"</v>
+        <f>H42&amp;A42&amp;L42&amp;H42</f>
+        <v>"2210030114.pdf"</v>
       </c>
       <c r="L42" t="s">
         <v>288</v>
@@ -3459,19 +3459,19 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <v>2210030492</v>
+        <v>2210030116</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="F43" t="s">
         <v>286</v>
@@ -3483,16 +3483,16 @@
         <v>287</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-42.pdf"</v>
+        <f>H43&amp;E43&amp;H43</f>
+        <v>"SWP CSEA-1.pdf"</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-42.pdf" "2210030492.pdf"</v>
+        <f>G43&amp;F43&amp;I43&amp;F43&amp;K43</f>
+        <v>ren "SWP CSEA-1.pdf" "2210030116.pdf"</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030492.pdf"</v>
+        <f>H43&amp;A43&amp;L43&amp;H43</f>
+        <v>"2210030116.pdf"</v>
       </c>
       <c r="L43" t="s">
         <v>288</v>
@@ -3500,19 +3500,19 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>2210030158</v>
+        <v>2210030128</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>87</v>
+        <v>252</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="E44" t="s">
-        <v>331</v>
+        <v>415</v>
       </c>
       <c r="F44" t="s">
         <v>286</v>
@@ -3524,16 +3524,16 @@
         <v>287</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-43.pdf"</v>
+        <f>H44&amp;E44&amp;H44</f>
+        <v>"SWP CSEA-127.pdf"</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-43.pdf" "2210030158.pdf"</v>
+        <f>G44&amp;F44&amp;I44&amp;F44&amp;K44</f>
+        <v>ren "SWP CSEA-127.pdf" "2210030128.pdf"</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030158.pdf"</v>
+        <f>H44&amp;A44&amp;L44&amp;H44</f>
+        <v>"2210030128.pdf"</v>
       </c>
       <c r="L44" t="s">
         <v>288</v>
@@ -3541,19 +3541,19 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
-        <v>2210030149</v>
+        <v>2210030134</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="E45" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="F45" t="s">
         <v>286</v>
@@ -3565,16 +3565,16 @@
         <v>287</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-44.pdf"</v>
+        <f>H45&amp;E45&amp;H45</f>
+        <v>"SWP CSEA-91.pdf"</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-44.pdf" "2210030149.pdf"</v>
+        <f>G45&amp;F45&amp;I45&amp;F45&amp;K45</f>
+        <v>ren "SWP CSEA-91.pdf" "2210030134.pdf"</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030149.pdf"</v>
+        <f>H45&amp;A45&amp;L45&amp;H45</f>
+        <v>"2210030134.pdf"</v>
       </c>
       <c r="L45" t="s">
         <v>288</v>
@@ -3582,19 +3582,19 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
-        <v>2210030418</v>
+        <v>2210030140</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="F46" t="s">
         <v>286</v>
@@ -3606,16 +3606,16 @@
         <v>287</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-45.pdf"</v>
+        <f>H46&amp;E46&amp;H46</f>
+        <v>"SWP CSEA-17.pdf"</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-45.pdf" "2210030418.pdf"</v>
+        <f>G46&amp;F46&amp;I46&amp;F46&amp;K46</f>
+        <v>ren "SWP CSEA-17.pdf" "2210030140.pdf"</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030418.pdf"</v>
+        <f>H46&amp;A46&amp;L46&amp;H46</f>
+        <v>"2210030140.pdf"</v>
       </c>
       <c r="L46" t="s">
         <v>288</v>
@@ -3623,19 +3623,19 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>2210030400</v>
+        <v>2210030149</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F47" t="s">
         <v>286</v>
@@ -3647,16 +3647,16 @@
         <v>287</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-46.pdf"</v>
+        <f>H47&amp;E47&amp;H47</f>
+        <v>"SWP CSEA-44.pdf"</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-46.pdf" "2210030400.pdf"</v>
+        <f>G47&amp;F47&amp;I47&amp;F47&amp;K47</f>
+        <v>ren "SWP CSEA-44.pdf" "2210030149.pdf"</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030400.pdf"</v>
+        <f>H47&amp;A47&amp;L47&amp;H47</f>
+        <v>"2210030149.pdf"</v>
       </c>
       <c r="L47" t="s">
         <v>288</v>
@@ -3664,19 +3664,19 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
-        <v>2210030081</v>
+        <v>2210030150</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="E48" t="s">
-        <v>335</v>
+        <v>421</v>
       </c>
       <c r="F48" t="s">
         <v>286</v>
@@ -3688,16 +3688,16 @@
         <v>287</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-47.pdf"</v>
+        <f>H48&amp;E48&amp;H48</f>
+        <v>"SWP CSEA-133.pdf"</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-47.pdf" "2210030081.pdf"</v>
+        <f>G48&amp;F48&amp;I48&amp;F48&amp;K48</f>
+        <v>ren "SWP CSEA-133.pdf" "2210030150.pdf"</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030081.pdf"</v>
+        <f>H48&amp;A48&amp;L48&amp;H48</f>
+        <v>"2210030150.pdf"</v>
       </c>
       <c r="L48" t="s">
         <v>288</v>
@@ -3705,19 +3705,19 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>2210030080</v>
+        <v>2210030158</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F49" t="s">
         <v>286</v>
@@ -3729,16 +3729,16 @@
         <v>287</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-48.pdf"</v>
+        <f>H49&amp;E49&amp;H49</f>
+        <v>"SWP CSEA-43.pdf"</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-48.pdf" "2210030080.pdf"</v>
+        <f>G49&amp;F49&amp;I49&amp;F49&amp;K49</f>
+        <v>ren "SWP CSEA-43.pdf" "2210030158.pdf"</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030080.pdf"</v>
+        <f>H49&amp;A49&amp;L49&amp;H49</f>
+        <v>"2210030158.pdf"</v>
       </c>
       <c r="L49" t="s">
         <v>288</v>
@@ -3746,19 +3746,19 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>2210030229</v>
+        <v>2210030163</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="F50" t="s">
         <v>286</v>
@@ -3770,16 +3770,16 @@
         <v>287</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-49.pdf"</v>
+        <f>H50&amp;E50&amp;H50</f>
+        <v>"SWP CSEA-74.pdf"</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-49.pdf" "2210030229.pdf"</v>
+        <f>G50&amp;F50&amp;I50&amp;F50&amp;K50</f>
+        <v>ren "SWP CSEA-74.pdf" "2210030163.pdf"</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030229.pdf"</v>
+        <f>H50&amp;A50&amp;L50&amp;H50</f>
+        <v>"2210030163.pdf"</v>
       </c>
       <c r="L50" t="s">
         <v>288</v>
@@ -3787,19 +3787,19 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>2210030103</v>
+        <v>2210030171</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F51" t="s">
         <v>286</v>
@@ -3811,16 +3811,16 @@
         <v>287</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-50.pdf"</v>
+        <f>H51&amp;E51&amp;H51</f>
+        <v>"SWP CSEA-53.pdf"</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-50.pdf" "2210030103.pdf"</v>
+        <f>G51&amp;F51&amp;I51&amp;F51&amp;K51</f>
+        <v>ren "SWP CSEA-53.pdf" "2210030171.pdf"</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030103.pdf"</v>
+        <f>H51&amp;A51&amp;L51&amp;H51</f>
+        <v>"2210030171.pdf"</v>
       </c>
       <c r="L51" t="s">
         <v>288</v>
@@ -3828,19 +3828,19 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
-        <v>2210030048</v>
+        <v>2210030181</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="E52" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="F52" t="s">
         <v>286</v>
@@ -3852,16 +3852,16 @@
         <v>287</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-51.pdf"</v>
+        <f>H52&amp;E52&amp;H52</f>
+        <v>"SWP CSEA-118.pdf"</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-51.pdf" "2210030048.pdf"</v>
+        <f>G52&amp;F52&amp;I52&amp;F52&amp;K52</f>
+        <v>ren "SWP CSEA-118.pdf" "2210030181.pdf"</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030048.pdf"</v>
+        <f>H52&amp;A52&amp;L52&amp;H52</f>
+        <v>"2210030181.pdf"</v>
       </c>
       <c r="L52" t="s">
         <v>288</v>
@@ -3869,19 +3869,19 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
-        <v>2210030016</v>
+        <v>2210030184</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E53" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F53" t="s">
         <v>286</v>
@@ -3893,16 +3893,16 @@
         <v>287</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-52.pdf"</v>
+        <f>H53&amp;E53&amp;H53</f>
+        <v>"SWP CSEA-56.pdf"</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-52.pdf" "2210030016.pdf"</v>
+        <f>G53&amp;F53&amp;I53&amp;F53&amp;K53</f>
+        <v>ren "SWP CSEA-56.pdf" "2210030184.pdf"</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030016.pdf"</v>
+        <f>H53&amp;A53&amp;L53&amp;H53</f>
+        <v>"2210030184.pdf"</v>
       </c>
       <c r="L53" t="s">
         <v>288</v>
@@ -3910,19 +3910,19 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
-        <v>2210030171</v>
+        <v>2210030186</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="E54" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="F54" t="s">
         <v>286</v>
@@ -3934,16 +3934,16 @@
         <v>287</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-53.pdf"</v>
+        <f>H54&amp;E54&amp;H54</f>
+        <v>"SWP CSEA-119.pdf"</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-53.pdf" "2210030171.pdf"</v>
+        <f>G54&amp;F54&amp;I54&amp;F54&amp;K54</f>
+        <v>ren "SWP CSEA-119.pdf" "2210030186.pdf"</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030171.pdf"</v>
+        <f>H54&amp;A54&amp;L54&amp;H54</f>
+        <v>"2210030186.pdf"</v>
       </c>
       <c r="L54" t="s">
         <v>288</v>
@@ -3951,19 +3951,19 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
-        <v>2210030325</v>
+        <v>2210030200</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="F55" t="s">
         <v>286</v>
@@ -3975,16 +3975,16 @@
         <v>287</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-54.pdf"</v>
+        <f>H55&amp;E55&amp;H55</f>
+        <v>"SWP CSEA-25.pdf"</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-54.pdf" "2210030325.pdf"</v>
+        <f>G55&amp;F55&amp;I55&amp;F55&amp;K55</f>
+        <v>ren "SWP CSEA-25.pdf" "2210030200.pdf"</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030325.pdf"</v>
+        <f>H55&amp;A55&amp;L55&amp;H55</f>
+        <v>"2210030200.pdf"</v>
       </c>
       <c r="L55" t="s">
         <v>288</v>
@@ -3992,19 +3992,19 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
-        <v>2210030393</v>
+        <v>2210030200</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="F56" t="s">
         <v>286</v>
@@ -4016,16 +4016,16 @@
         <v>287</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-55.pdf"</v>
+        <f>H56&amp;E56&amp;H56</f>
+        <v>"SWP CSEA-27.pdf"</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-55.pdf" "2210030393.pdf"</v>
+        <f>G56&amp;F56&amp;I56&amp;F56&amp;K56</f>
+        <v>ren "SWP CSEA-27.pdf" "2210030200.pdf"</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030393.pdf"</v>
+        <f>H56&amp;A56&amp;L56&amp;H56</f>
+        <v>"2210030200.pdf"</v>
       </c>
       <c r="L56" t="s">
         <v>288</v>
@@ -4033,19 +4033,19 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
-        <v>2210030184</v>
+        <v>2210030201</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="F57" t="s">
         <v>286</v>
@@ -4057,16 +4057,16 @@
         <v>287</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-56.pdf"</v>
+        <f>H57&amp;E57&amp;H57</f>
+        <v>"SWP CSEA-26.pdf"</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-56.pdf" "2210030184.pdf"</v>
+        <f>G57&amp;F57&amp;I57&amp;F57&amp;K57</f>
+        <v>ren "SWP CSEA-26.pdf" "2210030201.pdf"</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030184.pdf"</v>
+        <f>H57&amp;A57&amp;L57&amp;H57</f>
+        <v>"2210030201.pdf"</v>
       </c>
       <c r="L57" t="s">
         <v>288</v>
@@ -4074,19 +4074,19 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
-        <v>2210030071</v>
+        <v>2210030201</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="F58" t="s">
         <v>286</v>
@@ -4098,16 +4098,16 @@
         <v>287</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-57.pdf"</v>
+        <f>H58&amp;E58&amp;H58</f>
+        <v>"SWP CSEA-28.pdf"</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-57.pdf" "2210030071.pdf"</v>
+        <f>G58&amp;F58&amp;I58&amp;F58&amp;K58</f>
+        <v>ren "SWP CSEA-28.pdf" "2210030201.pdf"</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030071.pdf"</v>
+        <f>H58&amp;A58&amp;L58&amp;H58</f>
+        <v>"2210030201.pdf"</v>
       </c>
       <c r="L58" t="s">
         <v>288</v>
@@ -4115,19 +4115,19 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
-        <v>2210030072</v>
+        <v>2210030204</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="F59" t="s">
         <v>286</v>
@@ -4139,16 +4139,16 @@
         <v>287</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-58.pdf"</v>
+        <f>H59&amp;E59&amp;H59</f>
+        <v>"SWP CSEA-33.pdf"</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-58.pdf" "2210030072.pdf"</v>
+        <f>G59&amp;F59&amp;I59&amp;F59&amp;K59</f>
+        <v>ren "SWP CSEA-33.pdf" "2210030204.pdf"</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030072.pdf"</v>
+        <f>H59&amp;A59&amp;L59&amp;H59</f>
+        <v>"2210030204.pdf"</v>
       </c>
       <c r="L59" t="s">
         <v>288</v>
@@ -4156,19 +4156,19 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
-        <v>2210030307</v>
+        <v>2210030210</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>119</v>
+        <v>254</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>120</v>
+        <v>255</v>
       </c>
       <c r="E60" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="F60" t="s">
         <v>286</v>
@@ -4180,16 +4180,16 @@
         <v>287</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-59.pdf"</v>
+        <f>H60&amp;E60&amp;H60</f>
+        <v>"SWP CSEA-128.pdf"</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-59.pdf" "2210030307.pdf"</v>
+        <f>G60&amp;F60&amp;I60&amp;F60&amp;K60</f>
+        <v>ren "SWP CSEA-128.pdf" "2210030210.pdf"</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030307.pdf"</v>
+        <f>H60&amp;A60&amp;L60&amp;H60</f>
+        <v>"2210030210.pdf"</v>
       </c>
       <c r="L60" t="s">
         <v>288</v>
@@ -4197,19 +4197,19 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
-        <v>2210030313</v>
+        <v>2210030213</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="E61" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="F61" t="s">
         <v>286</v>
@@ -4221,16 +4221,16 @@
         <v>287</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-60.pdf"</v>
+        <f>H61&amp;E61&amp;H61</f>
+        <v>"SWP CSEA-134.pdf"</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-60.pdf" "2210030313.pdf"</v>
+        <f>G61&amp;F61&amp;I61&amp;F61&amp;K61</f>
+        <v>ren "SWP CSEA-134.pdf" "2210030213.pdf"</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030313.pdf"</v>
+        <f>H61&amp;A61&amp;L61&amp;H61</f>
+        <v>"2210030213.pdf"</v>
       </c>
       <c r="L61" t="s">
         <v>288</v>
@@ -4238,19 +4238,19 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
-        <v>2210030491</v>
+        <v>2210030214</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="F62" t="s">
         <v>286</v>
@@ -4262,16 +4262,16 @@
         <v>287</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-61.pdf"</v>
+        <f>H62&amp;E62&amp;H62</f>
+        <v>"SWP CSEA-5.pdf"</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-61.pdf" "2210030491.pdf"</v>
+        <f>G62&amp;F62&amp;I62&amp;F62&amp;K62</f>
+        <v>ren "SWP CSEA-5.pdf" "2210030214.pdf"</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030491.pdf"</v>
+        <f>H62&amp;A62&amp;L62&amp;H62</f>
+        <v>"2210030214.pdf"</v>
       </c>
       <c r="L62" t="s">
         <v>288</v>
@@ -4279,19 +4279,19 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
-        <v>2210030224</v>
+        <v>2210030222</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="F63" t="s">
         <v>286</v>
@@ -4303,16 +4303,16 @@
         <v>287</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-62.pdf"</v>
+        <f>H63&amp;E63&amp;H63</f>
+        <v>"SWP CSEA-4.pdf"</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-62.pdf" "2210030224.pdf"</v>
+        <f>G63&amp;F63&amp;I63&amp;F63&amp;K63</f>
+        <v>ren "SWP CSEA-4.pdf" "2210030222.pdf"</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030224.pdf"</v>
+        <f>H63&amp;A63&amp;L63&amp;H63</f>
+        <v>"2210030222.pdf"</v>
       </c>
       <c r="L63" t="s">
         <v>288</v>
@@ -4320,19 +4320,19 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
-        <v>2210030047</v>
+        <v>2210030224</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F64" t="s">
         <v>286</v>
@@ -4344,16 +4344,16 @@
         <v>287</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-63.pdf"</v>
+        <f>H64&amp;E64&amp;H64</f>
+        <v>"SWP CSEA-62.pdf"</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-63.pdf" "2210030047.pdf"</v>
+        <f>G64&amp;F64&amp;I64&amp;F64&amp;K64</f>
+        <v>ren "SWP CSEA-62.pdf" "2210030224.pdf"</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030047.pdf"</v>
+        <f>H64&amp;A64&amp;L64&amp;H64</f>
+        <v>"2210030224.pdf"</v>
       </c>
       <c r="L64" t="s">
         <v>288</v>
@@ -4361,19 +4361,19 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
-        <v>2210030426</v>
+        <v>2210030229</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E65" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F65" t="s">
         <v>286</v>
@@ -4385,16 +4385,16 @@
         <v>287</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-64.pdf"</v>
+        <f>H65&amp;E65&amp;H65</f>
+        <v>"SWP CSEA-49.pdf"</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-64.pdf" "2210030426.pdf"</v>
+        <f>G65&amp;F65&amp;I65&amp;F65&amp;K65</f>
+        <v>ren "SWP CSEA-49.pdf" "2210030229.pdf"</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030426.pdf"</v>
+        <f>H65&amp;A65&amp;L65&amp;H65</f>
+        <v>"2210030229.pdf"</v>
       </c>
       <c r="L65" t="s">
         <v>288</v>
@@ -4402,19 +4402,19 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
-        <v>2210030264</v>
+        <v>2210030236</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="E66" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="F66" t="s">
         <v>286</v>
@@ -4426,16 +4426,16 @@
         <v>287</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-65.pdf"</v>
+        <f>H66&amp;E66&amp;H66</f>
+        <v>"SWP CSEA-34.pdf"</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-65.pdf" "2210030264.pdf"</v>
+        <f>G66&amp;F66&amp;I66&amp;F66&amp;K66</f>
+        <v>ren "SWP CSEA-34.pdf" "2210030236.pdf"</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030264.pdf"</v>
+        <f>H66&amp;A66&amp;L66&amp;H66</f>
+        <v>"2210030236.pdf"</v>
       </c>
       <c r="L66" t="s">
         <v>288</v>
@@ -4443,19 +4443,19 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <v>2210030055</v>
+        <v>2210030255</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="E67" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="F67" t="s">
         <v>286</v>
@@ -4467,16 +4467,16 @@
         <v>287</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-66.pdf"</v>
+        <f>H67&amp;E67&amp;H67</f>
+        <v>"SWP CSEA-30.pdf"</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-66.pdf" "2210030055.pdf"</v>
+        <f>G67&amp;F67&amp;I67&amp;F67&amp;K67</f>
+        <v>ren "SWP CSEA-30.pdf" "2210030255.pdf"</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030055.pdf"</v>
+        <f>H67&amp;A67&amp;L67&amp;H67</f>
+        <v>"2210030255.pdf"</v>
       </c>
       <c r="L67" t="s">
         <v>288</v>
@@ -4484,19 +4484,19 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
-        <v>2210030009</v>
+        <v>2210030255</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="E68" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="F68" t="s">
         <v>286</v>
@@ -4508,16 +4508,16 @@
         <v>287</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-67.pdf"</v>
+        <f>H68&amp;E68&amp;H68</f>
+        <v>"SWP CSEA-112.pdf"</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-67.pdf" "2210030009.pdf"</v>
+        <f>G68&amp;F68&amp;I68&amp;F68&amp;K68</f>
+        <v>ren "SWP CSEA-112.pdf" "2210030255.pdf"</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030009.pdf"</v>
+        <f>H68&amp;A68&amp;L68&amp;H68</f>
+        <v>"2210030255.pdf"</v>
       </c>
       <c r="L68" t="s">
         <v>288</v>
@@ -4525,19 +4525,19 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <v>2210030302</v>
+        <v>2210030256</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="E69" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="F69" t="s">
         <v>286</v>
@@ -4549,16 +4549,16 @@
         <v>287</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-68.pdf"</v>
+        <f>H69&amp;E69&amp;H69</f>
+        <v>"SWP CSEA-116.pdf"</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-68.pdf" "2210030302.pdf"</v>
+        <f>G69&amp;F69&amp;I69&amp;F69&amp;K69</f>
+        <v>ren "SWP CSEA-116.pdf" "2210030256.pdf"</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030302.pdf"</v>
+        <f>H69&amp;A69&amp;L69&amp;H69</f>
+        <v>"2210030256.pdf"</v>
       </c>
       <c r="L69" t="s">
         <v>288</v>
@@ -4566,19 +4566,19 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
-        <v>2210030284</v>
+        <v>2210030260</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="E70" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="F70" t="s">
         <v>286</v>
@@ -4590,16 +4590,16 @@
         <v>287</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-69.pdf"</v>
+        <f>H70&amp;E70&amp;H70</f>
+        <v>"SWP CSEA-87.pdf"</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-69.pdf" "2210030284.pdf"</v>
+        <f>G70&amp;F70&amp;I70&amp;F70&amp;K70</f>
+        <v>ren "SWP CSEA-87.pdf" "2210030260.pdf"</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030284.pdf"</v>
+        <f>H70&amp;A70&amp;L70&amp;H70</f>
+        <v>"2210030260.pdf"</v>
       </c>
       <c r="L70" t="s">
         <v>288</v>
@@ -4607,19 +4607,19 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <v>2210030447</v>
+        <v>2210030264</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E71" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F71" t="s">
         <v>286</v>
@@ -4631,16 +4631,16 @@
         <v>287</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="3"/>
-        <v>"SWP CSEA-70.pdf"</v>
+        <f>H71&amp;E71&amp;H71</f>
+        <v>"SWP CSEA-65.pdf"</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="4"/>
-        <v>ren "SWP CSEA-70.pdf" "2210030447.pdf"</v>
+        <f>G71&amp;F71&amp;I71&amp;F71&amp;K71</f>
+        <v>ren "SWP CSEA-65.pdf" "2210030264.pdf"</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="5"/>
-        <v>"2210030447.pdf"</v>
+        <f>H71&amp;A71&amp;L71&amp;H71</f>
+        <v>"2210030264.pdf"</v>
       </c>
       <c r="L71" t="s">
         <v>288</v>
@@ -4648,19 +4648,19 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
-        <v>2210030401</v>
+        <v>2210030279</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="E72" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="F72" t="s">
         <v>286</v>
@@ -4672,16 +4672,16 @@
         <v>287</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" ref="I72:I135" si="6">H72&amp;E72&amp;H72</f>
-        <v>"SWP CSEA-71.pdf"</v>
+        <f>H72&amp;E72&amp;H72</f>
+        <v>"SWP CSEA-90.pdf"</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" ref="J72:J135" si="7">G72&amp;F72&amp;I72&amp;F72&amp;K72</f>
-        <v>ren "SWP CSEA-71.pdf" "2210030401.pdf"</v>
+        <f>G72&amp;F72&amp;I72&amp;F72&amp;K72</f>
+        <v>ren "SWP CSEA-90.pdf" "2210030279.pdf"</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" ref="K72:K135" si="8">H72&amp;A72&amp;L72&amp;H72</f>
-        <v>"2210030401.pdf"</v>
+        <f>H72&amp;A72&amp;L72&amp;H72</f>
+        <v>"2210030279.pdf"</v>
       </c>
       <c r="L72" t="s">
         <v>288</v>
@@ -4689,19 +4689,19 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
-        <v>2210030467</v>
+        <v>2210030284</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E73" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F73" t="s">
         <v>286</v>
@@ -4713,16 +4713,16 @@
         <v>287</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-72.pdf"</v>
+        <f>H73&amp;E73&amp;H73</f>
+        <v>"SWP CSEA-69.pdf"</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-72.pdf" "2210030467.pdf"</v>
+        <f>G73&amp;F73&amp;I73&amp;F73&amp;K73</f>
+        <v>ren "SWP CSEA-69.pdf" "2210030284.pdf"</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030467.pdf"</v>
+        <f>H73&amp;A73&amp;L73&amp;H73</f>
+        <v>"2210030284.pdf"</v>
       </c>
       <c r="L73" t="s">
         <v>288</v>
@@ -4730,19 +4730,19 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
-        <v>2210030402</v>
+        <v>2210030289</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="E74" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="F74" t="s">
         <v>286</v>
@@ -4754,16 +4754,16 @@
         <v>287</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-73.pdf"</v>
+        <f>H74&amp;E74&amp;H74</f>
+        <v>"SWP CSEA-117.pdf"</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-73.pdf" "2210030402.pdf"</v>
+        <f>G74&amp;F74&amp;I74&amp;F74&amp;K74</f>
+        <v>ren "SWP CSEA-117.pdf" "2210030289.pdf"</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030402.pdf"</v>
+        <f>H74&amp;A74&amp;L74&amp;H74</f>
+        <v>"2210030289.pdf"</v>
       </c>
       <c r="L74" t="s">
         <v>288</v>
@@ -4771,19 +4771,19 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
-        <v>2210030163</v>
+        <v>2210030291</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="E75" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="F75" t="s">
         <v>286</v>
@@ -4795,16 +4795,16 @@
         <v>287</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-74.pdf"</v>
+        <f>H75&amp;E75&amp;H75</f>
+        <v>"SWP CSEA-114.pdf"</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-74.pdf" "2210030163.pdf"</v>
+        <f>G75&amp;F75&amp;I75&amp;F75&amp;K75</f>
+        <v>ren "SWP CSEA-114.pdf" "2210030291.pdf"</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030163.pdf"</v>
+        <f>H75&amp;A75&amp;L75&amp;H75</f>
+        <v>"2210030291.pdf"</v>
       </c>
       <c r="L75" t="s">
         <v>288</v>
@@ -4812,19 +4812,19 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
-        <v>2210030430</v>
+        <v>2210030302</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E76" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F76" t="s">
         <v>286</v>
@@ -4836,16 +4836,16 @@
         <v>287</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-75.pdf"</v>
+        <f>H76&amp;E76&amp;H76</f>
+        <v>"SWP CSEA-68.pdf"</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-75.pdf" "2210030430.pdf"</v>
+        <f>G76&amp;F76&amp;I76&amp;F76&amp;K76</f>
+        <v>ren "SWP CSEA-68.pdf" "2210030302.pdf"</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030430.pdf"</v>
+        <f>H76&amp;A76&amp;L76&amp;H76</f>
+        <v>"2210030302.pdf"</v>
       </c>
       <c r="L76" t="s">
         <v>288</v>
@@ -4853,19 +4853,19 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
-        <v>2210030439</v>
+        <v>2210030307</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="E77" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="F77" t="s">
         <v>286</v>
@@ -4877,16 +4877,16 @@
         <v>287</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-76.pdf"</v>
+        <f>H77&amp;E77&amp;H77</f>
+        <v>"SWP CSEA-59.pdf"</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-76.pdf" "2210030439.pdf"</v>
+        <f>G77&amp;F77&amp;I77&amp;F77&amp;K77</f>
+        <v>ren "SWP CSEA-59.pdf" "2210030307.pdf"</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030439.pdf"</v>
+        <f>H77&amp;A77&amp;L77&amp;H77</f>
+        <v>"2210030307.pdf"</v>
       </c>
       <c r="L77" t="s">
         <v>288</v>
@@ -4894,19 +4894,19 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
-        <v>2210030442</v>
+        <v>2210030313</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="E78" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="F78" t="s">
         <v>286</v>
@@ -4918,16 +4918,16 @@
         <v>287</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-77.pdf"</v>
+        <f>H78&amp;E78&amp;H78</f>
+        <v>"SWP CSEA-60.pdf"</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-77.pdf" "2210030442.pdf"</v>
+        <f>G78&amp;F78&amp;I78&amp;F78&amp;K78</f>
+        <v>ren "SWP CSEA-60.pdf" "2210030313.pdf"</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030442.pdf"</v>
+        <f>H78&amp;A78&amp;L78&amp;H78</f>
+        <v>"2210030313.pdf"</v>
       </c>
       <c r="L78" t="s">
         <v>288</v>
@@ -4935,19 +4935,19 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
-        <v>2210030493</v>
+        <v>2210030325</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="F79" t="s">
         <v>286</v>
@@ -4959,16 +4959,16 @@
         <v>287</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-78.pdf"</v>
+        <f>H79&amp;E79&amp;H79</f>
+        <v>"SWP CSEA-54.pdf"</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-78.pdf" "2210030493.pdf"</v>
+        <f>G79&amp;F79&amp;I79&amp;F79&amp;K79</f>
+        <v>ren "SWP CSEA-54.pdf" "2210030325.pdf"</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030493.pdf"</v>
+        <f>H79&amp;A79&amp;L79&amp;H79</f>
+        <v>"2210030325.pdf"</v>
       </c>
       <c r="L79" t="s">
         <v>288</v>
@@ -4976,19 +4976,19 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
-        <v>2210030006</v>
+        <v>2210030330</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="E80" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F80" t="s">
         <v>286</v>
@@ -5000,16 +5000,16 @@
         <v>287</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-79.pdf"</v>
+        <f>H80&amp;E80&amp;H80</f>
+        <v>"SWP CSEA-113.pdf"</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-79.pdf" "2210030006.pdf"</v>
+        <f>G80&amp;F80&amp;I80&amp;F80&amp;K80</f>
+        <v>ren "SWP CSEA-113.pdf" "2210030330.pdf"</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030006.pdf"</v>
+        <f>H80&amp;A80&amp;L80&amp;H80</f>
+        <v>"2210030330.pdf"</v>
       </c>
       <c r="L80" t="s">
         <v>288</v>
@@ -5017,19 +5017,19 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
-        <v>2210030007</v>
+        <v>2210030334</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="E81" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="F81" t="s">
         <v>286</v>
@@ -5041,16 +5041,16 @@
         <v>287</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-80.pdf"</v>
+        <f>H81&amp;E81&amp;H81</f>
+        <v>"SWP CSEA-13.pdf"</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-80.pdf" "2210030007.pdf"</v>
+        <f>G81&amp;F81&amp;I81&amp;F81&amp;K81</f>
+        <v>ren "SWP CSEA-13.pdf" "2210030334.pdf"</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030007.pdf"</v>
+        <f>H81&amp;A81&amp;L81&amp;H81</f>
+        <v>"2210030334.pdf"</v>
       </c>
       <c r="L81" t="s">
         <v>288</v>
@@ -5058,19 +5058,19 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
-        <v>2210030464</v>
+        <v>2210030338</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="F82" t="s">
         <v>286</v>
@@ -5082,16 +5082,16 @@
         <v>287</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-81.pdf"</v>
+        <f>H82&amp;E82&amp;H82</f>
+        <v>"SWP CSEA-22.pdf"</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-81.pdf" "2210030464.pdf"</v>
+        <f>G82&amp;F82&amp;I82&amp;F82&amp;K82</f>
+        <v>ren "SWP CSEA-22.pdf" "2210030338.pdf"</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030464.pdf"</v>
+        <f>H82&amp;A82&amp;L82&amp;H82</f>
+        <v>"2210030338.pdf"</v>
       </c>
       <c r="L82" t="s">
         <v>288</v>
@@ -5099,19 +5099,19 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
-        <v>2210030452</v>
+        <v>2210030341</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="E83" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="F83" t="s">
         <v>286</v>
@@ -5123,16 +5123,16 @@
         <v>287</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-82.pdf"</v>
+        <f>H83&amp;E83&amp;H83</f>
+        <v>"SWP CSEA-95.pdf"</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-82.pdf" "2210030452.pdf"</v>
+        <f>G83&amp;F83&amp;I83&amp;F83&amp;K83</f>
+        <v>ren "SWP CSEA-95.pdf" "2210030341.pdf"</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030452.pdf"</v>
+        <f>H83&amp;A83&amp;L83&amp;H83</f>
+        <v>"2210030341.pdf"</v>
       </c>
       <c r="L83" t="s">
         <v>288</v>
@@ -5140,19 +5140,19 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
-        <v>2210030073</v>
+        <v>2210030343</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="E84" t="s">
-        <v>371</v>
+        <v>303</v>
       </c>
       <c r="F84" t="s">
         <v>286</v>
@@ -5164,16 +5164,16 @@
         <v>287</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-83.pdf"</v>
+        <f>H84&amp;E84&amp;H84</f>
+        <v>"SWP CSEA-14.pdf"</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-83.pdf" "2210030073.pdf"</v>
+        <f>G84&amp;F84&amp;I84&amp;F84&amp;K84</f>
+        <v>ren "SWP CSEA-14.pdf" "2210030343.pdf"</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030073.pdf"</v>
+        <f>H84&amp;A84&amp;L84&amp;H84</f>
+        <v>"2210030343.pdf"</v>
       </c>
       <c r="L84" t="s">
         <v>288</v>
@@ -5181,19 +5181,19 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
-        <v>2210030067</v>
+        <v>2210030344</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="E85" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="F85" t="s">
         <v>286</v>
@@ -5205,16 +5205,16 @@
         <v>287</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-84.pdf"</v>
+        <f>H85&amp;E85&amp;H85</f>
+        <v>"SWP CSEA-106.pdf"</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-84.pdf" "2210030067.pdf"</v>
+        <f>G85&amp;F85&amp;I85&amp;F85&amp;K85</f>
+        <v>ren "SWP CSEA-106.pdf" "2210030344.pdf"</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030067.pdf"</v>
+        <f>H85&amp;A85&amp;L85&amp;H85</f>
+        <v>"2210030344.pdf"</v>
       </c>
       <c r="L85" t="s">
         <v>288</v>
@@ -5222,19 +5222,19 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
-        <v>2210030066</v>
+        <v>2210030348</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="E86" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F86" t="s">
         <v>286</v>
@@ -5246,16 +5246,16 @@
         <v>287</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-85.pdf"</v>
+        <f>H86&amp;E86&amp;H86</f>
+        <v>"SWP CSEA-93.pdf"</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-85.pdf" "2210030066.pdf"</v>
+        <f>G86&amp;F86&amp;I86&amp;F86&amp;K86</f>
+        <v>ren "SWP CSEA-93.pdf" "2210030348.pdf"</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030066.pdf"</v>
+        <f>H86&amp;A86&amp;L86&amp;H86</f>
+        <v>"2210030348.pdf"</v>
       </c>
       <c r="L86" t="s">
         <v>288</v>
@@ -5263,19 +5263,19 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
-        <v>2210030085</v>
+        <v>2210030352</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="E87" t="s">
-        <v>374</v>
+        <v>297</v>
       </c>
       <c r="F87" t="s">
         <v>286</v>
@@ -5287,16 +5287,16 @@
         <v>287</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-86.pdf"</v>
+        <f>H87&amp;E87&amp;H87</f>
+        <v>"SWP CSEA-8.pdf"</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-86.pdf" "2210030085.pdf"</v>
+        <f>G87&amp;F87&amp;I87&amp;F87&amp;K87</f>
+        <v>ren "SWP CSEA-8.pdf" "2210030352.pdf"</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030085.pdf"</v>
+        <f>H87&amp;A87&amp;L87&amp;H87</f>
+        <v>"2210030352.pdf"</v>
       </c>
       <c r="L87" t="s">
         <v>288</v>
@@ -5304,19 +5304,19 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
-        <v>2210030260</v>
+        <v>2210030355</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>176</v>
+        <v>275</v>
       </c>
       <c r="E88" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="F88" t="s">
         <v>286</v>
@@ -5328,16 +5328,16 @@
         <v>287</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-87.pdf"</v>
+        <f>H88&amp;E88&amp;H88</f>
+        <v>"SWP CSEA-138.pdf"</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-87.pdf" "2210030260.pdf"</v>
+        <f>G88&amp;F88&amp;I88&amp;F88&amp;K88</f>
+        <v>ren "SWP CSEA-138.pdf" "2210030355.pdf"</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030260.pdf"</v>
+        <f>H88&amp;A88&amp;L88&amp;H88</f>
+        <v>"2210030355.pdf"</v>
       </c>
       <c r="L88" t="s">
         <v>288</v>
@@ -5345,19 +5345,19 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
-        <v>2210030019</v>
+        <v>2210030363</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="E89" t="s">
-        <v>376</v>
+        <v>301</v>
       </c>
       <c r="F89" t="s">
         <v>286</v>
@@ -5369,16 +5369,16 @@
         <v>287</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-88.pdf"</v>
+        <f>H89&amp;E89&amp;H89</f>
+        <v>"SWP CSEA-12.pdf"</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-88.pdf" "2210030019.pdf"</v>
+        <f>G89&amp;F89&amp;I89&amp;F89&amp;K89</f>
+        <v>ren "SWP CSEA-12.pdf" "2210030363.pdf"</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030019.pdf"</v>
+        <f>H89&amp;A89&amp;L89&amp;H89</f>
+        <v>"2210030363.pdf"</v>
       </c>
       <c r="L89" t="s">
         <v>288</v>
@@ -5386,19 +5386,19 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
-        <v>2210030012</v>
+        <v>2210030369</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>179</v>
+        <v>268</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>180</v>
+        <v>269</v>
       </c>
       <c r="E90" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="F90" t="s">
         <v>286</v>
@@ -5410,16 +5410,16 @@
         <v>287</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-89.pdf"</v>
+        <f>H90&amp;E90&amp;H90</f>
+        <v>"SWP CSEA-135.pdf"</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-89.pdf" "2210030012.pdf"</v>
+        <f>G90&amp;F90&amp;I90&amp;F90&amp;K90</f>
+        <v>ren "SWP CSEA-135.pdf" "2210030369.pdf"</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030012.pdf"</v>
+        <f>H90&amp;A90&amp;L90&amp;H90</f>
+        <v>"2210030369.pdf"</v>
       </c>
       <c r="L90" t="s">
         <v>288</v>
@@ -5427,19 +5427,19 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
-        <v>2210030279</v>
+        <v>2210030372</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="E91" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="F91" t="s">
         <v>286</v>
@@ -5451,16 +5451,16 @@
         <v>287</v>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-90.pdf"</v>
+        <f>H91&amp;E91&amp;H91</f>
+        <v>"SWP CSEA-21.pdf"</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-90.pdf" "2210030279.pdf"</v>
+        <f>G91&amp;F91&amp;I91&amp;F91&amp;K91</f>
+        <v>ren "SWP CSEA-21.pdf" "2210030372.pdf"</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030279.pdf"</v>
+        <f>H91&amp;A91&amp;L91&amp;H91</f>
+        <v>"2210030372.pdf"</v>
       </c>
       <c r="L91" t="s">
         <v>288</v>
@@ -5468,19 +5468,19 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
-        <v>2210030134</v>
+        <v>2210030378</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E92" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F92" t="s">
         <v>286</v>
@@ -5492,16 +5492,16 @@
         <v>287</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-91.pdf"</v>
+        <f>H92&amp;E92&amp;H92</f>
+        <v>"SWP CSEA-92.pdf"</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-91.pdf" "2210030134.pdf"</v>
+        <f>G92&amp;F92&amp;I92&amp;F92&amp;K92</f>
+        <v>ren "SWP CSEA-92.pdf" "2210030378.pdf"</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030134.pdf"</v>
+        <f>H92&amp;A92&amp;L92&amp;H92</f>
+        <v>"2210030378.pdf"</v>
       </c>
       <c r="L92" t="s">
         <v>288</v>
@@ -5509,19 +5509,19 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
-        <v>2210030378</v>
+        <v>2210030379</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="E93" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="F93" t="s">
         <v>286</v>
@@ -5533,16 +5533,16 @@
         <v>287</v>
       </c>
       <c r="I93" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-92.pdf"</v>
+        <f>H93&amp;E93&amp;H93</f>
+        <v>"SWP CSEA-136.pdf"</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-92.pdf" "2210030378.pdf"</v>
+        <f>G93&amp;F93&amp;I93&amp;F93&amp;K93</f>
+        <v>ren "SWP CSEA-136.pdf" "2210030379.pdf"</v>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030378.pdf"</v>
+        <f>H93&amp;A93&amp;L93&amp;H93</f>
+        <v>"2210030379.pdf"</v>
       </c>
       <c r="L93" t="s">
         <v>288</v>
@@ -5550,19 +5550,19 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
-        <v>2210030348</v>
+        <v>2210030380</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="E94" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="F94" t="s">
         <v>286</v>
@@ -5574,16 +5574,16 @@
         <v>287</v>
       </c>
       <c r="I94" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-93.pdf"</v>
+        <f>H94&amp;E94&amp;H94</f>
+        <v>"SWP CSEA-137.pdf"</v>
       </c>
       <c r="J94" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-93.pdf" "2210030348.pdf"</v>
+        <f>G94&amp;F94&amp;I94&amp;F94&amp;K94</f>
+        <v>ren "SWP CSEA-137.pdf" "2210030380.pdf"</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030348.pdf"</v>
+        <f>H94&amp;A94&amp;L94&amp;H94</f>
+        <v>"2210030380.pdf"</v>
       </c>
       <c r="L94" t="s">
         <v>288</v>
@@ -5591,19 +5591,19 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
-        <v>2210030485</v>
+        <v>2210030387</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="E95" t="s">
-        <v>382</v>
+        <v>317</v>
       </c>
       <c r="F95" t="s">
         <v>286</v>
@@ -5615,16 +5615,16 @@
         <v>287</v>
       </c>
       <c r="I95" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-94.pdf"</v>
+        <f>H95&amp;E95&amp;H95</f>
+        <v>"SWP CSEA-29.pdf"</v>
       </c>
       <c r="J95" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-94.pdf" "2210030485.pdf"</v>
+        <f>G95&amp;F95&amp;I95&amp;F95&amp;K95</f>
+        <v>ren "SWP CSEA-29.pdf" "2210030387.pdf"</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030485.pdf"</v>
+        <f>H95&amp;A95&amp;L95&amp;H95</f>
+        <v>"2210030387.pdf"</v>
       </c>
       <c r="L95" t="s">
         <v>288</v>
@@ -5632,19 +5632,19 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
-        <v>2210030341</v>
+        <v>2210030388</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="E96" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
       <c r="F96" t="s">
         <v>286</v>
@@ -5656,16 +5656,16 @@
         <v>287</v>
       </c>
       <c r="I96" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-95.pdf"</v>
+        <f>H96&amp;E96&amp;H96</f>
+        <v>"SWP CSEA-20.pdf"</v>
       </c>
       <c r="J96" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-95.pdf" "2210030341.pdf"</v>
+        <f>G96&amp;F96&amp;I96&amp;F96&amp;K96</f>
+        <v>ren "SWP CSEA-20.pdf" "2210030388.pdf"</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030341.pdf"</v>
+        <f>H96&amp;A96&amp;L96&amp;H96</f>
+        <v>"2210030388.pdf"</v>
       </c>
       <c r="L96" t="s">
         <v>288</v>
@@ -5673,19 +5673,19 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
-        <v>2210030408</v>
+        <v>2210030393</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="E97" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="F97" t="s">
         <v>286</v>
@@ -5697,16 +5697,16 @@
         <v>287</v>
       </c>
       <c r="I97" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-96.pdf"</v>
+        <f>H97&amp;E97&amp;H97</f>
+        <v>"SWP CSEA-55.pdf"</v>
       </c>
       <c r="J97" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-96.pdf" "2210030408.pdf"</v>
+        <f>G97&amp;F97&amp;I97&amp;F97&amp;K97</f>
+        <v>ren "SWP CSEA-55.pdf" "2210030393.pdf"</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030408.pdf"</v>
+        <f>H97&amp;A97&amp;L97&amp;H97</f>
+        <v>"2210030393.pdf"</v>
       </c>
       <c r="L97" t="s">
         <v>288</v>
@@ -5714,19 +5714,19 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
-        <v>2210030411</v>
+        <v>2210030399</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="E98" t="s">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="F98" t="s">
         <v>286</v>
@@ -5738,16 +5738,16 @@
         <v>287</v>
       </c>
       <c r="I98" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-97.pdf"</v>
+        <f>H98&amp;E98&amp;H98</f>
+        <v>"SWP CSEA-24.pdf"</v>
       </c>
       <c r="J98" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-97.pdf" "2210030411.pdf"</v>
+        <f>G98&amp;F98&amp;I98&amp;F98&amp;K98</f>
+        <v>ren "SWP CSEA-24.pdf" "2210030399.pdf"</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030411.pdf"</v>
+        <f>H98&amp;A98&amp;L98&amp;H98</f>
+        <v>"2210030399.pdf"</v>
       </c>
       <c r="L98" t="s">
         <v>288</v>
@@ -5755,19 +5755,19 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
-        <v>2210030422</v>
+        <v>2210030400</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="E99" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="F99" t="s">
         <v>286</v>
@@ -5779,16 +5779,16 @@
         <v>287</v>
       </c>
       <c r="I99" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-98.pdf"</v>
+        <f>H99&amp;E99&amp;H99</f>
+        <v>"SWP CSEA-46.pdf"</v>
       </c>
       <c r="J99" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-98.pdf" "2210030422.pdf"</v>
+        <f>G99&amp;F99&amp;I99&amp;F99&amp;K99</f>
+        <v>ren "SWP CSEA-46.pdf" "2210030400.pdf"</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030422.pdf"</v>
+        <f>H99&amp;A99&amp;L99&amp;H99</f>
+        <v>"2210030400.pdf"</v>
       </c>
       <c r="L99" t="s">
         <v>288</v>
@@ -5796,19 +5796,19 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
-        <v>2210030458</v>
+        <v>2210030401</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="E100" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="F100" t="s">
         <v>286</v>
@@ -5820,16 +5820,16 @@
         <v>287</v>
       </c>
       <c r="I100" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-99.pdf"</v>
+        <f>H100&amp;E100&amp;H100</f>
+        <v>"SWP CSEA-71.pdf"</v>
       </c>
       <c r="J100" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-99.pdf" "2210030458.pdf"</v>
+        <f>G100&amp;F100&amp;I100&amp;F100&amp;K100</f>
+        <v>ren "SWP CSEA-71.pdf" "2210030401.pdf"</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030458.pdf"</v>
+        <f>H100&amp;A100&amp;L100&amp;H100</f>
+        <v>"2210030401.pdf"</v>
       </c>
       <c r="L100" t="s">
         <v>288</v>
@@ -5837,19 +5837,19 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
-        <v>2210030473</v>
+        <v>2210030402</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="E101" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="F101" t="s">
         <v>286</v>
@@ -5861,16 +5861,16 @@
         <v>287</v>
       </c>
       <c r="I101" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-100.pdf"</v>
+        <f>H101&amp;E101&amp;H101</f>
+        <v>"SWP CSEA-73.pdf"</v>
       </c>
       <c r="J101" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-100.pdf" "2210030473.pdf"</v>
+        <f>G101&amp;F101&amp;I101&amp;F101&amp;K101</f>
+        <v>ren "SWP CSEA-73.pdf" "2210030402.pdf"</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030473.pdf"</v>
+        <f>H101&amp;A101&amp;L101&amp;H101</f>
+        <v>"2210030402.pdf"</v>
       </c>
       <c r="L101" t="s">
         <v>288</v>
@@ -5878,19 +5878,19 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
-        <v>2210030435</v>
+        <v>2210030403</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="E102" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="F102" t="s">
         <v>286</v>
@@ -5902,16 +5902,16 @@
         <v>287</v>
       </c>
       <c r="I102" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-101.pdf"</v>
+        <f>H102&amp;E102&amp;H102</f>
+        <v>"SWP CSEA-37.pdf"</v>
       </c>
       <c r="J102" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-101.pdf" "2210030435.pdf"</v>
+        <f>G102&amp;F102&amp;I102&amp;F102&amp;K102</f>
+        <v>ren "SWP CSEA-37.pdf" "2210030403.pdf"</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030435.pdf"</v>
+        <f>H102&amp;A102&amp;L102&amp;H102</f>
+        <v>"2210030403.pdf"</v>
       </c>
       <c r="L102" t="s">
         <v>288</v>
@@ -5919,19 +5919,19 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
-        <v>2210030423</v>
+        <v>2210030408</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E103" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F103" t="s">
         <v>286</v>
@@ -5943,16 +5943,16 @@
         <v>287</v>
       </c>
       <c r="I103" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-102.pdf"</v>
+        <f>H103&amp;E103&amp;H103</f>
+        <v>"SWP CSEA-96.pdf"</v>
       </c>
       <c r="J103" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-102.pdf" "2210030423.pdf"</v>
+        <f>G103&amp;F103&amp;I103&amp;F103&amp;K103</f>
+        <v>ren "SWP CSEA-96.pdf" "2210030408.pdf"</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030423.pdf"</v>
+        <f>H103&amp;A103&amp;L103&amp;H103</f>
+        <v>"2210030408.pdf"</v>
       </c>
       <c r="L103" t="s">
         <v>288</v>
@@ -5960,19 +5960,19 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
-        <v>2210030416</v>
+        <v>2210030411</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E104" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F104" t="s">
         <v>286</v>
@@ -5984,16 +5984,16 @@
         <v>287</v>
       </c>
       <c r="I104" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-103.pdf"</v>
+        <f>H104&amp;E104&amp;H104</f>
+        <v>"SWP CSEA-97.pdf"</v>
       </c>
       <c r="J104" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-103.pdf" "2210030416.pdf"</v>
+        <f>G104&amp;F104&amp;I104&amp;F104&amp;K104</f>
+        <v>ren "SWP CSEA-97.pdf" "2210030411.pdf"</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030416.pdf"</v>
+        <f>H104&amp;A104&amp;L104&amp;H104</f>
+        <v>"2210030411.pdf"</v>
       </c>
       <c r="L104" t="s">
         <v>288</v>
@@ -6001,19 +6001,19 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
-        <v>2210030050</v>
+        <v>2210030416</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E105" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F105" t="s">
         <v>286</v>
@@ -6025,16 +6025,16 @@
         <v>287</v>
       </c>
       <c r="I105" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-104.pdf"</v>
+        <f>H105&amp;E105&amp;H105</f>
+        <v>"SWP CSEA-103.pdf"</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-104.pdf" "2210030050.pdf"</v>
+        <f>G105&amp;F105&amp;I105&amp;F105&amp;K105</f>
+        <v>ren "SWP CSEA-103.pdf" "2210030416.pdf"</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030050.pdf"</v>
+        <f>H105&amp;A105&amp;L105&amp;H105</f>
+        <v>"2210030416.pdf"</v>
       </c>
       <c r="L105" t="s">
         <v>288</v>
@@ -6042,19 +6042,19 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
-        <v>2210030064</v>
+        <v>2210030418</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="E106" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="F106" t="s">
         <v>286</v>
@@ -6066,16 +6066,16 @@
         <v>287</v>
       </c>
       <c r="I106" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-105.pdf"</v>
+        <f>H106&amp;E106&amp;H106</f>
+        <v>"SWP CSEA-45.pdf"</v>
       </c>
       <c r="J106" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-105.pdf" "2210030064.pdf"</v>
+        <f>G106&amp;F106&amp;I106&amp;F106&amp;K106</f>
+        <v>ren "SWP CSEA-45.pdf" "2210030418.pdf"</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030064.pdf"</v>
+        <f>H106&amp;A106&amp;L106&amp;H106</f>
+        <v>"2210030418.pdf"</v>
       </c>
       <c r="L106" t="s">
         <v>288</v>
@@ -6083,19 +6083,19 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
-        <v>2210030344</v>
+        <v>2210030419</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>394</v>
+        <v>311</v>
       </c>
       <c r="F107" t="s">
         <v>286</v>
@@ -6107,16 +6107,16 @@
         <v>287</v>
       </c>
       <c r="I107" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-106.pdf"</v>
+        <f>H107&amp;E107&amp;H107</f>
+        <v>"SWP CSEA-23.pdf"</v>
       </c>
       <c r="J107" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-106.pdf" "2210030344.pdf"</v>
+        <f>G107&amp;F107&amp;I107&amp;F107&amp;K107</f>
+        <v>ren "SWP CSEA-23.pdf" "2210030419.pdf"</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030344.pdf"</v>
+        <f>H107&amp;A107&amp;L107&amp;H107</f>
+        <v>"2210030419.pdf"</v>
       </c>
       <c r="L107" t="s">
         <v>288</v>
@@ -6124,19 +6124,19 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
-        <v>2210030045</v>
+        <v>2210030420</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="E108" t="s">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="F108" t="s">
         <v>286</v>
@@ -6148,16 +6148,16 @@
         <v>287</v>
       </c>
       <c r="I108" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-107.pdf"</v>
+        <f>H108&amp;E108&amp;H108</f>
+        <v>"SWP CSEA-38.pdf"</v>
       </c>
       <c r="J108" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-107.pdf" "2210030045.pdf"</v>
+        <f>G108&amp;F108&amp;I108&amp;F108&amp;K108</f>
+        <v>ren "SWP CSEA-38.pdf" "2210030420.pdf"</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030045.pdf"</v>
+        <f>H108&amp;A108&amp;L108&amp;H108</f>
+        <v>"2210030420.pdf"</v>
       </c>
       <c r="L108" t="s">
         <v>288</v>
@@ -6165,19 +6165,19 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
-        <v>2210030039</v>
+        <v>2210030422</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="E109" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F109" t="s">
         <v>286</v>
@@ -6189,16 +6189,16 @@
         <v>287</v>
       </c>
       <c r="I109" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-108.pdf"</v>
+        <f>H109&amp;E109&amp;H109</f>
+        <v>"SWP CSEA-98.pdf"</v>
       </c>
       <c r="J109" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-108.pdf" "2210030039.pdf"</v>
+        <f>G109&amp;F109&amp;I109&amp;F109&amp;K109</f>
+        <v>ren "SWP CSEA-98.pdf" "2210030422.pdf"</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030039.pdf"</v>
+        <f>H109&amp;A109&amp;L109&amp;H109</f>
+        <v>"2210030422.pdf"</v>
       </c>
       <c r="L109" t="s">
         <v>288</v>
@@ -6206,19 +6206,19 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
-        <v>2210030040</v>
+        <v>2210030423</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E110" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F110" t="s">
         <v>286</v>
@@ -6230,16 +6230,16 @@
         <v>287</v>
       </c>
       <c r="I110" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-109.pdf"</v>
+        <f>H110&amp;E110&amp;H110</f>
+        <v>"SWP CSEA-102.pdf"</v>
       </c>
       <c r="J110" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-109.pdf" "2210030040.pdf"</v>
+        <f>G110&amp;F110&amp;I110&amp;F110&amp;K110</f>
+        <v>ren "SWP CSEA-102.pdf" "2210030423.pdf"</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030040.pdf"</v>
+        <f>H110&amp;A110&amp;L110&amp;H110</f>
+        <v>"2210030423.pdf"</v>
       </c>
       <c r="L110" t="s">
         <v>288</v>
@@ -6247,19 +6247,19 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
-        <v>2210030027</v>
+        <v>2210030425</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="E111" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="F111" t="s">
         <v>286</v>
@@ -6271,16 +6271,16 @@
         <v>287</v>
       </c>
       <c r="I111" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-110.pdf"</v>
+        <f>H111&amp;E111&amp;H111</f>
+        <v>"SWP CSEA-129.pdf"</v>
       </c>
       <c r="J111" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-110.pdf" "2210030027.pdf"</v>
+        <f>G111&amp;F111&amp;I111&amp;F111&amp;K111</f>
+        <v>ren "SWP CSEA-129.pdf" "2210030425.pdf"</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030027.pdf"</v>
+        <f>H111&amp;A111&amp;L111&amp;H111</f>
+        <v>"2210030425.pdf"</v>
       </c>
       <c r="L111" t="s">
         <v>288</v>
@@ -6288,19 +6288,19 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
-        <v>2210030013</v>
+        <v>2210030426</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="E112" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="F112" t="s">
         <v>286</v>
@@ -6312,16 +6312,16 @@
         <v>287</v>
       </c>
       <c r="I112" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-111.pdf"</v>
+        <f>H112&amp;E112&amp;H112</f>
+        <v>"SWP CSEA-64.pdf"</v>
       </c>
       <c r="J112" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-111.pdf" "2210030013.pdf"</v>
+        <f>G112&amp;F112&amp;I112&amp;F112&amp;K112</f>
+        <v>ren "SWP CSEA-64.pdf" "2210030426.pdf"</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030013.pdf"</v>
+        <f>H112&amp;A112&amp;L112&amp;H112</f>
+        <v>"2210030426.pdf"</v>
       </c>
       <c r="L112" t="s">
         <v>288</v>
@@ -6329,19 +6329,19 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
-        <v>2210030255</v>
+        <v>2210030429</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>223</v>
+        <v>72</v>
       </c>
       <c r="E113" t="s">
-        <v>400</v>
+        <v>323</v>
       </c>
       <c r="F113" t="s">
         <v>286</v>
@@ -6353,16 +6353,16 @@
         <v>287</v>
       </c>
       <c r="I113" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-112.pdf"</v>
+        <f>H113&amp;E113&amp;H113</f>
+        <v>"SWP CSEA-35.pdf"</v>
       </c>
       <c r="J113" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-112.pdf" "2210030255.pdf"</v>
+        <f>G113&amp;F113&amp;I113&amp;F113&amp;K113</f>
+        <v>ren "SWP CSEA-35.pdf" "2210030429.pdf"</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030255.pdf"</v>
+        <f>H113&amp;A113&amp;L113&amp;H113</f>
+        <v>"2210030429.pdf"</v>
       </c>
       <c r="L113" t="s">
         <v>288</v>
@@ -6370,19 +6370,19 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
-        <v>2210030330</v>
+        <v>2210030430</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="E114" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="F114" t="s">
         <v>286</v>
@@ -6394,16 +6394,16 @@
         <v>287</v>
       </c>
       <c r="I114" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-113.pdf"</v>
+        <f>H114&amp;E114&amp;H114</f>
+        <v>"SWP CSEA-75.pdf"</v>
       </c>
       <c r="J114" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-113.pdf" "2210030330.pdf"</v>
+        <f>G114&amp;F114&amp;I114&amp;F114&amp;K114</f>
+        <v>ren "SWP CSEA-75.pdf" "2210030430.pdf"</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030330.pdf"</v>
+        <f>H114&amp;A114&amp;L114&amp;H114</f>
+        <v>"2210030430.pdf"</v>
       </c>
       <c r="L114" t="s">
         <v>288</v>
@@ -6411,19 +6411,19 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
-        <v>2210030291</v>
+        <v>2210030434</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="E115" t="s">
-        <v>402</v>
+        <v>327</v>
       </c>
       <c r="F115" t="s">
         <v>286</v>
@@ -6435,16 +6435,16 @@
         <v>287</v>
       </c>
       <c r="I115" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-114.pdf"</v>
+        <f>H115&amp;E115&amp;H115</f>
+        <v>"SWP CSEA-39.pdf"</v>
       </c>
       <c r="J115" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-114.pdf" "2210030291.pdf"</v>
+        <f>G115&amp;F115&amp;I115&amp;F115&amp;K115</f>
+        <v>ren "SWP CSEA-39.pdf" "2210030434.pdf"</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030291.pdf"</v>
+        <f>H115&amp;A115&amp;L115&amp;H115</f>
+        <v>"2210030434.pdf"</v>
       </c>
       <c r="L115" t="s">
         <v>288</v>
@@ -6452,19 +6452,19 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
-        <v>2210039514</v>
+        <v>2210030435</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="E116" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="F116" t="s">
         <v>286</v>
@@ -6476,16 +6476,16 @@
         <v>287</v>
       </c>
       <c r="I116" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-115.pdf"</v>
+        <f>H116&amp;E116&amp;H116</f>
+        <v>"SWP CSEA-101.pdf"</v>
       </c>
       <c r="J116" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-115.pdf" "2210039514.pdf"</v>
+        <f>G116&amp;F116&amp;I116&amp;F116&amp;K116</f>
+        <v>ren "SWP CSEA-101.pdf" "2210030435.pdf"</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210039514.pdf"</v>
+        <f>H116&amp;A116&amp;L116&amp;H116</f>
+        <v>"2210030435.pdf"</v>
       </c>
       <c r="L116" t="s">
         <v>288</v>
@@ -6493,19 +6493,19 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
-        <v>2210030256</v>
+        <v>2210030437</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E117" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F117" t="s">
         <v>286</v>
@@ -6517,16 +6517,16 @@
         <v>287</v>
       </c>
       <c r="I117" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-116.pdf"</v>
+        <f>H117&amp;E117&amp;H117</f>
+        <v>"SWP CSEA-121.pdf"</v>
       </c>
       <c r="J117" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-116.pdf" "2210030256.pdf"</v>
+        <f>G117&amp;F117&amp;I117&amp;F117&amp;K117</f>
+        <v>ren "SWP CSEA-121.pdf" "2210030437.pdf"</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030256.pdf"</v>
+        <f>H117&amp;A117&amp;L117&amp;H117</f>
+        <v>"2210030437.pdf"</v>
       </c>
       <c r="L117" t="s">
         <v>288</v>
@@ -6534,19 +6534,19 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
-        <v>2210030289</v>
+        <v>2210030439</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="E118" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="F118" t="s">
         <v>286</v>
@@ -6558,16 +6558,16 @@
         <v>287</v>
       </c>
       <c r="I118" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-117.pdf"</v>
+        <f>H118&amp;E118&amp;H118</f>
+        <v>"SWP CSEA-76.pdf"</v>
       </c>
       <c r="J118" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-117.pdf" "2210030289.pdf"</v>
+        <f>G118&amp;F118&amp;I118&amp;F118&amp;K118</f>
+        <v>ren "SWP CSEA-76.pdf" "2210030439.pdf"</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030289.pdf"</v>
+        <f>H118&amp;A118&amp;L118&amp;H118</f>
+        <v>"2210030439.pdf"</v>
       </c>
       <c r="L118" t="s">
         <v>288</v>
@@ -6575,19 +6575,19 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
-        <v>2210030181</v>
+        <v>2210030442</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="E119" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="F119" t="s">
         <v>286</v>
@@ -6599,16 +6599,16 @@
         <v>287</v>
       </c>
       <c r="I119" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-118.pdf"</v>
+        <f>H119&amp;E119&amp;H119</f>
+        <v>"SWP CSEA-77.pdf"</v>
       </c>
       <c r="J119" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-118.pdf" "2210030181.pdf"</v>
+        <f>G119&amp;F119&amp;I119&amp;F119&amp;K119</f>
+        <v>ren "SWP CSEA-77.pdf" "2210030442.pdf"</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030181.pdf"</v>
+        <f>H119&amp;A119&amp;L119&amp;H119</f>
+        <v>"2210030442.pdf"</v>
       </c>
       <c r="L119" t="s">
         <v>288</v>
@@ -6616,19 +6616,19 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
-        <v>2210030186</v>
+        <v>2210030447</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="E120" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="F120" t="s">
         <v>286</v>
@@ -6640,16 +6640,16 @@
         <v>287</v>
       </c>
       <c r="I120" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-119.pdf"</v>
+        <f>H120&amp;E120&amp;H120</f>
+        <v>"SWP CSEA-70.pdf"</v>
       </c>
       <c r="J120" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-119.pdf" "2210030186.pdf"</v>
+        <f>G120&amp;F120&amp;I120&amp;F120&amp;K120</f>
+        <v>ren "SWP CSEA-70.pdf" "2210030447.pdf"</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030186.pdf"</v>
+        <f>H120&amp;A120&amp;L120&amp;H120</f>
+        <v>"2210030447.pdf"</v>
       </c>
       <c r="L120" t="s">
         <v>288</v>
@@ -6657,19 +6657,19 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
-        <v>2210030472</v>
+        <v>2210030451</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="E121" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="F121" t="s">
         <v>286</v>
@@ -6681,16 +6681,16 @@
         <v>287</v>
       </c>
       <c r="I121" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-120.pdf"</v>
+        <f>H121&amp;E121&amp;H121</f>
+        <v>"SWP CSEA-139.pdf"</v>
       </c>
       <c r="J121" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-120.pdf" "2210030472.pdf"</v>
+        <f>G121&amp;F121&amp;I121&amp;F121&amp;K121</f>
+        <v>ren "SWP CSEA-139.pdf" "2210030451.pdf"</v>
       </c>
       <c r="K121" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030472.pdf"</v>
+        <f>H121&amp;A121&amp;L121&amp;H121</f>
+        <v>"2210030451.pdf"</v>
       </c>
       <c r="L121" t="s">
         <v>288</v>
@@ -6698,19 +6698,19 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
-        <v>2210030437</v>
+        <v>2210030452</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="E122" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="F122" t="s">
         <v>286</v>
@@ -6722,16 +6722,16 @@
         <v>287</v>
       </c>
       <c r="I122" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-121.pdf"</v>
+        <f>H122&amp;E122&amp;H122</f>
+        <v>"SWP CSEA-82.pdf"</v>
       </c>
       <c r="J122" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-121.pdf" "2210030437.pdf"</v>
+        <f>G122&amp;F122&amp;I122&amp;F122&amp;K122</f>
+        <v>ren "SWP CSEA-82.pdf" "2210030452.pdf"</v>
       </c>
       <c r="K122" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030437.pdf"</v>
+        <f>H122&amp;A122&amp;L122&amp;H122</f>
+        <v>"2210030452.pdf"</v>
       </c>
       <c r="L122" t="s">
         <v>288</v>
@@ -6739,19 +6739,19 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
-        <v>2210030092</v>
+        <v>2210030453</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="E123" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="F123" t="s">
         <v>286</v>
@@ -6763,16 +6763,16 @@
         <v>287</v>
       </c>
       <c r="I123" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-122.pdf"</v>
+        <f>H123&amp;E123&amp;H123</f>
+        <v>"SWP CSEA-131.pdf"</v>
       </c>
       <c r="J123" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-122.pdf" "2210030092.pdf"</v>
+        <f>G123&amp;F123&amp;I123&amp;F123&amp;K123</f>
+        <v>ren "SWP CSEA-131.pdf" "2210030453.pdf"</v>
       </c>
       <c r="K123" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030092.pdf"</v>
+        <f>H123&amp;A123&amp;L123&amp;H123</f>
+        <v>"2210030453.pdf"</v>
       </c>
       <c r="L123" t="s">
         <v>288</v>
@@ -6780,19 +6780,19 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
-        <v>2210030468</v>
+        <v>2210030455</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="E124" t="s">
-        <v>411</v>
+        <v>329</v>
       </c>
       <c r="F124" t="s">
         <v>286</v>
@@ -6804,16 +6804,16 @@
         <v>287</v>
       </c>
       <c r="I124" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-123.pdf"</v>
+        <f>H124&amp;E124&amp;H124</f>
+        <v>"SWP CSEA-41.pdf"</v>
       </c>
       <c r="J124" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-123.pdf" "2210030468.pdf"</v>
+        <f>G124&amp;F124&amp;I124&amp;F124&amp;K124</f>
+        <v>ren "SWP CSEA-41.pdf" "2210030455.pdf"</v>
       </c>
       <c r="K124" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030468.pdf"</v>
+        <f>H124&amp;A124&amp;L124&amp;H124</f>
+        <v>"2210030455.pdf"</v>
       </c>
       <c r="L124" t="s">
         <v>288</v>
@@ -6821,19 +6821,19 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
-        <v>2200032942</v>
+        <v>2210030458</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="E125" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="F125" t="s">
         <v>286</v>
@@ -6845,16 +6845,16 @@
         <v>287</v>
       </c>
       <c r="I125" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-124.pdf"</v>
+        <f>H125&amp;E125&amp;H125</f>
+        <v>"SWP CSEA-99.pdf"</v>
       </c>
       <c r="J125" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-124.pdf" "2200032942.pdf"</v>
+        <f>G125&amp;F125&amp;I125&amp;F125&amp;K125</f>
+        <v>ren "SWP CSEA-99.pdf" "2210030458.pdf"</v>
       </c>
       <c r="K125" t="str">
-        <f t="shared" si="8"/>
-        <v>"2200032942.pdf"</v>
+        <f>H125&amp;A125&amp;L125&amp;H125</f>
+        <v>"2210030458.pdf"</v>
       </c>
       <c r="L125" t="s">
         <v>288</v>
@@ -6862,19 +6862,19 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
-        <v>2210030052</v>
+        <v>2210030459</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E126" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F126" t="s">
         <v>286</v>
@@ -6886,16 +6886,16 @@
         <v>287</v>
       </c>
       <c r="I126" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-125.pdf"</v>
+        <f>H126&amp;E126&amp;H126</f>
+        <v>"SWP CSEA-130.pdf"</v>
       </c>
       <c r="J126" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-125.pdf" "2210030052.pdf"</v>
+        <f>G126&amp;F126&amp;I126&amp;F126&amp;K126</f>
+        <v>ren "SWP CSEA-130.pdf" "2210030459.pdf"</v>
       </c>
       <c r="K126" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030052.pdf"</v>
+        <f>H126&amp;A126&amp;L126&amp;H126</f>
+        <v>"2210030459.pdf"</v>
       </c>
       <c r="L126" t="s">
         <v>288</v>
@@ -6903,19 +6903,19 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
-        <v>2210030032</v>
+        <v>2210030462</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>250</v>
+        <v>73</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="E127" t="s">
-        <v>414</v>
+        <v>324</v>
       </c>
       <c r="F127" t="s">
         <v>286</v>
@@ -6927,16 +6927,16 @@
         <v>287</v>
       </c>
       <c r="I127" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-126.pdf"</v>
+        <f>H127&amp;E127&amp;H127</f>
+        <v>"SWP CSEA-36.pdf"</v>
       </c>
       <c r="J127" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-126.pdf" "2210030032.pdf"</v>
+        <f>G127&amp;F127&amp;I127&amp;F127&amp;K127</f>
+        <v>ren "SWP CSEA-36.pdf" "2210030462.pdf"</v>
       </c>
       <c r="K127" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030032.pdf"</v>
+        <f>H127&amp;A127&amp;L127&amp;H127</f>
+        <v>"2210030462.pdf"</v>
       </c>
       <c r="L127" t="s">
         <v>288</v>
@@ -6944,19 +6944,19 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
-        <v>2210030128</v>
+        <v>2210030464</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="E128" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="F128" t="s">
         <v>286</v>
@@ -6968,16 +6968,16 @@
         <v>287</v>
       </c>
       <c r="I128" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-127.pdf"</v>
+        <f>H128&amp;E128&amp;H128</f>
+        <v>"SWP CSEA-81.pdf"</v>
       </c>
       <c r="J128" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-127.pdf" "2210030128.pdf"</v>
+        <f>G128&amp;F128&amp;I128&amp;F128&amp;K128</f>
+        <v>ren "SWP CSEA-81.pdf" "2210030464.pdf"</v>
       </c>
       <c r="K128" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030128.pdf"</v>
+        <f>H128&amp;A128&amp;L128&amp;H128</f>
+        <v>"2210030464.pdf"</v>
       </c>
       <c r="L128" t="s">
         <v>288</v>
@@ -6985,19 +6985,19 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
-        <v>2210030210</v>
+        <v>2210030467</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="E129" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="F129" t="s">
         <v>286</v>
@@ -7009,16 +7009,16 @@
         <v>287</v>
       </c>
       <c r="I129" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-128.pdf"</v>
+        <f>H129&amp;E129&amp;H129</f>
+        <v>"SWP CSEA-72.pdf"</v>
       </c>
       <c r="J129" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-128.pdf" "2210030210.pdf"</v>
+        <f>G129&amp;F129&amp;I129&amp;F129&amp;K129</f>
+        <v>ren "SWP CSEA-72.pdf" "2210030467.pdf"</v>
       </c>
       <c r="K129" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030210.pdf"</v>
+        <f>H129&amp;A129&amp;L129&amp;H129</f>
+        <v>"2210030467.pdf"</v>
       </c>
       <c r="L129" t="s">
         <v>288</v>
@@ -7026,19 +7026,19 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
-        <v>2210030425</v>
+        <v>2210030468</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E130" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F130" t="s">
         <v>286</v>
@@ -7050,16 +7050,16 @@
         <v>287</v>
       </c>
       <c r="I130" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-129.pdf"</v>
+        <f>H130&amp;E130&amp;H130</f>
+        <v>"SWP CSEA-123.pdf"</v>
       </c>
       <c r="J130" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-129.pdf" "2210030425.pdf"</v>
+        <f>G130&amp;F130&amp;I130&amp;F130&amp;K130</f>
+        <v>ren "SWP CSEA-123.pdf" "2210030468.pdf"</v>
       </c>
       <c r="K130" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030425.pdf"</v>
+        <f>H130&amp;A130&amp;L130&amp;H130</f>
+        <v>"2210030468.pdf"</v>
       </c>
       <c r="L130" t="s">
         <v>288</v>
@@ -7067,19 +7067,19 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
-        <v>2210030459</v>
+        <v>2210030472</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="E131" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="F131" t="s">
         <v>286</v>
@@ -7091,16 +7091,16 @@
         <v>287</v>
       </c>
       <c r="I131" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-130.pdf"</v>
+        <f>H131&amp;E131&amp;H131</f>
+        <v>"SWP CSEA-120.pdf"</v>
       </c>
       <c r="J131" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-130.pdf" "2210030459.pdf"</v>
+        <f>G131&amp;F131&amp;I131&amp;F131&amp;K131</f>
+        <v>ren "SWP CSEA-120.pdf" "2210030472.pdf"</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030459.pdf"</v>
+        <f>H131&amp;A131&amp;L131&amp;H131</f>
+        <v>"2210030472.pdf"</v>
       </c>
       <c r="L131" t="s">
         <v>288</v>
@@ -7108,19 +7108,19 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
-        <v>2210030453</v>
+        <v>2210030473</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="E132" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="F132" t="s">
         <v>286</v>
@@ -7132,16 +7132,16 @@
         <v>287</v>
       </c>
       <c r="I132" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-131.pdf"</v>
+        <f>H132&amp;E132&amp;H132</f>
+        <v>"SWP CSEA-100.pdf"</v>
       </c>
       <c r="J132" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-131.pdf" "2210030453.pdf"</v>
+        <f>G132&amp;F132&amp;I132&amp;F132&amp;K132</f>
+        <v>ren "SWP CSEA-100.pdf" "2210030473.pdf"</v>
       </c>
       <c r="K132" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030453.pdf"</v>
+        <f>H132&amp;A132&amp;L132&amp;H132</f>
+        <v>"2210030473.pdf"</v>
       </c>
       <c r="L132" t="s">
         <v>288</v>
@@ -7149,19 +7149,19 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
-        <v>2210030001</v>
+        <v>2210030485</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="E133" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="F133" t="s">
         <v>286</v>
@@ -7173,16 +7173,16 @@
         <v>287</v>
       </c>
       <c r="I133" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-132.pdf"</v>
+        <f>H133&amp;E133&amp;H133</f>
+        <v>"SWP CSEA-94.pdf"</v>
       </c>
       <c r="J133" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-132.pdf" "2210030001.pdf"</v>
+        <f>G133&amp;F133&amp;I133&amp;F133&amp;K133</f>
+        <v>ren "SWP CSEA-94.pdf" "2210030485.pdf"</v>
       </c>
       <c r="K133" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030001.pdf"</v>
+        <f>H133&amp;A133&amp;L133&amp;H133</f>
+        <v>"2210030485.pdf"</v>
       </c>
       <c r="L133" t="s">
         <v>288</v>
@@ -7190,19 +7190,19 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
-        <v>2210030150</v>
+        <v>2210030487</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="E134" t="s">
-        <v>421</v>
+        <v>304</v>
       </c>
       <c r="F134" t="s">
         <v>286</v>
@@ -7214,16 +7214,16 @@
         <v>287</v>
       </c>
       <c r="I134" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-133.pdf"</v>
+        <f>H134&amp;E134&amp;H134</f>
+        <v>"SWP CSEA-15.pdf"</v>
       </c>
       <c r="J134" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-133.pdf" "2210030150.pdf"</v>
+        <f>G134&amp;F134&amp;I134&amp;F134&amp;K134</f>
+        <v>ren "SWP CSEA-15.pdf" "2210030487.pdf"</v>
       </c>
       <c r="K134" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030150.pdf"</v>
+        <f>H134&amp;A134&amp;L134&amp;H134</f>
+        <v>"2210030487.pdf"</v>
       </c>
       <c r="L134" t="s">
         <v>288</v>
@@ -7231,19 +7231,19 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
-        <v>2210030213</v>
+        <v>2210030491</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>266</v>
+        <v>123</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>267</v>
+        <v>124</v>
       </c>
       <c r="E135" t="s">
-        <v>422</v>
+        <v>349</v>
       </c>
       <c r="F135" t="s">
         <v>286</v>
@@ -7255,16 +7255,16 @@
         <v>287</v>
       </c>
       <c r="I135" t="str">
-        <f t="shared" si="6"/>
-        <v>"SWP CSEA-134.pdf"</v>
+        <f>H135&amp;E135&amp;H135</f>
+        <v>"SWP CSEA-61.pdf"</v>
       </c>
       <c r="J135" t="str">
-        <f t="shared" si="7"/>
-        <v>ren "SWP CSEA-134.pdf" "2210030213.pdf"</v>
+        <f>G135&amp;F135&amp;I135&amp;F135&amp;K135</f>
+        <v>ren "SWP CSEA-61.pdf" "2210030491.pdf"</v>
       </c>
       <c r="K135" t="str">
-        <f t="shared" si="8"/>
-        <v>"2210030213.pdf"</v>
+        <f>H135&amp;A135&amp;L135&amp;H135</f>
+        <v>"2210030491.pdf"</v>
       </c>
       <c r="L135" t="s">
         <v>288</v>
@@ -7272,19 +7272,19 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
-        <v>2210030369</v>
+        <v>2210030492</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>269</v>
+        <v>86</v>
       </c>
       <c r="E136" t="s">
-        <v>423</v>
+        <v>330</v>
       </c>
       <c r="F136" t="s">
         <v>286</v>
@@ -7296,16 +7296,16 @@
         <v>287</v>
       </c>
       <c r="I136" t="str">
-        <f t="shared" ref="I136:I140" si="9">H136&amp;E136&amp;H136</f>
-        <v>"SWP CSEA-135.pdf"</v>
+        <f>H136&amp;E136&amp;H136</f>
+        <v>"SWP CSEA-42.pdf"</v>
       </c>
       <c r="J136" t="str">
-        <f t="shared" ref="J136:J140" si="10">G136&amp;F136&amp;I136&amp;F136&amp;K136</f>
-        <v>ren "SWP CSEA-135.pdf" "2210030369.pdf"</v>
+        <f>G136&amp;F136&amp;I136&amp;F136&amp;K136</f>
+        <v>ren "SWP CSEA-42.pdf" "2210030492.pdf"</v>
       </c>
       <c r="K136" t="str">
-        <f t="shared" ref="K136:K140" si="11">H136&amp;A136&amp;L136&amp;H136</f>
-        <v>"2210030369.pdf"</v>
+        <f>H136&amp;A136&amp;L136&amp;H136</f>
+        <v>"2210030492.pdf"</v>
       </c>
       <c r="L136" t="s">
         <v>288</v>
@@ -7313,19 +7313,19 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
-        <v>2210030379</v>
+        <v>2210030493</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>271</v>
+        <v>158</v>
       </c>
       <c r="E137" t="s">
-        <v>424</v>
+        <v>366</v>
       </c>
       <c r="F137" t="s">
         <v>286</v>
@@ -7337,16 +7337,16 @@
         <v>287</v>
       </c>
       <c r="I137" t="str">
-        <f t="shared" si="9"/>
-        <v>"SWP CSEA-136.pdf"</v>
+        <f>H137&amp;E137&amp;H137</f>
+        <v>"SWP CSEA-78.pdf"</v>
       </c>
       <c r="J137" t="str">
-        <f t="shared" si="10"/>
-        <v>ren "SWP CSEA-136.pdf" "2210030379.pdf"</v>
+        <f>G137&amp;F137&amp;I137&amp;F137&amp;K137</f>
+        <v>ren "SWP CSEA-78.pdf" "2210030493.pdf"</v>
       </c>
       <c r="K137" t="str">
-        <f t="shared" si="11"/>
-        <v>"2210030379.pdf"</v>
+        <f>H137&amp;A137&amp;L137&amp;H137</f>
+        <v>"2210030493.pdf"</v>
       </c>
       <c r="L137" t="s">
         <v>288</v>
@@ -7354,19 +7354,19 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
-        <v>2210030380</v>
+        <v>2210030494</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>272</v>
+        <v>35</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>273</v>
+        <v>36</v>
       </c>
       <c r="E138" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="F138" t="s">
         <v>286</v>
@@ -7378,16 +7378,16 @@
         <v>287</v>
       </c>
       <c r="I138" t="str">
-        <f t="shared" si="9"/>
-        <v>"SWP CSEA-137.pdf"</v>
+        <f>H138&amp;E138&amp;H138</f>
+        <v>"SWP CSEA-16.pdf"</v>
       </c>
       <c r="J138" t="str">
-        <f t="shared" si="10"/>
-        <v>ren "SWP CSEA-137.pdf" "2210030380.pdf"</v>
+        <f>G138&amp;F138&amp;I138&amp;F138&amp;K138</f>
+        <v>ren "SWP CSEA-16.pdf" "2210030494.pdf"</v>
       </c>
       <c r="K138" t="str">
-        <f t="shared" si="11"/>
-        <v>"2210030380.pdf"</v>
+        <f>H138&amp;A138&amp;L138&amp;H138</f>
+        <v>"2210030494.pdf"</v>
       </c>
       <c r="L138" t="s">
         <v>288</v>
@@ -7395,19 +7395,19 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
-        <v>2210030355</v>
+        <v>2210030504</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="E139" t="s">
-        <v>426</v>
+        <v>328</v>
       </c>
       <c r="F139" t="s">
         <v>286</v>
@@ -7419,16 +7419,16 @@
         <v>287</v>
       </c>
       <c r="I139" t="str">
-        <f t="shared" si="9"/>
-        <v>"SWP CSEA-138.pdf"</v>
+        <f>H139&amp;E139&amp;H139</f>
+        <v>"SWP CSEA-40.pdf"</v>
       </c>
       <c r="J139" t="str">
-        <f t="shared" si="10"/>
-        <v>ren "SWP CSEA-138.pdf" "2210030355.pdf"</v>
+        <f>G139&amp;F139&amp;I139&amp;F139&amp;K139</f>
+        <v>ren "SWP CSEA-40.pdf" "2210030504.pdf"</v>
       </c>
       <c r="K139" t="str">
-        <f t="shared" si="11"/>
-        <v>"2210030355.pdf"</v>
+        <f>H139&amp;A139&amp;L139&amp;H139</f>
+        <v>"2210030504.pdf"</v>
       </c>
       <c r="L139" t="s">
         <v>288</v>
@@ -7436,19 +7436,19 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
-        <v>2210030451</v>
+        <v>2210039514</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="E140" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="F140" t="s">
         <v>286</v>
@@ -7460,16 +7460,16 @@
         <v>287</v>
       </c>
       <c r="I140" t="str">
-        <f t="shared" si="9"/>
-        <v>"SWP CSEA-139.pdf"</v>
+        <f>H140&amp;E140&amp;H140</f>
+        <v>"SWP CSEA-115.pdf"</v>
       </c>
       <c r="J140" t="str">
-        <f t="shared" si="10"/>
-        <v>ren "SWP CSEA-139.pdf" "2210030451.pdf"</v>
+        <f>G140&amp;F140&amp;I140&amp;F140&amp;K140</f>
+        <v>ren "SWP CSEA-115.pdf" "2210039514.pdf"</v>
       </c>
       <c r="K140" t="str">
-        <f t="shared" si="11"/>
-        <v>"2210030451.pdf"</v>
+        <f>H140&amp;A140&amp;L140&amp;H140</f>
+        <v>"2210039514.pdf"</v>
       </c>
       <c r="L140" t="s">
         <v>288</v>
@@ -11492,6 +11492,9 @@
     </row>
     <row r="944" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L944">
+    <sortCondition ref="A1:A944"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sac/SWP CSEA.xlsx
+++ b/sac/SWP CSEA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinak\Desktop\Projects\sac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5570AA09-7801-46F3-BB6D-A3914AA4DABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B06FCBE-3B6B-4945-8199-9C9CAE6DBD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{98530AE3-B1EA-4AA6-8635-CF13E503A420}"/>
   </bookViews>
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E194664F-41AC-47E3-BFD0-DB53E9C4F948}">
   <dimension ref="A1:L944"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1778,19 +1778,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>2200032942</v>
+        <v>2210030116</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>247</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>412</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
         <v>286</v>
@@ -1803,15 +1803,15 @@
       </c>
       <c r="I2" t="str">
         <f>H2&amp;E2&amp;H2</f>
-        <v>"SWP CSEA-124.pdf"</v>
+        <v>"SWP CSEA-1.pdf"</v>
       </c>
       <c r="J2" t="str">
         <f>G2&amp;F2&amp;I2&amp;F2&amp;K2</f>
-        <v>ren "SWP CSEA-124.pdf" "2200032942.pdf"</v>
+        <v>ren "SWP CSEA-1.pdf" "2210030116.pdf"</v>
       </c>
       <c r="K2" t="str">
         <f>H2&amp;A2&amp;L2&amp;H2</f>
-        <v>"2200032942.pdf"</v>
+        <v>"2210030116.pdf"</v>
       </c>
       <c r="L2" t="s">
         <v>288</v>
@@ -1819,19 +1819,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>2210030001</v>
+        <v>2210030077</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>263</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>420</v>
+        <v>299</v>
       </c>
       <c r="F3" t="s">
         <v>286</v>
@@ -1844,15 +1844,15 @@
       </c>
       <c r="I3" t="str">
         <f>H3&amp;E3&amp;H3</f>
-        <v>"SWP CSEA-132.pdf"</v>
+        <v>"SWP CSEA-10.pdf"</v>
       </c>
       <c r="J3" t="str">
         <f>G3&amp;F3&amp;I3&amp;F3&amp;K3</f>
-        <v>ren "SWP CSEA-132.pdf" "2210030001.pdf"</v>
+        <v>ren "SWP CSEA-10.pdf" "2210030077.pdf"</v>
       </c>
       <c r="K3" t="str">
         <f>H3&amp;A3&amp;L3&amp;H3</f>
-        <v>"2210030001.pdf"</v>
+        <v>"2210030077.pdf"</v>
       </c>
       <c r="L3" t="s">
         <v>288</v>
@@ -1860,19 +1860,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>2210030006</v>
+        <v>2210030473</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="F4" t="s">
         <v>286</v>
@@ -1885,15 +1885,15 @@
       </c>
       <c r="I4" t="str">
         <f>H4&amp;E4&amp;H4</f>
-        <v>"SWP CSEA-79.pdf"</v>
+        <v>"SWP CSEA-100.pdf"</v>
       </c>
       <c r="J4" t="str">
         <f>G4&amp;F4&amp;I4&amp;F4&amp;K4</f>
-        <v>ren "SWP CSEA-79.pdf" "2210030006.pdf"</v>
+        <v>ren "SWP CSEA-100.pdf" "2210030473.pdf"</v>
       </c>
       <c r="K4" t="str">
         <f>H4&amp;A4&amp;L4&amp;H4</f>
-        <v>"2210030006.pdf"</v>
+        <v>"2210030473.pdf"</v>
       </c>
       <c r="L4" t="s">
         <v>288</v>
@@ -1901,19 +1901,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>2210030007</v>
+        <v>2210030435</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="F5" t="s">
         <v>286</v>
@@ -1926,15 +1926,15 @@
       </c>
       <c r="I5" t="str">
         <f>H5&amp;E5&amp;H5</f>
-        <v>"SWP CSEA-80.pdf"</v>
+        <v>"SWP CSEA-101.pdf"</v>
       </c>
       <c r="J5" t="str">
         <f>G5&amp;F5&amp;I5&amp;F5&amp;K5</f>
-        <v>ren "SWP CSEA-80.pdf" "2210030007.pdf"</v>
+        <v>ren "SWP CSEA-101.pdf" "2210030435.pdf"</v>
       </c>
       <c r="K5" t="str">
         <f>H5&amp;A5&amp;L5&amp;H5</f>
-        <v>"2210030007.pdf"</v>
+        <v>"2210030435.pdf"</v>
       </c>
       <c r="L5" t="s">
         <v>288</v>
@@ -1942,19 +1942,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>2210030009</v>
+        <v>2210030423</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="E6" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="F6" t="s">
         <v>286</v>
@@ -1967,15 +1967,15 @@
       </c>
       <c r="I6" t="str">
         <f>H6&amp;E6&amp;H6</f>
-        <v>"SWP CSEA-67.pdf"</v>
+        <v>"SWP CSEA-102.pdf"</v>
       </c>
       <c r="J6" t="str">
         <f>G6&amp;F6&amp;I6&amp;F6&amp;K6</f>
-        <v>ren "SWP CSEA-67.pdf" "2210030009.pdf"</v>
+        <v>ren "SWP CSEA-102.pdf" "2210030423.pdf"</v>
       </c>
       <c r="K6" t="str">
         <f>H6&amp;A6&amp;L6&amp;H6</f>
-        <v>"2210030009.pdf"</v>
+        <v>"2210030423.pdf"</v>
       </c>
       <c r="L6" t="s">
         <v>288</v>
@@ -1983,19 +1983,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>2210030012</v>
+        <v>2210030416</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F7" t="s">
         <v>286</v>
@@ -2008,15 +2008,15 @@
       </c>
       <c r="I7" t="str">
         <f>H7&amp;E7&amp;H7</f>
-        <v>"SWP CSEA-89.pdf"</v>
+        <v>"SWP CSEA-103.pdf"</v>
       </c>
       <c r="J7" t="str">
         <f>G7&amp;F7&amp;I7&amp;F7&amp;K7</f>
-        <v>ren "SWP CSEA-89.pdf" "2210030012.pdf"</v>
+        <v>ren "SWP CSEA-103.pdf" "2210030416.pdf"</v>
       </c>
       <c r="K7" t="str">
         <f>H7&amp;A7&amp;L7&amp;H7</f>
-        <v>"2210030012.pdf"</v>
+        <v>"2210030416.pdf"</v>
       </c>
       <c r="L7" t="s">
         <v>288</v>
@@ -2024,19 +2024,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>2210030013</v>
+        <v>2210030050</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F8" t="s">
         <v>286</v>
@@ -2049,15 +2049,15 @@
       </c>
       <c r="I8" t="str">
         <f>H8&amp;E8&amp;H8</f>
-        <v>"SWP CSEA-111.pdf"</v>
+        <v>"SWP CSEA-104.pdf"</v>
       </c>
       <c r="J8" t="str">
         <f>G8&amp;F8&amp;I8&amp;F8&amp;K8</f>
-        <v>ren "SWP CSEA-111.pdf" "2210030013.pdf"</v>
+        <v>ren "SWP CSEA-104.pdf" "2210030050.pdf"</v>
       </c>
       <c r="K8" t="str">
         <f>H8&amp;A8&amp;L8&amp;H8</f>
-        <v>"2210030013.pdf"</v>
+        <v>"2210030050.pdf"</v>
       </c>
       <c r="L8" t="s">
         <v>288</v>
@@ -2065,19 +2065,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>2210030016</v>
+        <v>2210030064</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="F9" t="s">
         <v>286</v>
@@ -2090,15 +2090,15 @@
       </c>
       <c r="I9" t="str">
         <f>H9&amp;E9&amp;H9</f>
-        <v>"SWP CSEA-52.pdf"</v>
+        <v>"SWP CSEA-105.pdf"</v>
       </c>
       <c r="J9" t="str">
         <f>G9&amp;F9&amp;I9&amp;F9&amp;K9</f>
-        <v>ren "SWP CSEA-52.pdf" "2210030016.pdf"</v>
+        <v>ren "SWP CSEA-105.pdf" "2210030064.pdf"</v>
       </c>
       <c r="K9" t="str">
         <f>H9&amp;A9&amp;L9&amp;H9</f>
-        <v>"2210030016.pdf"</v>
+        <v>"2210030064.pdf"</v>
       </c>
       <c r="L9" t="s">
         <v>288</v>
@@ -2106,19 +2106,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>2210030018</v>
+        <v>2210030344</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>300</v>
+        <v>394</v>
       </c>
       <c r="F10" t="s">
         <v>286</v>
@@ -2131,15 +2131,15 @@
       </c>
       <c r="I10" t="str">
         <f>H10&amp;E10&amp;H10</f>
-        <v>"SWP CSEA-11.pdf"</v>
+        <v>"SWP CSEA-106.pdf"</v>
       </c>
       <c r="J10" t="str">
         <f>G10&amp;F10&amp;I10&amp;F10&amp;K10</f>
-        <v>ren "SWP CSEA-11.pdf" "2210030018.pdf"</v>
+        <v>ren "SWP CSEA-106.pdf" "2210030344.pdf"</v>
       </c>
       <c r="K10" t="str">
         <f>H10&amp;A10&amp;L10&amp;H10</f>
-        <v>"2210030018.pdf"</v>
+        <v>"2210030344.pdf"</v>
       </c>
       <c r="L10" t="s">
         <v>288</v>
@@ -2147,19 +2147,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>2210030019</v>
+        <v>2210030045</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="F11" t="s">
         <v>286</v>
@@ -2172,15 +2172,15 @@
       </c>
       <c r="I11" t="str">
         <f>H11&amp;E11&amp;H11</f>
-        <v>"SWP CSEA-88.pdf"</v>
+        <v>"SWP CSEA-107.pdf"</v>
       </c>
       <c r="J11" t="str">
         <f>G11&amp;F11&amp;I11&amp;F11&amp;K11</f>
-        <v>ren "SWP CSEA-88.pdf" "2210030019.pdf"</v>
+        <v>ren "SWP CSEA-107.pdf" "2210030045.pdf"</v>
       </c>
       <c r="K11" t="str">
         <f>H11&amp;A11&amp;L11&amp;H11</f>
-        <v>"2210030019.pdf"</v>
+        <v>"2210030045.pdf"</v>
       </c>
       <c r="L11" t="s">
         <v>288</v>
@@ -2188,19 +2188,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>2210030027</v>
+        <v>2210030039</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F12" t="s">
         <v>286</v>
@@ -2213,15 +2213,15 @@
       </c>
       <c r="I12" t="str">
         <f>H12&amp;E12&amp;H12</f>
-        <v>"SWP CSEA-110.pdf"</v>
+        <v>"SWP CSEA-108.pdf"</v>
       </c>
       <c r="J12" t="str">
         <f>G12&amp;F12&amp;I12&amp;F12&amp;K12</f>
-        <v>ren "SWP CSEA-110.pdf" "2210030027.pdf"</v>
+        <v>ren "SWP CSEA-108.pdf" "2210030039.pdf"</v>
       </c>
       <c r="K12" t="str">
         <f>H12&amp;A12&amp;L12&amp;H12</f>
-        <v>"2210030027.pdf"</v>
+        <v>"2210030039.pdf"</v>
       </c>
       <c r="L12" t="s">
         <v>288</v>
@@ -2229,19 +2229,19 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>2210030030</v>
+        <v>2210030040</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c r="E13" t="s">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="F13" t="s">
         <v>286</v>
@@ -2254,15 +2254,15 @@
       </c>
       <c r="I13" t="str">
         <f>H13&amp;E13&amp;H13</f>
-        <v>"SWP CSEA-32.pdf"</v>
+        <v>"SWP CSEA-109.pdf"</v>
       </c>
       <c r="J13" t="str">
         <f>G13&amp;F13&amp;I13&amp;F13&amp;K13</f>
-        <v>ren "SWP CSEA-32.pdf" "2210030030.pdf"</v>
+        <v>ren "SWP CSEA-109.pdf" "2210030040.pdf"</v>
       </c>
       <c r="K13" t="str">
         <f>H13&amp;A13&amp;L13&amp;H13</f>
-        <v>"2210030030.pdf"</v>
+        <v>"2210030040.pdf"</v>
       </c>
       <c r="L13" t="s">
         <v>288</v>
@@ -2270,19 +2270,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>2210030032</v>
+        <v>2210030018</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>414</v>
+        <v>300</v>
       </c>
       <c r="F14" t="s">
         <v>286</v>
@@ -2295,15 +2295,15 @@
       </c>
       <c r="I14" t="str">
         <f>H14&amp;E14&amp;H14</f>
-        <v>"SWP CSEA-126.pdf"</v>
+        <v>"SWP CSEA-11.pdf"</v>
       </c>
       <c r="J14" t="str">
         <f>G14&amp;F14&amp;I14&amp;F14&amp;K14</f>
-        <v>ren "SWP CSEA-126.pdf" "2210030032.pdf"</v>
+        <v>ren "SWP CSEA-11.pdf" "2210030018.pdf"</v>
       </c>
       <c r="K14" t="str">
         <f>H14&amp;A14&amp;L14&amp;H14</f>
-        <v>"2210030032.pdf"</v>
+        <v>"2210030018.pdf"</v>
       </c>
       <c r="L14" t="s">
         <v>288</v>
@@ -2311,19 +2311,19 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>2210030036</v>
+        <v>2210030027</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="E15" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="F15" t="s">
         <v>286</v>
@@ -2336,15 +2336,15 @@
       </c>
       <c r="I15" t="str">
         <f>H15&amp;E15&amp;H15</f>
-        <v>"SWP CSEA-31.pdf"</v>
+        <v>"SWP CSEA-110.pdf"</v>
       </c>
       <c r="J15" t="str">
         <f>G15&amp;F15&amp;I15&amp;F15&amp;K15</f>
-        <v>ren "SWP CSEA-31.pdf" "2210030036.pdf"</v>
+        <v>ren "SWP CSEA-110.pdf" "2210030027.pdf"</v>
       </c>
       <c r="K15" t="str">
         <f>H15&amp;A15&amp;L15&amp;H15</f>
-        <v>"2210030036.pdf"</v>
+        <v>"2210030027.pdf"</v>
       </c>
       <c r="L15" t="s">
         <v>288</v>
@@ -2352,19 +2352,19 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>2210030039</v>
+        <v>2210030013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E16" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F16" t="s">
         <v>286</v>
@@ -2377,15 +2377,15 @@
       </c>
       <c r="I16" t="str">
         <f>H16&amp;E16&amp;H16</f>
-        <v>"SWP CSEA-108.pdf"</v>
+        <v>"SWP CSEA-111.pdf"</v>
       </c>
       <c r="J16" t="str">
         <f>G16&amp;F16&amp;I16&amp;F16&amp;K16</f>
-        <v>ren "SWP CSEA-108.pdf" "2210030039.pdf"</v>
+        <v>ren "SWP CSEA-111.pdf" "2210030013.pdf"</v>
       </c>
       <c r="K16" t="str">
         <f>H16&amp;A16&amp;L16&amp;H16</f>
-        <v>"2210030039.pdf"</v>
+        <v>"2210030013.pdf"</v>
       </c>
       <c r="L16" t="s">
         <v>288</v>
@@ -2393,19 +2393,19 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>2210030040</v>
+        <v>2210030255</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E17" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F17" t="s">
         <v>286</v>
@@ -2418,15 +2418,15 @@
       </c>
       <c r="I17" t="str">
         <f>H17&amp;E17&amp;H17</f>
-        <v>"SWP CSEA-109.pdf"</v>
+        <v>"SWP CSEA-112.pdf"</v>
       </c>
       <c r="J17" t="str">
         <f>G17&amp;F17&amp;I17&amp;F17&amp;K17</f>
-        <v>ren "SWP CSEA-109.pdf" "2210030040.pdf"</v>
+        <v>ren "SWP CSEA-112.pdf" "2210030255.pdf"</v>
       </c>
       <c r="K17" t="str">
         <f>H17&amp;A17&amp;L17&amp;H17</f>
-        <v>"2210030040.pdf"</v>
+        <v>"2210030255.pdf"</v>
       </c>
       <c r="L17" t="s">
         <v>288</v>
@@ -2434,19 +2434,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>2210030045</v>
+        <v>2210030330</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E18" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F18" t="s">
         <v>286</v>
@@ -2459,15 +2459,15 @@
       </c>
       <c r="I18" t="str">
         <f>H18&amp;E18&amp;H18</f>
-        <v>"SWP CSEA-107.pdf"</v>
+        <v>"SWP CSEA-113.pdf"</v>
       </c>
       <c r="J18" t="str">
         <f>G18&amp;F18&amp;I18&amp;F18&amp;K18</f>
-        <v>ren "SWP CSEA-107.pdf" "2210030045.pdf"</v>
+        <v>ren "SWP CSEA-113.pdf" "2210030330.pdf"</v>
       </c>
       <c r="K18" t="str">
         <f>H18&amp;A18&amp;L18&amp;H18</f>
-        <v>"2210030045.pdf"</v>
+        <v>"2210030330.pdf"</v>
       </c>
       <c r="L18" t="s">
         <v>288</v>
@@ -2475,19 +2475,19 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>2210030047</v>
+        <v>2210030291</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>127</v>
+        <v>226</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
       <c r="F19" t="s">
         <v>286</v>
@@ -2500,15 +2500,15 @@
       </c>
       <c r="I19" t="str">
         <f>H19&amp;E19&amp;H19</f>
-        <v>"SWP CSEA-63.pdf"</v>
+        <v>"SWP CSEA-114.pdf"</v>
       </c>
       <c r="J19" t="str">
         <f>G19&amp;F19&amp;I19&amp;F19&amp;K19</f>
-        <v>ren "SWP CSEA-63.pdf" "2210030047.pdf"</v>
+        <v>ren "SWP CSEA-114.pdf" "2210030291.pdf"</v>
       </c>
       <c r="K19" t="str">
         <f>H19&amp;A19&amp;L19&amp;H19</f>
-        <v>"2210030047.pdf"</v>
+        <v>"2210030291.pdf"</v>
       </c>
       <c r="L19" t="s">
         <v>288</v>
@@ -2516,19 +2516,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>2210030048</v>
+        <v>2210039514</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
-        <v>339</v>
+        <v>403</v>
       </c>
       <c r="F20" t="s">
         <v>286</v>
@@ -2541,15 +2541,15 @@
       </c>
       <c r="I20" t="str">
         <f>H20&amp;E20&amp;H20</f>
-        <v>"SWP CSEA-51.pdf"</v>
+        <v>"SWP CSEA-115.pdf"</v>
       </c>
       <c r="J20" t="str">
         <f>G20&amp;F20&amp;I20&amp;F20&amp;K20</f>
-        <v>ren "SWP CSEA-51.pdf" "2210030048.pdf"</v>
+        <v>ren "SWP CSEA-115.pdf" "2210039514.pdf"</v>
       </c>
       <c r="K20" t="str">
         <f>H20&amp;A20&amp;L20&amp;H20</f>
-        <v>"2210030048.pdf"</v>
+        <v>"2210039514.pdf"</v>
       </c>
       <c r="L20" t="s">
         <v>288</v>
@@ -2557,19 +2557,19 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>2210030050</v>
+        <v>2210030256</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="E21" t="s">
-        <v>307</v>
+        <v>404</v>
       </c>
       <c r="F21" t="s">
         <v>286</v>
@@ -2582,15 +2582,15 @@
       </c>
       <c r="I21" t="str">
         <f>H21&amp;E21&amp;H21</f>
-        <v>"SWP CSEA-18.pdf"</v>
+        <v>"SWP CSEA-116.pdf"</v>
       </c>
       <c r="J21" t="str">
         <f>G21&amp;F21&amp;I21&amp;F21&amp;K21</f>
-        <v>ren "SWP CSEA-18.pdf" "2210030050.pdf"</v>
+        <v>ren "SWP CSEA-116.pdf" "2210030256.pdf"</v>
       </c>
       <c r="K21" t="str">
         <f>H21&amp;A21&amp;L21&amp;H21</f>
-        <v>"2210030050.pdf"</v>
+        <v>"2210030256.pdf"</v>
       </c>
       <c r="L21" t="s">
         <v>288</v>
@@ -2598,19 +2598,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>2210030050</v>
+        <v>2210030289</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="E22" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="F22" t="s">
         <v>286</v>
@@ -2623,15 +2623,15 @@
       </c>
       <c r="I22" t="str">
         <f>H22&amp;E22&amp;H22</f>
-        <v>"SWP CSEA-104.pdf"</v>
+        <v>"SWP CSEA-117.pdf"</v>
       </c>
       <c r="J22" t="str">
         <f>G22&amp;F22&amp;I22&amp;F22&amp;K22</f>
-        <v>ren "SWP CSEA-104.pdf" "2210030050.pdf"</v>
+        <v>ren "SWP CSEA-117.pdf" "2210030289.pdf"</v>
       </c>
       <c r="K22" t="str">
         <f>H22&amp;A22&amp;L22&amp;H22</f>
-        <v>"2210030050.pdf"</v>
+        <v>"2210030289.pdf"</v>
       </c>
       <c r="L22" t="s">
         <v>288</v>
@@ -2639,19 +2639,19 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>2210030052</v>
+        <v>2210030181</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E23" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F23" t="s">
         <v>286</v>
@@ -2664,15 +2664,15 @@
       </c>
       <c r="I23" t="str">
         <f>H23&amp;E23&amp;H23</f>
-        <v>"SWP CSEA-125.pdf"</v>
+        <v>"SWP CSEA-118.pdf"</v>
       </c>
       <c r="J23" t="str">
         <f>G23&amp;F23&amp;I23&amp;F23&amp;K23</f>
-        <v>ren "SWP CSEA-125.pdf" "2210030052.pdf"</v>
+        <v>ren "SWP CSEA-118.pdf" "2210030181.pdf"</v>
       </c>
       <c r="K23" t="str">
         <f>H23&amp;A23&amp;L23&amp;H23</f>
-        <v>"2210030052.pdf"</v>
+        <v>"2210030181.pdf"</v>
       </c>
       <c r="L23" t="s">
         <v>288</v>
@@ -2680,19 +2680,19 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>2210030055</v>
+        <v>2210030186</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="E24" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="F24" t="s">
         <v>286</v>
@@ -2705,15 +2705,15 @@
       </c>
       <c r="I24" t="str">
         <f>H24&amp;E24&amp;H24</f>
-        <v>"SWP CSEA-66.pdf"</v>
+        <v>"SWP CSEA-119.pdf"</v>
       </c>
       <c r="J24" t="str">
         <f>G24&amp;F24&amp;I24&amp;F24&amp;K24</f>
-        <v>ren "SWP CSEA-66.pdf" "2210030055.pdf"</v>
+        <v>ren "SWP CSEA-119.pdf" "2210030186.pdf"</v>
       </c>
       <c r="K24" t="str">
         <f>H24&amp;A24&amp;L24&amp;H24</f>
-        <v>"2210030055.pdf"</v>
+        <v>"2210030186.pdf"</v>
       </c>
       <c r="L24" t="s">
         <v>288</v>
@@ -2721,19 +2721,19 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>2210030064</v>
+        <v>2210030363</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F25" t="s">
         <v>286</v>
@@ -2746,15 +2746,15 @@
       </c>
       <c r="I25" t="str">
         <f>H25&amp;E25&amp;H25</f>
-        <v>"SWP CSEA-19.pdf"</v>
+        <v>"SWP CSEA-12.pdf"</v>
       </c>
       <c r="J25" t="str">
         <f>G25&amp;F25&amp;I25&amp;F25&amp;K25</f>
-        <v>ren "SWP CSEA-19.pdf" "2210030064.pdf"</v>
+        <v>ren "SWP CSEA-12.pdf" "2210030363.pdf"</v>
       </c>
       <c r="K25" t="str">
         <f>H25&amp;A25&amp;L25&amp;H25</f>
-        <v>"2210030064.pdf"</v>
+        <v>"2210030363.pdf"</v>
       </c>
       <c r="L25" t="s">
         <v>288</v>
@@ -2762,19 +2762,19 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>2210030064</v>
+        <v>2210030472</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="E26" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="F26" t="s">
         <v>286</v>
@@ -2787,15 +2787,15 @@
       </c>
       <c r="I26" t="str">
         <f>H26&amp;E26&amp;H26</f>
-        <v>"SWP CSEA-105.pdf"</v>
+        <v>"SWP CSEA-120.pdf"</v>
       </c>
       <c r="J26" t="str">
         <f>G26&amp;F26&amp;I26&amp;F26&amp;K26</f>
-        <v>ren "SWP CSEA-105.pdf" "2210030064.pdf"</v>
+        <v>ren "SWP CSEA-120.pdf" "2210030472.pdf"</v>
       </c>
       <c r="K26" t="str">
         <f>H26&amp;A26&amp;L26&amp;H26</f>
-        <v>"2210030064.pdf"</v>
+        <v>"2210030472.pdf"</v>
       </c>
       <c r="L26" t="s">
         <v>288</v>
@@ -2803,19 +2803,19 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>2210030066</v>
+        <v>2210030437</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="E27" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="F27" t="s">
         <v>286</v>
@@ -2828,15 +2828,15 @@
       </c>
       <c r="I27" t="str">
         <f>H27&amp;E27&amp;H27</f>
-        <v>"SWP CSEA-85.pdf"</v>
+        <v>"SWP CSEA-121.pdf"</v>
       </c>
       <c r="J27" t="str">
         <f>G27&amp;F27&amp;I27&amp;F27&amp;K27</f>
-        <v>ren "SWP CSEA-85.pdf" "2210030066.pdf"</v>
+        <v>ren "SWP CSEA-121.pdf" "2210030437.pdf"</v>
       </c>
       <c r="K27" t="str">
         <f>H27&amp;A27&amp;L27&amp;H27</f>
-        <v>"2210030066.pdf"</v>
+        <v>"2210030437.pdf"</v>
       </c>
       <c r="L27" t="s">
         <v>288</v>
@@ -2844,19 +2844,19 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>2210030067</v>
+        <v>2210030092</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="E28" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="F28" t="s">
         <v>286</v>
@@ -2869,15 +2869,15 @@
       </c>
       <c r="I28" t="str">
         <f>H28&amp;E28&amp;H28</f>
-        <v>"SWP CSEA-84.pdf"</v>
+        <v>"SWP CSEA-122.pdf"</v>
       </c>
       <c r="J28" t="str">
         <f>G28&amp;F28&amp;I28&amp;F28&amp;K28</f>
-        <v>ren "SWP CSEA-84.pdf" "2210030067.pdf"</v>
+        <v>ren "SWP CSEA-122.pdf" "2210030092.pdf"</v>
       </c>
       <c r="K28" t="str">
         <f>H28&amp;A28&amp;L28&amp;H28</f>
-        <v>"2210030067.pdf"</v>
+        <v>"2210030092.pdf"</v>
       </c>
       <c r="L28" t="s">
         <v>288</v>
@@ -2885,19 +2885,19 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>2210030068</v>
+        <v>2210030468</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="E29" t="s">
-        <v>295</v>
+        <v>411</v>
       </c>
       <c r="F29" t="s">
         <v>286</v>
@@ -2910,15 +2910,15 @@
       </c>
       <c r="I29" t="str">
         <f>H29&amp;E29&amp;H29</f>
-        <v>"SWP CSEA-6.pdf"</v>
+        <v>"SWP CSEA-123.pdf"</v>
       </c>
       <c r="J29" t="str">
         <f>G29&amp;F29&amp;I29&amp;F29&amp;K29</f>
-        <v>ren "SWP CSEA-6.pdf" "2210030068.pdf"</v>
+        <v>ren "SWP CSEA-123.pdf" "2210030468.pdf"</v>
       </c>
       <c r="K29" t="str">
         <f>H29&amp;A29&amp;L29&amp;H29</f>
-        <v>"2210030068.pdf"</v>
+        <v>"2210030468.pdf"</v>
       </c>
       <c r="L29" t="s">
         <v>288</v>
@@ -2926,19 +2926,19 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>2210030071</v>
+        <v>2200032942</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="E30" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="F30" t="s">
         <v>286</v>
@@ -2951,15 +2951,15 @@
       </c>
       <c r="I30" t="str">
         <f>H30&amp;E30&amp;H30</f>
-        <v>"SWP CSEA-57.pdf"</v>
+        <v>"SWP CSEA-124.pdf"</v>
       </c>
       <c r="J30" t="str">
         <f>G30&amp;F30&amp;I30&amp;F30&amp;K30</f>
-        <v>ren "SWP CSEA-57.pdf" "2210030071.pdf"</v>
+        <v>ren "SWP CSEA-124.pdf" "2200032942.pdf"</v>
       </c>
       <c r="K30" t="str">
         <f>H30&amp;A30&amp;L30&amp;H30</f>
-        <v>"2210030071.pdf"</v>
+        <v>"2200032942.pdf"</v>
       </c>
       <c r="L30" t="s">
         <v>288</v>
@@ -2967,19 +2967,19 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>2210030072</v>
+        <v>2210030052</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="E31" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="F31" t="s">
         <v>286</v>
@@ -2992,15 +2992,15 @@
       </c>
       <c r="I31" t="str">
         <f>H31&amp;E31&amp;H31</f>
-        <v>"SWP CSEA-58.pdf"</v>
+        <v>"SWP CSEA-125.pdf"</v>
       </c>
       <c r="J31" t="str">
         <f>G31&amp;F31&amp;I31&amp;F31&amp;K31</f>
-        <v>ren "SWP CSEA-58.pdf" "2210030072.pdf"</v>
+        <v>ren "SWP CSEA-125.pdf" "2210030052.pdf"</v>
       </c>
       <c r="K31" t="str">
         <f>H31&amp;A31&amp;L31&amp;H31</f>
-        <v>"2210030072.pdf"</v>
+        <v>"2210030052.pdf"</v>
       </c>
       <c r="L31" t="s">
         <v>288</v>
@@ -3008,19 +3008,19 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>2210030073</v>
+        <v>2210030032</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>168</v>
+        <v>251</v>
       </c>
       <c r="E32" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="F32" t="s">
         <v>286</v>
@@ -3033,15 +3033,15 @@
       </c>
       <c r="I32" t="str">
         <f>H32&amp;E32&amp;H32</f>
-        <v>"SWP CSEA-83.pdf"</v>
+        <v>"SWP CSEA-126.pdf"</v>
       </c>
       <c r="J32" t="str">
         <f>G32&amp;F32&amp;I32&amp;F32&amp;K32</f>
-        <v>ren "SWP CSEA-83.pdf" "2210030073.pdf"</v>
+        <v>ren "SWP CSEA-126.pdf" "2210030032.pdf"</v>
       </c>
       <c r="K32" t="str">
         <f>H32&amp;A32&amp;L32&amp;H32</f>
-        <v>"2210030073.pdf"</v>
+        <v>"2210030032.pdf"</v>
       </c>
       <c r="L32" t="s">
         <v>288</v>
@@ -3049,19 +3049,19 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>2210030075</v>
+        <v>2210030128</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="E33" t="s">
-        <v>298</v>
+        <v>415</v>
       </c>
       <c r="F33" t="s">
         <v>286</v>
@@ -3074,15 +3074,15 @@
       </c>
       <c r="I33" t="str">
         <f>H33&amp;E33&amp;H33</f>
-        <v>"SWP CSEA-9.pdf"</v>
+        <v>"SWP CSEA-127.pdf"</v>
       </c>
       <c r="J33" t="str">
         <f>G33&amp;F33&amp;I33&amp;F33&amp;K33</f>
-        <v>ren "SWP CSEA-9.pdf" "2210030075.pdf"</v>
+        <v>ren "SWP CSEA-127.pdf" "2210030128.pdf"</v>
       </c>
       <c r="K33" t="str">
         <f>H33&amp;A33&amp;L33&amp;H33</f>
-        <v>"2210030075.pdf"</v>
+        <v>"2210030128.pdf"</v>
       </c>
       <c r="L33" t="s">
         <v>288</v>
@@ -3090,19 +3090,19 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>2210030077</v>
+        <v>2210030210</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="E34" t="s">
-        <v>299</v>
+        <v>416</v>
       </c>
       <c r="F34" t="s">
         <v>286</v>
@@ -3115,15 +3115,15 @@
       </c>
       <c r="I34" t="str">
         <f>H34&amp;E34&amp;H34</f>
-        <v>"SWP CSEA-10.pdf"</v>
+        <v>"SWP CSEA-128.pdf"</v>
       </c>
       <c r="J34" t="str">
         <f>G34&amp;F34&amp;I34&amp;F34&amp;K34</f>
-        <v>ren "SWP CSEA-10.pdf" "2210030077.pdf"</v>
+        <v>ren "SWP CSEA-128.pdf" "2210030210.pdf"</v>
       </c>
       <c r="K34" t="str">
         <f>H34&amp;A34&amp;L34&amp;H34</f>
-        <v>"2210030077.pdf"</v>
+        <v>"2210030210.pdf"</v>
       </c>
       <c r="L34" t="s">
         <v>288</v>
@@ -3131,19 +3131,19 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>2210030080</v>
+        <v>2210030425</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>98</v>
+        <v>257</v>
       </c>
       <c r="E35" t="s">
-        <v>336</v>
+        <v>417</v>
       </c>
       <c r="F35" t="s">
         <v>286</v>
@@ -3156,15 +3156,15 @@
       </c>
       <c r="I35" t="str">
         <f>H35&amp;E35&amp;H35</f>
-        <v>"SWP CSEA-48.pdf"</v>
+        <v>"SWP CSEA-129.pdf"</v>
       </c>
       <c r="J35" t="str">
         <f>G35&amp;F35&amp;I35&amp;F35&amp;K35</f>
-        <v>ren "SWP CSEA-48.pdf" "2210030080.pdf"</v>
+        <v>ren "SWP CSEA-129.pdf" "2210030425.pdf"</v>
       </c>
       <c r="K35" t="str">
         <f>H35&amp;A35&amp;L35&amp;H35</f>
-        <v>"2210030080.pdf"</v>
+        <v>"2210030425.pdf"</v>
       </c>
       <c r="L35" t="s">
         <v>288</v>
@@ -3172,19 +3172,19 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>2210030081</v>
+        <v>2210030334</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="F36" t="s">
         <v>286</v>
@@ -3197,15 +3197,15 @@
       </c>
       <c r="I36" t="str">
         <f>H36&amp;E36&amp;H36</f>
-        <v>"SWP CSEA-47.pdf"</v>
+        <v>"SWP CSEA-13.pdf"</v>
       </c>
       <c r="J36" t="str">
         <f>G36&amp;F36&amp;I36&amp;F36&amp;K36</f>
-        <v>ren "SWP CSEA-47.pdf" "2210030081.pdf"</v>
+        <v>ren "SWP CSEA-13.pdf" "2210030334.pdf"</v>
       </c>
       <c r="K36" t="str">
         <f>H36&amp;A36&amp;L36&amp;H36</f>
-        <v>"2210030081.pdf"</v>
+        <v>"2210030334.pdf"</v>
       </c>
       <c r="L36" t="s">
         <v>288</v>
@@ -3213,19 +3213,19 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>2210030085</v>
+        <v>2210030459</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="E37" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="F37" t="s">
         <v>286</v>
@@ -3238,15 +3238,15 @@
       </c>
       <c r="I37" t="str">
         <f>H37&amp;E37&amp;H37</f>
-        <v>"SWP CSEA-86.pdf"</v>
+        <v>"SWP CSEA-130.pdf"</v>
       </c>
       <c r="J37" t="str">
         <f>G37&amp;F37&amp;I37&amp;F37&amp;K37</f>
-        <v>ren "SWP CSEA-86.pdf" "2210030085.pdf"</v>
+        <v>ren "SWP CSEA-130.pdf" "2210030459.pdf"</v>
       </c>
       <c r="K37" t="str">
         <f>H37&amp;A37&amp;L37&amp;H37</f>
-        <v>"2210030085.pdf"</v>
+        <v>"2210030459.pdf"</v>
       </c>
       <c r="L37" t="s">
         <v>288</v>
@@ -3254,19 +3254,19 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>2210030086</v>
+        <v>2210030453</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>10</v>
+        <v>261</v>
       </c>
       <c r="E38" t="s">
-        <v>291</v>
+        <v>419</v>
       </c>
       <c r="F38" t="s">
         <v>286</v>
@@ -3279,15 +3279,15 @@
       </c>
       <c r="I38" t="str">
         <f>H38&amp;E38&amp;H38</f>
-        <v>"SWP CSEA-3.pdf"</v>
+        <v>"SWP CSEA-131.pdf"</v>
       </c>
       <c r="J38" t="str">
         <f>G38&amp;F38&amp;I38&amp;F38&amp;K38</f>
-        <v>ren "SWP CSEA-3.pdf" "2210030086.pdf"</v>
+        <v>ren "SWP CSEA-131.pdf" "2210030453.pdf"</v>
       </c>
       <c r="K38" t="str">
         <f>H38&amp;A38&amp;L38&amp;H38</f>
-        <v>"2210030086.pdf"</v>
+        <v>"2210030453.pdf"</v>
       </c>
       <c r="L38" t="s">
         <v>288</v>
@@ -3295,19 +3295,19 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>2210030092</v>
+        <v>2210030001</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="E39" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F39" t="s">
         <v>286</v>
@@ -3320,15 +3320,15 @@
       </c>
       <c r="I39" t="str">
         <f>H39&amp;E39&amp;H39</f>
-        <v>"SWP CSEA-122.pdf"</v>
+        <v>"SWP CSEA-132.pdf"</v>
       </c>
       <c r="J39" t="str">
         <f>G39&amp;F39&amp;I39&amp;F39&amp;K39</f>
-        <v>ren "SWP CSEA-122.pdf" "2210030092.pdf"</v>
+        <v>ren "SWP CSEA-132.pdf" "2210030001.pdf"</v>
       </c>
       <c r="K39" t="str">
         <f>H39&amp;A39&amp;L39&amp;H39</f>
-        <v>"2210030092.pdf"</v>
+        <v>"2210030001.pdf"</v>
       </c>
       <c r="L39" t="s">
         <v>288</v>
@@ -3336,19 +3336,19 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>2210030101</v>
+        <v>2210030150</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>7</v>
+        <v>264</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>8</v>
+        <v>265</v>
       </c>
       <c r="E40" t="s">
-        <v>290</v>
+        <v>421</v>
       </c>
       <c r="F40" t="s">
         <v>286</v>
@@ -3361,15 +3361,15 @@
       </c>
       <c r="I40" t="str">
         <f>H40&amp;E40&amp;H40</f>
-        <v>"SWP CSEA-2.pdf"</v>
+        <v>"SWP CSEA-133.pdf"</v>
       </c>
       <c r="J40" t="str">
         <f>G40&amp;F40&amp;I40&amp;F40&amp;K40</f>
-        <v>ren "SWP CSEA-2.pdf" "2210030101.pdf"</v>
+        <v>ren "SWP CSEA-133.pdf" "2210030150.pdf"</v>
       </c>
       <c r="K40" t="str">
         <f>H40&amp;A40&amp;L40&amp;H40</f>
-        <v>"2210030101.pdf"</v>
+        <v>"2210030150.pdf"</v>
       </c>
       <c r="L40" t="s">
         <v>288</v>
@@ -3377,19 +3377,19 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>2210030103</v>
+        <v>2210030213</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>102</v>
+        <v>267</v>
       </c>
       <c r="E41" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="F41" t="s">
         <v>286</v>
@@ -3402,15 +3402,15 @@
       </c>
       <c r="I41" t="str">
         <f>H41&amp;E41&amp;H41</f>
-        <v>"SWP CSEA-50.pdf"</v>
+        <v>"SWP CSEA-134.pdf"</v>
       </c>
       <c r="J41" t="str">
         <f>G41&amp;F41&amp;I41&amp;F41&amp;K41</f>
-        <v>ren "SWP CSEA-50.pdf" "2210030103.pdf"</v>
+        <v>ren "SWP CSEA-134.pdf" "2210030213.pdf"</v>
       </c>
       <c r="K41" t="str">
         <f>H41&amp;A41&amp;L41&amp;H41</f>
-        <v>"2210030103.pdf"</v>
+        <v>"2210030213.pdf"</v>
       </c>
       <c r="L41" t="s">
         <v>288</v>
@@ -3418,19 +3418,19 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>2210030114</v>
+        <v>2210030369</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>18</v>
+        <v>269</v>
       </c>
       <c r="E42" t="s">
-        <v>296</v>
+        <v>423</v>
       </c>
       <c r="F42" t="s">
         <v>286</v>
@@ -3443,15 +3443,15 @@
       </c>
       <c r="I42" t="str">
         <f>H42&amp;E42&amp;H42</f>
-        <v>"SWP CSEA-7.pdf"</v>
+        <v>"SWP CSEA-135.pdf"</v>
       </c>
       <c r="J42" t="str">
         <f>G42&amp;F42&amp;I42&amp;F42&amp;K42</f>
-        <v>ren "SWP CSEA-7.pdf" "2210030114.pdf"</v>
+        <v>ren "SWP CSEA-135.pdf" "2210030369.pdf"</v>
       </c>
       <c r="K42" t="str">
         <f>H42&amp;A42&amp;L42&amp;H42</f>
-        <v>"2210030114.pdf"</v>
+        <v>"2210030369.pdf"</v>
       </c>
       <c r="L42" t="s">
         <v>288</v>
@@ -3459,19 +3459,19 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <v>2210030116</v>
+        <v>2210030379</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>4</v>
+        <v>270</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="E43" t="s">
-        <v>289</v>
+        <v>424</v>
       </c>
       <c r="F43" t="s">
         <v>286</v>
@@ -3484,15 +3484,15 @@
       </c>
       <c r="I43" t="str">
         <f>H43&amp;E43&amp;H43</f>
-        <v>"SWP CSEA-1.pdf"</v>
+        <v>"SWP CSEA-136.pdf"</v>
       </c>
       <c r="J43" t="str">
         <f>G43&amp;F43&amp;I43&amp;F43&amp;K43</f>
-        <v>ren "SWP CSEA-1.pdf" "2210030116.pdf"</v>
+        <v>ren "SWP CSEA-136.pdf" "2210030379.pdf"</v>
       </c>
       <c r="K43" t="str">
         <f>H43&amp;A43&amp;L43&amp;H43</f>
-        <v>"2210030116.pdf"</v>
+        <v>"2210030379.pdf"</v>
       </c>
       <c r="L43" t="s">
         <v>288</v>
@@ -3500,19 +3500,19 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>2210030128</v>
+        <v>2210030380</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="E44" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="F44" t="s">
         <v>286</v>
@@ -3525,15 +3525,15 @@
       </c>
       <c r="I44" t="str">
         <f>H44&amp;E44&amp;H44</f>
-        <v>"SWP CSEA-127.pdf"</v>
+        <v>"SWP CSEA-137.pdf"</v>
       </c>
       <c r="J44" t="str">
         <f>G44&amp;F44&amp;I44&amp;F44&amp;K44</f>
-        <v>ren "SWP CSEA-127.pdf" "2210030128.pdf"</v>
+        <v>ren "SWP CSEA-137.pdf" "2210030380.pdf"</v>
       </c>
       <c r="K44" t="str">
         <f>H44&amp;A44&amp;L44&amp;H44</f>
-        <v>"2210030128.pdf"</v>
+        <v>"2210030380.pdf"</v>
       </c>
       <c r="L44" t="s">
         <v>288</v>
@@ -3541,19 +3541,19 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
-        <v>2210030134</v>
+        <v>2210030355</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>183</v>
+        <v>274</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>184</v>
+        <v>275</v>
       </c>
       <c r="E45" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="F45" t="s">
         <v>286</v>
@@ -3566,15 +3566,15 @@
       </c>
       <c r="I45" t="str">
         <f>H45&amp;E45&amp;H45</f>
-        <v>"SWP CSEA-91.pdf"</v>
+        <v>"SWP CSEA-138.pdf"</v>
       </c>
       <c r="J45" t="str">
         <f>G45&amp;F45&amp;I45&amp;F45&amp;K45</f>
-        <v>ren "SWP CSEA-91.pdf" "2210030134.pdf"</v>
+        <v>ren "SWP CSEA-138.pdf" "2210030355.pdf"</v>
       </c>
       <c r="K45" t="str">
         <f>H45&amp;A45&amp;L45&amp;H45</f>
-        <v>"2210030134.pdf"</v>
+        <v>"2210030355.pdf"</v>
       </c>
       <c r="L45" t="s">
         <v>288</v>
@@ -3582,19 +3582,19 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
-        <v>2210030140</v>
+        <v>2210030451</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="E46" t="s">
-        <v>306</v>
+        <v>427</v>
       </c>
       <c r="F46" t="s">
         <v>286</v>
@@ -3607,15 +3607,15 @@
       </c>
       <c r="I46" t="str">
         <f>H46&amp;E46&amp;H46</f>
-        <v>"SWP CSEA-17.pdf"</v>
+        <v>"SWP CSEA-139.pdf"</v>
       </c>
       <c r="J46" t="str">
         <f>G46&amp;F46&amp;I46&amp;F46&amp;K46</f>
-        <v>ren "SWP CSEA-17.pdf" "2210030140.pdf"</v>
+        <v>ren "SWP CSEA-139.pdf" "2210030451.pdf"</v>
       </c>
       <c r="K46" t="str">
         <f>H46&amp;A46&amp;L46&amp;H46</f>
-        <v>"2210030140.pdf"</v>
+        <v>"2210030451.pdf"</v>
       </c>
       <c r="L46" t="s">
         <v>288</v>
@@ -3623,19 +3623,19 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>2210030149</v>
+        <v>2210030343</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="E47" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="F47" t="s">
         <v>286</v>
@@ -3648,15 +3648,15 @@
       </c>
       <c r="I47" t="str">
         <f>H47&amp;E47&amp;H47</f>
-        <v>"SWP CSEA-44.pdf"</v>
+        <v>"SWP CSEA-14.pdf"</v>
       </c>
       <c r="J47" t="str">
         <f>G47&amp;F47&amp;I47&amp;F47&amp;K47</f>
-        <v>ren "SWP CSEA-44.pdf" "2210030149.pdf"</v>
+        <v>ren "SWP CSEA-14.pdf" "2210030343.pdf"</v>
       </c>
       <c r="K47" t="str">
         <f>H47&amp;A47&amp;L47&amp;H47</f>
-        <v>"2210030149.pdf"</v>
+        <v>"2210030343.pdf"</v>
       </c>
       <c r="L47" t="s">
         <v>288</v>
@@ -3664,19 +3664,19 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
-        <v>2210030150</v>
+        <v>2210030487</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>421</v>
+        <v>304</v>
       </c>
       <c r="F48" t="s">
         <v>286</v>
@@ -3689,15 +3689,15 @@
       </c>
       <c r="I48" t="str">
         <f>H48&amp;E48&amp;H48</f>
-        <v>"SWP CSEA-133.pdf"</v>
+        <v>"SWP CSEA-15.pdf"</v>
       </c>
       <c r="J48" t="str">
         <f>G48&amp;F48&amp;I48&amp;F48&amp;K48</f>
-        <v>ren "SWP CSEA-133.pdf" "2210030150.pdf"</v>
+        <v>ren "SWP CSEA-15.pdf" "2210030487.pdf"</v>
       </c>
       <c r="K48" t="str">
         <f>H48&amp;A48&amp;L48&amp;H48</f>
-        <v>"2210030150.pdf"</v>
+        <v>"2210030487.pdf"</v>
       </c>
       <c r="L48" t="s">
         <v>288</v>
@@ -3705,19 +3705,19 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>2210030158</v>
+        <v>2210030494</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="F49" t="s">
         <v>286</v>
@@ -3730,15 +3730,15 @@
       </c>
       <c r="I49" t="str">
         <f>H49&amp;E49&amp;H49</f>
-        <v>"SWP CSEA-43.pdf"</v>
+        <v>"SWP CSEA-16.pdf"</v>
       </c>
       <c r="J49" t="str">
         <f>G49&amp;F49&amp;I49&amp;F49&amp;K49</f>
-        <v>ren "SWP CSEA-43.pdf" "2210030158.pdf"</v>
+        <v>ren "SWP CSEA-16.pdf" "2210030494.pdf"</v>
       </c>
       <c r="K49" t="str">
         <f>H49&amp;A49&amp;L49&amp;H49</f>
-        <v>"2210030158.pdf"</v>
+        <v>"2210030494.pdf"</v>
       </c>
       <c r="L49" t="s">
         <v>288</v>
@@ -3746,19 +3746,19 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>2210030163</v>
+        <v>2210030140</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="F50" t="s">
         <v>286</v>
@@ -3771,15 +3771,15 @@
       </c>
       <c r="I50" t="str">
         <f>H50&amp;E50&amp;H50</f>
-        <v>"SWP CSEA-74.pdf"</v>
+        <v>"SWP CSEA-17.pdf"</v>
       </c>
       <c r="J50" t="str">
         <f>G50&amp;F50&amp;I50&amp;F50&amp;K50</f>
-        <v>ren "SWP CSEA-74.pdf" "2210030163.pdf"</v>
+        <v>ren "SWP CSEA-17.pdf" "2210030140.pdf"</v>
       </c>
       <c r="K50" t="str">
         <f>H50&amp;A50&amp;L50&amp;H50</f>
-        <v>"2210030163.pdf"</v>
+        <v>"2210030140.pdf"</v>
       </c>
       <c r="L50" t="s">
         <v>288</v>
@@ -3787,19 +3787,19 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>2210030171</v>
+        <v>2210030050</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="E51" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="F51" t="s">
         <v>286</v>
@@ -3812,15 +3812,15 @@
       </c>
       <c r="I51" t="str">
         <f>H51&amp;E51&amp;H51</f>
-        <v>"SWP CSEA-53.pdf"</v>
+        <v>"SWP CSEA-18.pdf"</v>
       </c>
       <c r="J51" t="str">
         <f>G51&amp;F51&amp;I51&amp;F51&amp;K51</f>
-        <v>ren "SWP CSEA-53.pdf" "2210030171.pdf"</v>
+        <v>ren "SWP CSEA-18.pdf" "2210030050.pdf"</v>
       </c>
       <c r="K51" t="str">
         <f>H51&amp;A51&amp;L51&amp;H51</f>
-        <v>"2210030171.pdf"</v>
+        <v>"2210030050.pdf"</v>
       </c>
       <c r="L51" t="s">
         <v>288</v>
@@ -3828,19 +3828,19 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
-        <v>2210030181</v>
+        <v>2210030064</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="E52" t="s">
-        <v>406</v>
+        <v>308</v>
       </c>
       <c r="F52" t="s">
         <v>286</v>
@@ -3853,15 +3853,15 @@
       </c>
       <c r="I52" t="str">
         <f>H52&amp;E52&amp;H52</f>
-        <v>"SWP CSEA-118.pdf"</v>
+        <v>"SWP CSEA-19.pdf"</v>
       </c>
       <c r="J52" t="str">
         <f>G52&amp;F52&amp;I52&amp;F52&amp;K52</f>
-        <v>ren "SWP CSEA-118.pdf" "2210030181.pdf"</v>
+        <v>ren "SWP CSEA-19.pdf" "2210030064.pdf"</v>
       </c>
       <c r="K52" t="str">
         <f>H52&amp;A52&amp;L52&amp;H52</f>
-        <v>"2210030181.pdf"</v>
+        <v>"2210030064.pdf"</v>
       </c>
       <c r="L52" t="s">
         <v>288</v>
@@ -3869,19 +3869,19 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
-        <v>2210030184</v>
+        <v>2210030101</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="F53" t="s">
         <v>286</v>
@@ -3894,15 +3894,15 @@
       </c>
       <c r="I53" t="str">
         <f>H53&amp;E53&amp;H53</f>
-        <v>"SWP CSEA-56.pdf"</v>
+        <v>"SWP CSEA-2.pdf"</v>
       </c>
       <c r="J53" t="str">
         <f>G53&amp;F53&amp;I53&amp;F53&amp;K53</f>
-        <v>ren "SWP CSEA-56.pdf" "2210030184.pdf"</v>
+        <v>ren "SWP CSEA-2.pdf" "2210030101.pdf"</v>
       </c>
       <c r="K53" t="str">
         <f>H53&amp;A53&amp;L53&amp;H53</f>
-        <v>"2210030184.pdf"</v>
+        <v>"2210030101.pdf"</v>
       </c>
       <c r="L53" t="s">
         <v>288</v>
@@ -3910,19 +3910,19 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
-        <v>2210030186</v>
+        <v>2210030388</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>407</v>
+        <v>309</v>
       </c>
       <c r="F54" t="s">
         <v>286</v>
@@ -3935,15 +3935,15 @@
       </c>
       <c r="I54" t="str">
         <f>H54&amp;E54&amp;H54</f>
-        <v>"SWP CSEA-119.pdf"</v>
+        <v>"SWP CSEA-20.pdf"</v>
       </c>
       <c r="J54" t="str">
         <f>G54&amp;F54&amp;I54&amp;F54&amp;K54</f>
-        <v>ren "SWP CSEA-119.pdf" "2210030186.pdf"</v>
+        <v>ren "SWP CSEA-20.pdf" "2210030388.pdf"</v>
       </c>
       <c r="K54" t="str">
         <f>H54&amp;A54&amp;L54&amp;H54</f>
-        <v>"2210030186.pdf"</v>
+        <v>"2210030388.pdf"</v>
       </c>
       <c r="L54" t="s">
         <v>288</v>
@@ -3951,19 +3951,19 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
-        <v>2210030200</v>
+        <v>2210030372</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F55" t="s">
         <v>286</v>
@@ -3976,15 +3976,15 @@
       </c>
       <c r="I55" t="str">
         <f>H55&amp;E55&amp;H55</f>
-        <v>"SWP CSEA-25.pdf"</v>
+        <v>"SWP CSEA-21.pdf"</v>
       </c>
       <c r="J55" t="str">
         <f>G55&amp;F55&amp;I55&amp;F55&amp;K55</f>
-        <v>ren "SWP CSEA-25.pdf" "2210030200.pdf"</v>
+        <v>ren "SWP CSEA-21.pdf" "2210030372.pdf"</v>
       </c>
       <c r="K55" t="str">
         <f>H55&amp;A55&amp;L55&amp;H55</f>
-        <v>"2210030200.pdf"</v>
+        <v>"2210030372.pdf"</v>
       </c>
       <c r="L55" t="s">
         <v>288</v>
@@ -3992,19 +3992,19 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
-        <v>2210030200</v>
+        <v>2210030338</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="F56" t="s">
         <v>286</v>
@@ -4017,15 +4017,15 @@
       </c>
       <c r="I56" t="str">
         <f>H56&amp;E56&amp;H56</f>
-        <v>"SWP CSEA-27.pdf"</v>
+        <v>"SWP CSEA-22.pdf"</v>
       </c>
       <c r="J56" t="str">
         <f>G56&amp;F56&amp;I56&amp;F56&amp;K56</f>
-        <v>ren "SWP CSEA-27.pdf" "2210030200.pdf"</v>
+        <v>ren "SWP CSEA-22.pdf" "2210030338.pdf"</v>
       </c>
       <c r="K56" t="str">
         <f>H56&amp;A56&amp;L56&amp;H56</f>
-        <v>"2210030200.pdf"</v>
+        <v>"2210030338.pdf"</v>
       </c>
       <c r="L56" t="s">
         <v>288</v>
@@ -4033,19 +4033,19 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
-        <v>2210030201</v>
+        <v>2210030419</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F57" t="s">
         <v>286</v>
@@ -4058,15 +4058,15 @@
       </c>
       <c r="I57" t="str">
         <f>H57&amp;E57&amp;H57</f>
-        <v>"SWP CSEA-26.pdf"</v>
+        <v>"SWP CSEA-23.pdf"</v>
       </c>
       <c r="J57" t="str">
         <f>G57&amp;F57&amp;I57&amp;F57&amp;K57</f>
-        <v>ren "SWP CSEA-26.pdf" "2210030201.pdf"</v>
+        <v>ren "SWP CSEA-23.pdf" "2210030419.pdf"</v>
       </c>
       <c r="K57" t="str">
         <f>H57&amp;A57&amp;L57&amp;H57</f>
-        <v>"2210030201.pdf"</v>
+        <v>"2210030419.pdf"</v>
       </c>
       <c r="L57" t="s">
         <v>288</v>
@@ -4074,19 +4074,19 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
-        <v>2210030201</v>
+        <v>2210030399</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F58" t="s">
         <v>286</v>
@@ -4099,15 +4099,15 @@
       </c>
       <c r="I58" t="str">
         <f>H58&amp;E58&amp;H58</f>
-        <v>"SWP CSEA-28.pdf"</v>
+        <v>"SWP CSEA-24.pdf"</v>
       </c>
       <c r="J58" t="str">
         <f>G58&amp;F58&amp;I58&amp;F58&amp;K58</f>
-        <v>ren "SWP CSEA-28.pdf" "2210030201.pdf"</v>
+        <v>ren "SWP CSEA-24.pdf" "2210030399.pdf"</v>
       </c>
       <c r="K58" t="str">
         <f>H58&amp;A58&amp;L58&amp;H58</f>
-        <v>"2210030201.pdf"</v>
+        <v>"2210030399.pdf"</v>
       </c>
       <c r="L58" t="s">
         <v>288</v>
@@ -4115,19 +4115,19 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
-        <v>2210030204</v>
+        <v>2210030200</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F59" t="s">
         <v>286</v>
@@ -4140,15 +4140,15 @@
       </c>
       <c r="I59" t="str">
         <f>H59&amp;E59&amp;H59</f>
-        <v>"SWP CSEA-33.pdf"</v>
+        <v>"SWP CSEA-25.pdf"</v>
       </c>
       <c r="J59" t="str">
         <f>G59&amp;F59&amp;I59&amp;F59&amp;K59</f>
-        <v>ren "SWP CSEA-33.pdf" "2210030204.pdf"</v>
+        <v>ren "SWP CSEA-25.pdf" "2210030200.pdf"</v>
       </c>
       <c r="K59" t="str">
         <f>H59&amp;A59&amp;L59&amp;H59</f>
-        <v>"2210030204.pdf"</v>
+        <v>"2210030200.pdf"</v>
       </c>
       <c r="L59" t="s">
         <v>288</v>
@@ -4156,19 +4156,19 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
-        <v>2210030210</v>
+        <v>2210030201</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>254</v>
+        <v>55</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>255</v>
+        <v>56</v>
       </c>
       <c r="E60" t="s">
-        <v>416</v>
+        <v>314</v>
       </c>
       <c r="F60" t="s">
         <v>286</v>
@@ -4181,15 +4181,15 @@
       </c>
       <c r="I60" t="str">
         <f>H60&amp;E60&amp;H60</f>
-        <v>"SWP CSEA-128.pdf"</v>
+        <v>"SWP CSEA-26.pdf"</v>
       </c>
       <c r="J60" t="str">
         <f>G60&amp;F60&amp;I60&amp;F60&amp;K60</f>
-        <v>ren "SWP CSEA-128.pdf" "2210030210.pdf"</v>
+        <v>ren "SWP CSEA-26.pdf" "2210030201.pdf"</v>
       </c>
       <c r="K60" t="str">
         <f>H60&amp;A60&amp;L60&amp;H60</f>
-        <v>"2210030210.pdf"</v>
+        <v>"2210030201.pdf"</v>
       </c>
       <c r="L60" t="s">
         <v>288</v>
@@ -4197,19 +4197,19 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
-        <v>2210030213</v>
+        <v>2210030200</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>266</v>
+        <v>53</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>267</v>
+        <v>57</v>
       </c>
       <c r="E61" t="s">
-        <v>422</v>
+        <v>315</v>
       </c>
       <c r="F61" t="s">
         <v>286</v>
@@ -4222,15 +4222,15 @@
       </c>
       <c r="I61" t="str">
         <f>H61&amp;E61&amp;H61</f>
-        <v>"SWP CSEA-134.pdf"</v>
+        <v>"SWP CSEA-27.pdf"</v>
       </c>
       <c r="J61" t="str">
         <f>G61&amp;F61&amp;I61&amp;F61&amp;K61</f>
-        <v>ren "SWP CSEA-134.pdf" "2210030213.pdf"</v>
+        <v>ren "SWP CSEA-27.pdf" "2210030200.pdf"</v>
       </c>
       <c r="K61" t="str">
         <f>H61&amp;A61&amp;L61&amp;H61</f>
-        <v>"2210030213.pdf"</v>
+        <v>"2210030200.pdf"</v>
       </c>
       <c r="L61" t="s">
         <v>288</v>
@@ -4238,19 +4238,19 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
-        <v>2210030214</v>
+        <v>2210030201</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E62" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="F62" t="s">
         <v>286</v>
@@ -4263,15 +4263,15 @@
       </c>
       <c r="I62" t="str">
         <f>H62&amp;E62&amp;H62</f>
-        <v>"SWP CSEA-5.pdf"</v>
+        <v>"SWP CSEA-28.pdf"</v>
       </c>
       <c r="J62" t="str">
         <f>G62&amp;F62&amp;I62&amp;F62&amp;K62</f>
-        <v>ren "SWP CSEA-5.pdf" "2210030214.pdf"</v>
+        <v>ren "SWP CSEA-28.pdf" "2210030201.pdf"</v>
       </c>
       <c r="K62" t="str">
         <f>H62&amp;A62&amp;L62&amp;H62</f>
-        <v>"2210030214.pdf"</v>
+        <v>"2210030201.pdf"</v>
       </c>
       <c r="L62" t="s">
         <v>288</v>
@@ -4279,19 +4279,19 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
-        <v>2210030222</v>
+        <v>2210030387</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="F63" t="s">
         <v>286</v>
@@ -4304,15 +4304,15 @@
       </c>
       <c r="I63" t="str">
         <f>H63&amp;E63&amp;H63</f>
-        <v>"SWP CSEA-4.pdf"</v>
+        <v>"SWP CSEA-29.pdf"</v>
       </c>
       <c r="J63" t="str">
         <f>G63&amp;F63&amp;I63&amp;F63&amp;K63</f>
-        <v>ren "SWP CSEA-4.pdf" "2210030222.pdf"</v>
+        <v>ren "SWP CSEA-29.pdf" "2210030387.pdf"</v>
       </c>
       <c r="K63" t="str">
         <f>H63&amp;A63&amp;L63&amp;H63</f>
-        <v>"2210030222.pdf"</v>
+        <v>"2210030387.pdf"</v>
       </c>
       <c r="L63" t="s">
         <v>288</v>
@@ -4320,19 +4320,19 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
-        <v>2210030224</v>
+        <v>2210030086</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>350</v>
+        <v>291</v>
       </c>
       <c r="F64" t="s">
         <v>286</v>
@@ -4345,15 +4345,15 @@
       </c>
       <c r="I64" t="str">
         <f>H64&amp;E64&amp;H64</f>
-        <v>"SWP CSEA-62.pdf"</v>
+        <v>"SWP CSEA-3.pdf"</v>
       </c>
       <c r="J64" t="str">
         <f>G64&amp;F64&amp;I64&amp;F64&amp;K64</f>
-        <v>ren "SWP CSEA-62.pdf" "2210030224.pdf"</v>
+        <v>ren "SWP CSEA-3.pdf" "2210030086.pdf"</v>
       </c>
       <c r="K64" t="str">
         <f>H64&amp;A64&amp;L64&amp;H64</f>
-        <v>"2210030224.pdf"</v>
+        <v>"2210030086.pdf"</v>
       </c>
       <c r="L64" t="s">
         <v>288</v>
@@ -4361,19 +4361,19 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
-        <v>2210030229</v>
+        <v>2210030255</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="F65" t="s">
         <v>286</v>
@@ -4386,15 +4386,15 @@
       </c>
       <c r="I65" t="str">
         <f>H65&amp;E65&amp;H65</f>
-        <v>"SWP CSEA-49.pdf"</v>
+        <v>"SWP CSEA-30.pdf"</v>
       </c>
       <c r="J65" t="str">
         <f>G65&amp;F65&amp;I65&amp;F65&amp;K65</f>
-        <v>ren "SWP CSEA-49.pdf" "2210030229.pdf"</v>
+        <v>ren "SWP CSEA-30.pdf" "2210030255.pdf"</v>
       </c>
       <c r="K65" t="str">
         <f>H65&amp;A65&amp;L65&amp;H65</f>
-        <v>"2210030229.pdf"</v>
+        <v>"2210030255.pdf"</v>
       </c>
       <c r="L65" t="s">
         <v>288</v>
@@ -4402,19 +4402,19 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
-        <v>2210030236</v>
+        <v>2210030036</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E66" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F66" t="s">
         <v>286</v>
@@ -4427,15 +4427,15 @@
       </c>
       <c r="I66" t="str">
         <f>H66&amp;E66&amp;H66</f>
-        <v>"SWP CSEA-34.pdf"</v>
+        <v>"SWP CSEA-31.pdf"</v>
       </c>
       <c r="J66" t="str">
         <f>G66&amp;F66&amp;I66&amp;F66&amp;K66</f>
-        <v>ren "SWP CSEA-34.pdf" "2210030236.pdf"</v>
+        <v>ren "SWP CSEA-31.pdf" "2210030036.pdf"</v>
       </c>
       <c r="K66" t="str">
         <f>H66&amp;A66&amp;L66&amp;H66</f>
-        <v>"2210030236.pdf"</v>
+        <v>"2210030036.pdf"</v>
       </c>
       <c r="L66" t="s">
         <v>288</v>
@@ -4443,19 +4443,19 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <v>2210030255</v>
+        <v>2210030030</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F67" t="s">
         <v>286</v>
@@ -4468,15 +4468,15 @@
       </c>
       <c r="I67" t="str">
         <f>H67&amp;E67&amp;H67</f>
-        <v>"SWP CSEA-30.pdf"</v>
+        <v>"SWP CSEA-32.pdf"</v>
       </c>
       <c r="J67" t="str">
         <f>G67&amp;F67&amp;I67&amp;F67&amp;K67</f>
-        <v>ren "SWP CSEA-30.pdf" "2210030255.pdf"</v>
+        <v>ren "SWP CSEA-32.pdf" "2210030030.pdf"</v>
       </c>
       <c r="K67" t="str">
         <f>H67&amp;A67&amp;L67&amp;H67</f>
-        <v>"2210030255.pdf"</v>
+        <v>"2210030030.pdf"</v>
       </c>
       <c r="L67" t="s">
         <v>288</v>
@@ -4484,19 +4484,19 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
-        <v>2210030255</v>
+        <v>2210030204</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>223</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>400</v>
+        <v>321</v>
       </c>
       <c r="F68" t="s">
         <v>286</v>
@@ -4509,15 +4509,15 @@
       </c>
       <c r="I68" t="str">
         <f>H68&amp;E68&amp;H68</f>
-        <v>"SWP CSEA-112.pdf"</v>
+        <v>"SWP CSEA-33.pdf"</v>
       </c>
       <c r="J68" t="str">
         <f>G68&amp;F68&amp;I68&amp;F68&amp;K68</f>
-        <v>ren "SWP CSEA-112.pdf" "2210030255.pdf"</v>
+        <v>ren "SWP CSEA-33.pdf" "2210030204.pdf"</v>
       </c>
       <c r="K68" t="str">
         <f>H68&amp;A68&amp;L68&amp;H68</f>
-        <v>"2210030255.pdf"</v>
+        <v>"2210030204.pdf"</v>
       </c>
       <c r="L68" t="s">
         <v>288</v>
@@ -4525,19 +4525,19 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <v>2210030256</v>
+        <v>2210030236</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>231</v>
+        <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="F69" t="s">
         <v>286</v>
@@ -4550,15 +4550,15 @@
       </c>
       <c r="I69" t="str">
         <f>H69&amp;E69&amp;H69</f>
-        <v>"SWP CSEA-116.pdf"</v>
+        <v>"SWP CSEA-34.pdf"</v>
       </c>
       <c r="J69" t="str">
         <f>G69&amp;F69&amp;I69&amp;F69&amp;K69</f>
-        <v>ren "SWP CSEA-116.pdf" "2210030256.pdf"</v>
+        <v>ren "SWP CSEA-34.pdf" "2210030236.pdf"</v>
       </c>
       <c r="K69" t="str">
         <f>H69&amp;A69&amp;L69&amp;H69</f>
-        <v>"2210030256.pdf"</v>
+        <v>"2210030236.pdf"</v>
       </c>
       <c r="L69" t="s">
         <v>288</v>
@@ -4566,19 +4566,19 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
-        <v>2210030260</v>
+        <v>2210030429</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="E70" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
       <c r="F70" t="s">
         <v>286</v>
@@ -4591,15 +4591,15 @@
       </c>
       <c r="I70" t="str">
         <f>H70&amp;E70&amp;H70</f>
-        <v>"SWP CSEA-87.pdf"</v>
+        <v>"SWP CSEA-35.pdf"</v>
       </c>
       <c r="J70" t="str">
         <f>G70&amp;F70&amp;I70&amp;F70&amp;K70</f>
-        <v>ren "SWP CSEA-87.pdf" "2210030260.pdf"</v>
+        <v>ren "SWP CSEA-35.pdf" "2210030429.pdf"</v>
       </c>
       <c r="K70" t="str">
         <f>H70&amp;A70&amp;L70&amp;H70</f>
-        <v>"2210030260.pdf"</v>
+        <v>"2210030429.pdf"</v>
       </c>
       <c r="L70" t="s">
         <v>288</v>
@@ -4607,19 +4607,19 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <v>2210030264</v>
+        <v>2210030462</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="F71" t="s">
         <v>286</v>
@@ -4632,15 +4632,15 @@
       </c>
       <c r="I71" t="str">
         <f>H71&amp;E71&amp;H71</f>
-        <v>"SWP CSEA-65.pdf"</v>
+        <v>"SWP CSEA-36.pdf"</v>
       </c>
       <c r="J71" t="str">
         <f>G71&amp;F71&amp;I71&amp;F71&amp;K71</f>
-        <v>ren "SWP CSEA-65.pdf" "2210030264.pdf"</v>
+        <v>ren "SWP CSEA-36.pdf" "2210030462.pdf"</v>
       </c>
       <c r="K71" t="str">
         <f>H71&amp;A71&amp;L71&amp;H71</f>
-        <v>"2210030264.pdf"</v>
+        <v>"2210030462.pdf"</v>
       </c>
       <c r="L71" t="s">
         <v>288</v>
@@ -4648,19 +4648,19 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
-        <v>2210030279</v>
+        <v>2210030403</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="F72" t="s">
         <v>286</v>
@@ -4673,15 +4673,15 @@
       </c>
       <c r="I72" t="str">
         <f>H72&amp;E72&amp;H72</f>
-        <v>"SWP CSEA-90.pdf"</v>
+        <v>"SWP CSEA-37.pdf"</v>
       </c>
       <c r="J72" t="str">
         <f>G72&amp;F72&amp;I72&amp;F72&amp;K72</f>
-        <v>ren "SWP CSEA-90.pdf" "2210030279.pdf"</v>
+        <v>ren "SWP CSEA-37.pdf" "2210030403.pdf"</v>
       </c>
       <c r="K72" t="str">
         <f>H72&amp;A72&amp;L72&amp;H72</f>
-        <v>"2210030279.pdf"</v>
+        <v>"2210030403.pdf"</v>
       </c>
       <c r="L72" t="s">
         <v>288</v>
@@ -4689,19 +4689,19 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
-        <v>2210030284</v>
+        <v>2210030420</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="F73" t="s">
         <v>286</v>
@@ -4714,15 +4714,15 @@
       </c>
       <c r="I73" t="str">
         <f>H73&amp;E73&amp;H73</f>
-        <v>"SWP CSEA-69.pdf"</v>
+        <v>"SWP CSEA-38.pdf"</v>
       </c>
       <c r="J73" t="str">
         <f>G73&amp;F73&amp;I73&amp;F73&amp;K73</f>
-        <v>ren "SWP CSEA-69.pdf" "2210030284.pdf"</v>
+        <v>ren "SWP CSEA-38.pdf" "2210030420.pdf"</v>
       </c>
       <c r="K73" t="str">
         <f>H73&amp;A73&amp;L73&amp;H73</f>
-        <v>"2210030284.pdf"</v>
+        <v>"2210030420.pdf"</v>
       </c>
       <c r="L73" t="s">
         <v>288</v>
@@ -4730,19 +4730,19 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
-        <v>2210030289</v>
+        <v>2210030434</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="E74" t="s">
-        <v>405</v>
+        <v>327</v>
       </c>
       <c r="F74" t="s">
         <v>286</v>
@@ -4755,15 +4755,15 @@
       </c>
       <c r="I74" t="str">
         <f>H74&amp;E74&amp;H74</f>
-        <v>"SWP CSEA-117.pdf"</v>
+        <v>"SWP CSEA-39.pdf"</v>
       </c>
       <c r="J74" t="str">
         <f>G74&amp;F74&amp;I74&amp;F74&amp;K74</f>
-        <v>ren "SWP CSEA-117.pdf" "2210030289.pdf"</v>
+        <v>ren "SWP CSEA-39.pdf" "2210030434.pdf"</v>
       </c>
       <c r="K74" t="str">
         <f>H74&amp;A74&amp;L74&amp;H74</f>
-        <v>"2210030289.pdf"</v>
+        <v>"2210030434.pdf"</v>
       </c>
       <c r="L74" t="s">
         <v>288</v>
@@ -4771,19 +4771,19 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
-        <v>2210030291</v>
+        <v>2210030222</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>402</v>
+        <v>293</v>
       </c>
       <c r="F75" t="s">
         <v>286</v>
@@ -4796,15 +4796,15 @@
       </c>
       <c r="I75" t="str">
         <f>H75&amp;E75&amp;H75</f>
-        <v>"SWP CSEA-114.pdf"</v>
+        <v>"SWP CSEA-4.pdf"</v>
       </c>
       <c r="J75" t="str">
         <f>G75&amp;F75&amp;I75&amp;F75&amp;K75</f>
-        <v>ren "SWP CSEA-114.pdf" "2210030291.pdf"</v>
+        <v>ren "SWP CSEA-4.pdf" "2210030222.pdf"</v>
       </c>
       <c r="K75" t="str">
         <f>H75&amp;A75&amp;L75&amp;H75</f>
-        <v>"2210030291.pdf"</v>
+        <v>"2210030222.pdf"</v>
       </c>
       <c r="L75" t="s">
         <v>288</v>
@@ -4812,19 +4812,19 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
-        <v>2210030302</v>
+        <v>2210030504</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E76" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="F76" t="s">
         <v>286</v>
@@ -4837,15 +4837,15 @@
       </c>
       <c r="I76" t="str">
         <f>H76&amp;E76&amp;H76</f>
-        <v>"SWP CSEA-68.pdf"</v>
+        <v>"SWP CSEA-40.pdf"</v>
       </c>
       <c r="J76" t="str">
         <f>G76&amp;F76&amp;I76&amp;F76&amp;K76</f>
-        <v>ren "SWP CSEA-68.pdf" "2210030302.pdf"</v>
+        <v>ren "SWP CSEA-40.pdf" "2210030504.pdf"</v>
       </c>
       <c r="K76" t="str">
         <f>H76&amp;A76&amp;L76&amp;H76</f>
-        <v>"2210030302.pdf"</v>
+        <v>"2210030504.pdf"</v>
       </c>
       <c r="L76" t="s">
         <v>288</v>
@@ -4853,19 +4853,19 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
-        <v>2210030307</v>
+        <v>2210030455</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="E77" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="F77" t="s">
         <v>286</v>
@@ -4878,15 +4878,15 @@
       </c>
       <c r="I77" t="str">
         <f>H77&amp;E77&amp;H77</f>
-        <v>"SWP CSEA-59.pdf"</v>
+        <v>"SWP CSEA-41.pdf"</v>
       </c>
       <c r="J77" t="str">
         <f>G77&amp;F77&amp;I77&amp;F77&amp;K77</f>
-        <v>ren "SWP CSEA-59.pdf" "2210030307.pdf"</v>
+        <v>ren "SWP CSEA-41.pdf" "2210030455.pdf"</v>
       </c>
       <c r="K77" t="str">
         <f>H77&amp;A77&amp;L77&amp;H77</f>
-        <v>"2210030307.pdf"</v>
+        <v>"2210030455.pdf"</v>
       </c>
       <c r="L77" t="s">
         <v>288</v>
@@ -4894,19 +4894,19 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
-        <v>2210030313</v>
+        <v>2210030492</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="E78" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="F78" t="s">
         <v>286</v>
@@ -4919,15 +4919,15 @@
       </c>
       <c r="I78" t="str">
         <f>H78&amp;E78&amp;H78</f>
-        <v>"SWP CSEA-60.pdf"</v>
+        <v>"SWP CSEA-42.pdf"</v>
       </c>
       <c r="J78" t="str">
         <f>G78&amp;F78&amp;I78&amp;F78&amp;K78</f>
-        <v>ren "SWP CSEA-60.pdf" "2210030313.pdf"</v>
+        <v>ren "SWP CSEA-42.pdf" "2210030492.pdf"</v>
       </c>
       <c r="K78" t="str">
         <f>H78&amp;A78&amp;L78&amp;H78</f>
-        <v>"2210030313.pdf"</v>
+        <v>"2210030492.pdf"</v>
       </c>
       <c r="L78" t="s">
         <v>288</v>
@@ -4935,19 +4935,19 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
-        <v>2210030325</v>
+        <v>2210030158</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E79" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="F79" t="s">
         <v>286</v>
@@ -4960,15 +4960,15 @@
       </c>
       <c r="I79" t="str">
         <f>H79&amp;E79&amp;H79</f>
-        <v>"SWP CSEA-54.pdf"</v>
+        <v>"SWP CSEA-43.pdf"</v>
       </c>
       <c r="J79" t="str">
         <f>G79&amp;F79&amp;I79&amp;F79&amp;K79</f>
-        <v>ren "SWP CSEA-54.pdf" "2210030325.pdf"</v>
+        <v>ren "SWP CSEA-43.pdf" "2210030158.pdf"</v>
       </c>
       <c r="K79" t="str">
         <f>H79&amp;A79&amp;L79&amp;H79</f>
-        <v>"2210030325.pdf"</v>
+        <v>"2210030158.pdf"</v>
       </c>
       <c r="L79" t="s">
         <v>288</v>
@@ -4976,19 +4976,19 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
-        <v>2210030330</v>
+        <v>2210030149</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="E80" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="F80" t="s">
         <v>286</v>
@@ -5001,15 +5001,15 @@
       </c>
       <c r="I80" t="str">
         <f>H80&amp;E80&amp;H80</f>
-        <v>"SWP CSEA-113.pdf"</v>
+        <v>"SWP CSEA-44.pdf"</v>
       </c>
       <c r="J80" t="str">
         <f>G80&amp;F80&amp;I80&amp;F80&amp;K80</f>
-        <v>ren "SWP CSEA-113.pdf" "2210030330.pdf"</v>
+        <v>ren "SWP CSEA-44.pdf" "2210030149.pdf"</v>
       </c>
       <c r="K80" t="str">
         <f>H80&amp;A80&amp;L80&amp;H80</f>
-        <v>"2210030330.pdf"</v>
+        <v>"2210030149.pdf"</v>
       </c>
       <c r="L80" t="s">
         <v>288</v>
@@ -5017,19 +5017,19 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
-        <v>2210030334</v>
+        <v>2210030418</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="E81" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="F81" t="s">
         <v>286</v>
@@ -5042,15 +5042,15 @@
       </c>
       <c r="I81" t="str">
         <f>H81&amp;E81&amp;H81</f>
-        <v>"SWP CSEA-13.pdf"</v>
+        <v>"SWP CSEA-45.pdf"</v>
       </c>
       <c r="J81" t="str">
         <f>G81&amp;F81&amp;I81&amp;F81&amp;K81</f>
-        <v>ren "SWP CSEA-13.pdf" "2210030334.pdf"</v>
+        <v>ren "SWP CSEA-45.pdf" "2210030418.pdf"</v>
       </c>
       <c r="K81" t="str">
         <f>H81&amp;A81&amp;L81&amp;H81</f>
-        <v>"2210030334.pdf"</v>
+        <v>"2210030418.pdf"</v>
       </c>
       <c r="L81" t="s">
         <v>288</v>
@@ -5058,19 +5058,19 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
-        <v>2210030338</v>
+        <v>2210030400</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E82" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="F82" t="s">
         <v>286</v>
@@ -5083,15 +5083,15 @@
       </c>
       <c r="I82" t="str">
         <f>H82&amp;E82&amp;H82</f>
-        <v>"SWP CSEA-22.pdf"</v>
+        <v>"SWP CSEA-46.pdf"</v>
       </c>
       <c r="J82" t="str">
         <f>G82&amp;F82&amp;I82&amp;F82&amp;K82</f>
-        <v>ren "SWP CSEA-22.pdf" "2210030338.pdf"</v>
+        <v>ren "SWP CSEA-46.pdf" "2210030400.pdf"</v>
       </c>
       <c r="K82" t="str">
         <f>H82&amp;A82&amp;L82&amp;H82</f>
-        <v>"2210030338.pdf"</v>
+        <v>"2210030400.pdf"</v>
       </c>
       <c r="L82" t="s">
         <v>288</v>
@@ -5099,19 +5099,19 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
-        <v>2210030341</v>
+        <v>2210030081</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="E83" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="F83" t="s">
         <v>286</v>
@@ -5124,15 +5124,15 @@
       </c>
       <c r="I83" t="str">
         <f>H83&amp;E83&amp;H83</f>
-        <v>"SWP CSEA-95.pdf"</v>
+        <v>"SWP CSEA-47.pdf"</v>
       </c>
       <c r="J83" t="str">
         <f>G83&amp;F83&amp;I83&amp;F83&amp;K83</f>
-        <v>ren "SWP CSEA-95.pdf" "2210030341.pdf"</v>
+        <v>ren "SWP CSEA-47.pdf" "2210030081.pdf"</v>
       </c>
       <c r="K83" t="str">
         <f>H83&amp;A83&amp;L83&amp;H83</f>
-        <v>"2210030341.pdf"</v>
+        <v>"2210030081.pdf"</v>
       </c>
       <c r="L83" t="s">
         <v>288</v>
@@ -5140,19 +5140,19 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
-        <v>2210030343</v>
+        <v>2210030080</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="E84" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="F84" t="s">
         <v>286</v>
@@ -5165,15 +5165,15 @@
       </c>
       <c r="I84" t="str">
         <f>H84&amp;E84&amp;H84</f>
-        <v>"SWP CSEA-14.pdf"</v>
+        <v>"SWP CSEA-48.pdf"</v>
       </c>
       <c r="J84" t="str">
         <f>G84&amp;F84&amp;I84&amp;F84&amp;K84</f>
-        <v>ren "SWP CSEA-14.pdf" "2210030343.pdf"</v>
+        <v>ren "SWP CSEA-48.pdf" "2210030080.pdf"</v>
       </c>
       <c r="K84" t="str">
         <f>H84&amp;A84&amp;L84&amp;H84</f>
-        <v>"2210030343.pdf"</v>
+        <v>"2210030080.pdf"</v>
       </c>
       <c r="L84" t="s">
         <v>288</v>
@@ -5181,19 +5181,19 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
-        <v>2210030344</v>
+        <v>2210030229</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="E85" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="F85" t="s">
         <v>286</v>
@@ -5206,15 +5206,15 @@
       </c>
       <c r="I85" t="str">
         <f>H85&amp;E85&amp;H85</f>
-        <v>"SWP CSEA-106.pdf"</v>
+        <v>"SWP CSEA-49.pdf"</v>
       </c>
       <c r="J85" t="str">
         <f>G85&amp;F85&amp;I85&amp;F85&amp;K85</f>
-        <v>ren "SWP CSEA-106.pdf" "2210030344.pdf"</v>
+        <v>ren "SWP CSEA-49.pdf" "2210030229.pdf"</v>
       </c>
       <c r="K85" t="str">
         <f>H85&amp;A85&amp;L85&amp;H85</f>
-        <v>"2210030344.pdf"</v>
+        <v>"2210030229.pdf"</v>
       </c>
       <c r="L85" t="s">
         <v>288</v>
@@ -5222,19 +5222,19 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
-        <v>2210030348</v>
+        <v>2210030214</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>381</v>
+        <v>294</v>
       </c>
       <c r="F86" t="s">
         <v>286</v>
@@ -5247,15 +5247,15 @@
       </c>
       <c r="I86" t="str">
         <f>H86&amp;E86&amp;H86</f>
-        <v>"SWP CSEA-93.pdf"</v>
+        <v>"SWP CSEA-5.pdf"</v>
       </c>
       <c r="J86" t="str">
         <f>G86&amp;F86&amp;I86&amp;F86&amp;K86</f>
-        <v>ren "SWP CSEA-93.pdf" "2210030348.pdf"</v>
+        <v>ren "SWP CSEA-5.pdf" "2210030214.pdf"</v>
       </c>
       <c r="K86" t="str">
         <f>H86&amp;A86&amp;L86&amp;H86</f>
-        <v>"2210030348.pdf"</v>
+        <v>"2210030214.pdf"</v>
       </c>
       <c r="L86" t="s">
         <v>288</v>
@@ -5263,19 +5263,19 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
-        <v>2210030352</v>
+        <v>2210030103</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="E87" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="F87" t="s">
         <v>286</v>
@@ -5288,15 +5288,15 @@
       </c>
       <c r="I87" t="str">
         <f>H87&amp;E87&amp;H87</f>
-        <v>"SWP CSEA-8.pdf"</v>
+        <v>"SWP CSEA-50.pdf"</v>
       </c>
       <c r="J87" t="str">
         <f>G87&amp;F87&amp;I87&amp;F87&amp;K87</f>
-        <v>ren "SWP CSEA-8.pdf" "2210030352.pdf"</v>
+        <v>ren "SWP CSEA-50.pdf" "2210030103.pdf"</v>
       </c>
       <c r="K87" t="str">
         <f>H87&amp;A87&amp;L87&amp;H87</f>
-        <v>"2210030352.pdf"</v>
+        <v>"2210030103.pdf"</v>
       </c>
       <c r="L87" t="s">
         <v>288</v>
@@ -5304,19 +5304,19 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
-        <v>2210030355</v>
+        <v>2210030048</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>274</v>
+        <v>103</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="E88" t="s">
-        <v>426</v>
+        <v>339</v>
       </c>
       <c r="F88" t="s">
         <v>286</v>
@@ -5329,15 +5329,15 @@
       </c>
       <c r="I88" t="str">
         <f>H88&amp;E88&amp;H88</f>
-        <v>"SWP CSEA-138.pdf"</v>
+        <v>"SWP CSEA-51.pdf"</v>
       </c>
       <c r="J88" t="str">
         <f>G88&amp;F88&amp;I88&amp;F88&amp;K88</f>
-        <v>ren "SWP CSEA-138.pdf" "2210030355.pdf"</v>
+        <v>ren "SWP CSEA-51.pdf" "2210030048.pdf"</v>
       </c>
       <c r="K88" t="str">
         <f>H88&amp;A88&amp;L88&amp;H88</f>
-        <v>"2210030355.pdf"</v>
+        <v>"2210030048.pdf"</v>
       </c>
       <c r="L88" t="s">
         <v>288</v>
@@ -5345,19 +5345,19 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
-        <v>2210030363</v>
+        <v>2210030016</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="F89" t="s">
         <v>286</v>
@@ -5370,15 +5370,15 @@
       </c>
       <c r="I89" t="str">
         <f>H89&amp;E89&amp;H89</f>
-        <v>"SWP CSEA-12.pdf"</v>
+        <v>"SWP CSEA-52.pdf"</v>
       </c>
       <c r="J89" t="str">
         <f>G89&amp;F89&amp;I89&amp;F89&amp;K89</f>
-        <v>ren "SWP CSEA-12.pdf" "2210030363.pdf"</v>
+        <v>ren "SWP CSEA-52.pdf" "2210030016.pdf"</v>
       </c>
       <c r="K89" t="str">
         <f>H89&amp;A89&amp;L89&amp;H89</f>
-        <v>"2210030363.pdf"</v>
+        <v>"2210030016.pdf"</v>
       </c>
       <c r="L89" t="s">
         <v>288</v>
@@ -5386,19 +5386,19 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
-        <v>2210030369</v>
+        <v>2210030171</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
-        <v>423</v>
+        <v>341</v>
       </c>
       <c r="F90" t="s">
         <v>286</v>
@@ -5411,15 +5411,15 @@
       </c>
       <c r="I90" t="str">
         <f>H90&amp;E90&amp;H90</f>
-        <v>"SWP CSEA-135.pdf"</v>
+        <v>"SWP CSEA-53.pdf"</v>
       </c>
       <c r="J90" t="str">
         <f>G90&amp;F90&amp;I90&amp;F90&amp;K90</f>
-        <v>ren "SWP CSEA-135.pdf" "2210030369.pdf"</v>
+        <v>ren "SWP CSEA-53.pdf" "2210030171.pdf"</v>
       </c>
       <c r="K90" t="str">
         <f>H90&amp;A90&amp;L90&amp;H90</f>
-        <v>"2210030369.pdf"</v>
+        <v>"2210030171.pdf"</v>
       </c>
       <c r="L90" t="s">
         <v>288</v>
@@ -5427,19 +5427,19 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
-        <v>2210030372</v>
+        <v>2210030325</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="F91" t="s">
         <v>286</v>
@@ -5452,15 +5452,15 @@
       </c>
       <c r="I91" t="str">
         <f>H91&amp;E91&amp;H91</f>
-        <v>"SWP CSEA-21.pdf"</v>
+        <v>"SWP CSEA-54.pdf"</v>
       </c>
       <c r="J91" t="str">
         <f>G91&amp;F91&amp;I91&amp;F91&amp;K91</f>
-        <v>ren "SWP CSEA-21.pdf" "2210030372.pdf"</v>
+        <v>ren "SWP CSEA-54.pdf" "2210030325.pdf"</v>
       </c>
       <c r="K91" t="str">
         <f>H91&amp;A91&amp;L91&amp;H91</f>
-        <v>"2210030372.pdf"</v>
+        <v>"2210030325.pdf"</v>
       </c>
       <c r="L91" t="s">
         <v>288</v>
@@ -5468,19 +5468,19 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
-        <v>2210030378</v>
+        <v>2210030393</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="E92" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="F92" t="s">
         <v>286</v>
@@ -5493,15 +5493,15 @@
       </c>
       <c r="I92" t="str">
         <f>H92&amp;E92&amp;H92</f>
-        <v>"SWP CSEA-92.pdf"</v>
+        <v>"SWP CSEA-55.pdf"</v>
       </c>
       <c r="J92" t="str">
         <f>G92&amp;F92&amp;I92&amp;F92&amp;K92</f>
-        <v>ren "SWP CSEA-92.pdf" "2210030378.pdf"</v>
+        <v>ren "SWP CSEA-55.pdf" "2210030393.pdf"</v>
       </c>
       <c r="K92" t="str">
         <f>H92&amp;A92&amp;L92&amp;H92</f>
-        <v>"2210030378.pdf"</v>
+        <v>"2210030393.pdf"</v>
       </c>
       <c r="L92" t="s">
         <v>288</v>
@@ -5509,19 +5509,19 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
-        <v>2210030379</v>
+        <v>2210030184</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>270</v>
+        <v>113</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>271</v>
+        <v>114</v>
       </c>
       <c r="E93" t="s">
-        <v>424</v>
+        <v>344</v>
       </c>
       <c r="F93" t="s">
         <v>286</v>
@@ -5534,15 +5534,15 @@
       </c>
       <c r="I93" t="str">
         <f>H93&amp;E93&amp;H93</f>
-        <v>"SWP CSEA-136.pdf"</v>
+        <v>"SWP CSEA-56.pdf"</v>
       </c>
       <c r="J93" t="str">
         <f>G93&amp;F93&amp;I93&amp;F93&amp;K93</f>
-        <v>ren "SWP CSEA-136.pdf" "2210030379.pdf"</v>
+        <v>ren "SWP CSEA-56.pdf" "2210030184.pdf"</v>
       </c>
       <c r="K93" t="str">
         <f>H93&amp;A93&amp;L93&amp;H93</f>
-        <v>"2210030379.pdf"</v>
+        <v>"2210030184.pdf"</v>
       </c>
       <c r="L93" t="s">
         <v>288</v>
@@ -5550,19 +5550,19 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
-        <v>2210030380</v>
+        <v>2210030071</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>272</v>
+        <v>115</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>273</v>
+        <v>116</v>
       </c>
       <c r="E94" t="s">
-        <v>425</v>
+        <v>345</v>
       </c>
       <c r="F94" t="s">
         <v>286</v>
@@ -5575,15 +5575,15 @@
       </c>
       <c r="I94" t="str">
         <f>H94&amp;E94&amp;H94</f>
-        <v>"SWP CSEA-137.pdf"</v>
+        <v>"SWP CSEA-57.pdf"</v>
       </c>
       <c r="J94" t="str">
         <f>G94&amp;F94&amp;I94&amp;F94&amp;K94</f>
-        <v>ren "SWP CSEA-137.pdf" "2210030380.pdf"</v>
+        <v>ren "SWP CSEA-57.pdf" "2210030071.pdf"</v>
       </c>
       <c r="K94" t="str">
         <f>H94&amp;A94&amp;L94&amp;H94</f>
-        <v>"2210030380.pdf"</v>
+        <v>"2210030071.pdf"</v>
       </c>
       <c r="L94" t="s">
         <v>288</v>
@@ -5591,19 +5591,19 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
-        <v>2210030387</v>
+        <v>2210030072</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="E95" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="F95" t="s">
         <v>286</v>
@@ -5616,15 +5616,15 @@
       </c>
       <c r="I95" t="str">
         <f>H95&amp;E95&amp;H95</f>
-        <v>"SWP CSEA-29.pdf"</v>
+        <v>"SWP CSEA-58.pdf"</v>
       </c>
       <c r="J95" t="str">
         <f>G95&amp;F95&amp;I95&amp;F95&amp;K95</f>
-        <v>ren "SWP CSEA-29.pdf" "2210030387.pdf"</v>
+        <v>ren "SWP CSEA-58.pdf" "2210030072.pdf"</v>
       </c>
       <c r="K95" t="str">
         <f>H95&amp;A95&amp;L95&amp;H95</f>
-        <v>"2210030387.pdf"</v>
+        <v>"2210030072.pdf"</v>
       </c>
       <c r="L95" t="s">
         <v>288</v>
@@ -5632,19 +5632,19 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
-        <v>2210030388</v>
+        <v>2210030307</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="E96" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="F96" t="s">
         <v>286</v>
@@ -5657,15 +5657,15 @@
       </c>
       <c r="I96" t="str">
         <f>H96&amp;E96&amp;H96</f>
-        <v>"SWP CSEA-20.pdf"</v>
+        <v>"SWP CSEA-59.pdf"</v>
       </c>
       <c r="J96" t="str">
         <f>G96&amp;F96&amp;I96&amp;F96&amp;K96</f>
-        <v>ren "SWP CSEA-20.pdf" "2210030388.pdf"</v>
+        <v>ren "SWP CSEA-59.pdf" "2210030307.pdf"</v>
       </c>
       <c r="K96" t="str">
         <f>H96&amp;A96&amp;L96&amp;H96</f>
-        <v>"2210030388.pdf"</v>
+        <v>"2210030307.pdf"</v>
       </c>
       <c r="L96" t="s">
         <v>288</v>
@@ -5673,19 +5673,19 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
-        <v>2210030393</v>
+        <v>2210030068</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="F97" t="s">
         <v>286</v>
@@ -5698,15 +5698,15 @@
       </c>
       <c r="I97" t="str">
         <f>H97&amp;E97&amp;H97</f>
-        <v>"SWP CSEA-55.pdf"</v>
+        <v>"SWP CSEA-6.pdf"</v>
       </c>
       <c r="J97" t="str">
         <f>G97&amp;F97&amp;I97&amp;F97&amp;K97</f>
-        <v>ren "SWP CSEA-55.pdf" "2210030393.pdf"</v>
+        <v>ren "SWP CSEA-6.pdf" "2210030068.pdf"</v>
       </c>
       <c r="K97" t="str">
         <f>H97&amp;A97&amp;L97&amp;H97</f>
-        <v>"2210030393.pdf"</v>
+        <v>"2210030068.pdf"</v>
       </c>
       <c r="L97" t="s">
         <v>288</v>
@@ -5714,19 +5714,19 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
-        <v>2210030399</v>
+        <v>2210030313</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="E98" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="F98" t="s">
         <v>286</v>
@@ -5739,15 +5739,15 @@
       </c>
       <c r="I98" t="str">
         <f>H98&amp;E98&amp;H98</f>
-        <v>"SWP CSEA-24.pdf"</v>
+        <v>"SWP CSEA-60.pdf"</v>
       </c>
       <c r="J98" t="str">
         <f>G98&amp;F98&amp;I98&amp;F98&amp;K98</f>
-        <v>ren "SWP CSEA-24.pdf" "2210030399.pdf"</v>
+        <v>ren "SWP CSEA-60.pdf" "2210030313.pdf"</v>
       </c>
       <c r="K98" t="str">
         <f>H98&amp;A98&amp;L98&amp;H98</f>
-        <v>"2210030399.pdf"</v>
+        <v>"2210030313.pdf"</v>
       </c>
       <c r="L98" t="s">
         <v>288</v>
@@ -5755,19 +5755,19 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
-        <v>2210030400</v>
+        <v>2210030491</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="E99" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="F99" t="s">
         <v>286</v>
@@ -5780,15 +5780,15 @@
       </c>
       <c r="I99" t="str">
         <f>H99&amp;E99&amp;H99</f>
-        <v>"SWP CSEA-46.pdf"</v>
+        <v>"SWP CSEA-61.pdf"</v>
       </c>
       <c r="J99" t="str">
         <f>G99&amp;F99&amp;I99&amp;F99&amp;K99</f>
-        <v>ren "SWP CSEA-46.pdf" "2210030400.pdf"</v>
+        <v>ren "SWP CSEA-61.pdf" "2210030491.pdf"</v>
       </c>
       <c r="K99" t="str">
         <f>H99&amp;A99&amp;L99&amp;H99</f>
-        <v>"2210030400.pdf"</v>
+        <v>"2210030491.pdf"</v>
       </c>
       <c r="L99" t="s">
         <v>288</v>
@@ -5796,19 +5796,19 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
-        <v>2210030401</v>
+        <v>2210030224</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E100" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F100" t="s">
         <v>286</v>
@@ -5821,15 +5821,15 @@
       </c>
       <c r="I100" t="str">
         <f>H100&amp;E100&amp;H100</f>
-        <v>"SWP CSEA-71.pdf"</v>
+        <v>"SWP CSEA-62.pdf"</v>
       </c>
       <c r="J100" t="str">
         <f>G100&amp;F100&amp;I100&amp;F100&amp;K100</f>
-        <v>ren "SWP CSEA-71.pdf" "2210030401.pdf"</v>
+        <v>ren "SWP CSEA-62.pdf" "2210030224.pdf"</v>
       </c>
       <c r="K100" t="str">
         <f>H100&amp;A100&amp;L100&amp;H100</f>
-        <v>"2210030401.pdf"</v>
+        <v>"2210030224.pdf"</v>
       </c>
       <c r="L100" t="s">
         <v>288</v>
@@ -5837,19 +5837,19 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
-        <v>2210030402</v>
+        <v>2210030047</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E101" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F101" t="s">
         <v>286</v>
@@ -5862,15 +5862,15 @@
       </c>
       <c r="I101" t="str">
         <f>H101&amp;E101&amp;H101</f>
-        <v>"SWP CSEA-73.pdf"</v>
+        <v>"SWP CSEA-63.pdf"</v>
       </c>
       <c r="J101" t="str">
         <f>G101&amp;F101&amp;I101&amp;F101&amp;K101</f>
-        <v>ren "SWP CSEA-73.pdf" "2210030402.pdf"</v>
+        <v>ren "SWP CSEA-63.pdf" "2210030047.pdf"</v>
       </c>
       <c r="K101" t="str">
         <f>H101&amp;A101&amp;L101&amp;H101</f>
-        <v>"2210030402.pdf"</v>
+        <v>"2210030047.pdf"</v>
       </c>
       <c r="L101" t="s">
         <v>288</v>
@@ -5878,19 +5878,19 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
-        <v>2210030403</v>
+        <v>2210030426</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E102" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="F102" t="s">
         <v>286</v>
@@ -5903,15 +5903,15 @@
       </c>
       <c r="I102" t="str">
         <f>H102&amp;E102&amp;H102</f>
-        <v>"SWP CSEA-37.pdf"</v>
+        <v>"SWP CSEA-64.pdf"</v>
       </c>
       <c r="J102" t="str">
         <f>G102&amp;F102&amp;I102&amp;F102&amp;K102</f>
-        <v>ren "SWP CSEA-37.pdf" "2210030403.pdf"</v>
+        <v>ren "SWP CSEA-64.pdf" "2210030426.pdf"</v>
       </c>
       <c r="K102" t="str">
         <f>H102&amp;A102&amp;L102&amp;H102</f>
-        <v>"2210030403.pdf"</v>
+        <v>"2210030426.pdf"</v>
       </c>
       <c r="L102" t="s">
         <v>288</v>
@@ -5919,19 +5919,19 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
-        <v>2210030408</v>
+        <v>2210030264</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="E103" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="F103" t="s">
         <v>286</v>
@@ -5944,15 +5944,15 @@
       </c>
       <c r="I103" t="str">
         <f>H103&amp;E103&amp;H103</f>
-        <v>"SWP CSEA-96.pdf"</v>
+        <v>"SWP CSEA-65.pdf"</v>
       </c>
       <c r="J103" t="str">
         <f>G103&amp;F103&amp;I103&amp;F103&amp;K103</f>
-        <v>ren "SWP CSEA-96.pdf" "2210030408.pdf"</v>
+        <v>ren "SWP CSEA-65.pdf" "2210030264.pdf"</v>
       </c>
       <c r="K103" t="str">
         <f>H103&amp;A103&amp;L103&amp;H103</f>
-        <v>"2210030408.pdf"</v>
+        <v>"2210030264.pdf"</v>
       </c>
       <c r="L103" t="s">
         <v>288</v>
@@ -5960,19 +5960,19 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
-        <v>2210030411</v>
+        <v>2210030055</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="E104" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="F104" t="s">
         <v>286</v>
@@ -5985,15 +5985,15 @@
       </c>
       <c r="I104" t="str">
         <f>H104&amp;E104&amp;H104</f>
-        <v>"SWP CSEA-97.pdf"</v>
+        <v>"SWP CSEA-66.pdf"</v>
       </c>
       <c r="J104" t="str">
         <f>G104&amp;F104&amp;I104&amp;F104&amp;K104</f>
-        <v>ren "SWP CSEA-97.pdf" "2210030411.pdf"</v>
+        <v>ren "SWP CSEA-66.pdf" "2210030055.pdf"</v>
       </c>
       <c r="K104" t="str">
         <f>H104&amp;A104&amp;L104&amp;H104</f>
-        <v>"2210030411.pdf"</v>
+        <v>"2210030055.pdf"</v>
       </c>
       <c r="L104" t="s">
         <v>288</v>
@@ -6001,19 +6001,19 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
-        <v>2210030416</v>
+        <v>2210030009</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="E105" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="F105" t="s">
         <v>286</v>
@@ -6026,15 +6026,15 @@
       </c>
       <c r="I105" t="str">
         <f>H105&amp;E105&amp;H105</f>
-        <v>"SWP CSEA-103.pdf"</v>
+        <v>"SWP CSEA-67.pdf"</v>
       </c>
       <c r="J105" t="str">
         <f>G105&amp;F105&amp;I105&amp;F105&amp;K105</f>
-        <v>ren "SWP CSEA-103.pdf" "2210030416.pdf"</v>
+        <v>ren "SWP CSEA-67.pdf" "2210030009.pdf"</v>
       </c>
       <c r="K105" t="str">
         <f>H105&amp;A105&amp;L105&amp;H105</f>
-        <v>"2210030416.pdf"</v>
+        <v>"2210030009.pdf"</v>
       </c>
       <c r="L105" t="s">
         <v>288</v>
@@ -6042,19 +6042,19 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
-        <v>2210030418</v>
+        <v>2210030302</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="E106" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="F106" t="s">
         <v>286</v>
@@ -6067,15 +6067,15 @@
       </c>
       <c r="I106" t="str">
         <f>H106&amp;E106&amp;H106</f>
-        <v>"SWP CSEA-45.pdf"</v>
+        <v>"SWP CSEA-68.pdf"</v>
       </c>
       <c r="J106" t="str">
         <f>G106&amp;F106&amp;I106&amp;F106&amp;K106</f>
-        <v>ren "SWP CSEA-45.pdf" "2210030418.pdf"</v>
+        <v>ren "SWP CSEA-68.pdf" "2210030302.pdf"</v>
       </c>
       <c r="K106" t="str">
         <f>H106&amp;A106&amp;L106&amp;H106</f>
-        <v>"2210030418.pdf"</v>
+        <v>"2210030302.pdf"</v>
       </c>
       <c r="L106" t="s">
         <v>288</v>
@@ -6083,19 +6083,19 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
-        <v>2210030419</v>
+        <v>2210030284</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="E107" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="F107" t="s">
         <v>286</v>
@@ -6108,15 +6108,15 @@
       </c>
       <c r="I107" t="str">
         <f>H107&amp;E107&amp;H107</f>
-        <v>"SWP CSEA-23.pdf"</v>
+        <v>"SWP CSEA-69.pdf"</v>
       </c>
       <c r="J107" t="str">
         <f>G107&amp;F107&amp;I107&amp;F107&amp;K107</f>
-        <v>ren "SWP CSEA-23.pdf" "2210030419.pdf"</v>
+        <v>ren "SWP CSEA-69.pdf" "2210030284.pdf"</v>
       </c>
       <c r="K107" t="str">
         <f>H107&amp;A107&amp;L107&amp;H107</f>
-        <v>"2210030419.pdf"</v>
+        <v>"2210030284.pdf"</v>
       </c>
       <c r="L107" t="s">
         <v>288</v>
@@ -6124,19 +6124,19 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
-        <v>2210030420</v>
+        <v>2210030114</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="E108" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="F108" t="s">
         <v>286</v>
@@ -6149,15 +6149,15 @@
       </c>
       <c r="I108" t="str">
         <f>H108&amp;E108&amp;H108</f>
-        <v>"SWP CSEA-38.pdf"</v>
+        <v>"SWP CSEA-7.pdf"</v>
       </c>
       <c r="J108" t="str">
         <f>G108&amp;F108&amp;I108&amp;F108&amp;K108</f>
-        <v>ren "SWP CSEA-38.pdf" "2210030420.pdf"</v>
+        <v>ren "SWP CSEA-7.pdf" "2210030114.pdf"</v>
       </c>
       <c r="K108" t="str">
         <f>H108&amp;A108&amp;L108&amp;H108</f>
-        <v>"2210030420.pdf"</v>
+        <v>"2210030114.pdf"</v>
       </c>
       <c r="L108" t="s">
         <v>288</v>
@@ -6165,19 +6165,19 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
-        <v>2210030422</v>
+        <v>2210030447</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="E109" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="F109" t="s">
         <v>286</v>
@@ -6190,15 +6190,15 @@
       </c>
       <c r="I109" t="str">
         <f>H109&amp;E109&amp;H109</f>
-        <v>"SWP CSEA-98.pdf"</v>
+        <v>"SWP CSEA-70.pdf"</v>
       </c>
       <c r="J109" t="str">
         <f>G109&amp;F109&amp;I109&amp;F109&amp;K109</f>
-        <v>ren "SWP CSEA-98.pdf" "2210030422.pdf"</v>
+        <v>ren "SWP CSEA-70.pdf" "2210030447.pdf"</v>
       </c>
       <c r="K109" t="str">
         <f>H109&amp;A109&amp;L109&amp;H109</f>
-        <v>"2210030422.pdf"</v>
+        <v>"2210030447.pdf"</v>
       </c>
       <c r="L109" t="s">
         <v>288</v>
@@ -6206,19 +6206,19 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
-        <v>2210030423</v>
+        <v>2210030401</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E110" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="F110" t="s">
         <v>286</v>
@@ -6231,15 +6231,15 @@
       </c>
       <c r="I110" t="str">
         <f>H110&amp;E110&amp;H110</f>
-        <v>"SWP CSEA-102.pdf"</v>
+        <v>"SWP CSEA-71.pdf"</v>
       </c>
       <c r="J110" t="str">
         <f>G110&amp;F110&amp;I110&amp;F110&amp;K110</f>
-        <v>ren "SWP CSEA-102.pdf" "2210030423.pdf"</v>
+        <v>ren "SWP CSEA-71.pdf" "2210030401.pdf"</v>
       </c>
       <c r="K110" t="str">
         <f>H110&amp;A110&amp;L110&amp;H110</f>
-        <v>"2210030423.pdf"</v>
+        <v>"2210030401.pdf"</v>
       </c>
       <c r="L110" t="s">
         <v>288</v>
@@ -6247,19 +6247,19 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
-        <v>2210030425</v>
+        <v>2210030467</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="E111" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="F111" t="s">
         <v>286</v>
@@ -6272,15 +6272,15 @@
       </c>
       <c r="I111" t="str">
         <f>H111&amp;E111&amp;H111</f>
-        <v>"SWP CSEA-129.pdf"</v>
+        <v>"SWP CSEA-72.pdf"</v>
       </c>
       <c r="J111" t="str">
         <f>G111&amp;F111&amp;I111&amp;F111&amp;K111</f>
-        <v>ren "SWP CSEA-129.pdf" "2210030425.pdf"</v>
+        <v>ren "SWP CSEA-72.pdf" "2210030467.pdf"</v>
       </c>
       <c r="K111" t="str">
         <f>H111&amp;A111&amp;L111&amp;H111</f>
-        <v>"2210030425.pdf"</v>
+        <v>"2210030467.pdf"</v>
       </c>
       <c r="L111" t="s">
         <v>288</v>
@@ -6288,19 +6288,19 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
-        <v>2210030426</v>
+        <v>2210030402</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E112" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="F112" t="s">
         <v>286</v>
@@ -6313,15 +6313,15 @@
       </c>
       <c r="I112" t="str">
         <f>H112&amp;E112&amp;H112</f>
-        <v>"SWP CSEA-64.pdf"</v>
+        <v>"SWP CSEA-73.pdf"</v>
       </c>
       <c r="J112" t="str">
         <f>G112&amp;F112&amp;I112&amp;F112&amp;K112</f>
-        <v>ren "SWP CSEA-64.pdf" "2210030426.pdf"</v>
+        <v>ren "SWP CSEA-73.pdf" "2210030402.pdf"</v>
       </c>
       <c r="K112" t="str">
         <f>H112&amp;A112&amp;L112&amp;H112</f>
-        <v>"2210030426.pdf"</v>
+        <v>"2210030402.pdf"</v>
       </c>
       <c r="L112" t="s">
         <v>288</v>
@@ -6329,19 +6329,19 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
-        <v>2210030429</v>
+        <v>2210030163</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="E113" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="F113" t="s">
         <v>286</v>
@@ -6354,15 +6354,15 @@
       </c>
       <c r="I113" t="str">
         <f>H113&amp;E113&amp;H113</f>
-        <v>"SWP CSEA-35.pdf"</v>
+        <v>"SWP CSEA-74.pdf"</v>
       </c>
       <c r="J113" t="str">
         <f>G113&amp;F113&amp;I113&amp;F113&amp;K113</f>
-        <v>ren "SWP CSEA-35.pdf" "2210030429.pdf"</v>
+        <v>ren "SWP CSEA-74.pdf" "2210030163.pdf"</v>
       </c>
       <c r="K113" t="str">
         <f>H113&amp;A113&amp;L113&amp;H113</f>
-        <v>"2210030429.pdf"</v>
+        <v>"2210030163.pdf"</v>
       </c>
       <c r="L113" t="s">
         <v>288</v>
@@ -6411,19 +6411,19 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
-        <v>2210030434</v>
+        <v>2210030439</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E115" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="F115" t="s">
         <v>286</v>
@@ -6436,15 +6436,15 @@
       </c>
       <c r="I115" t="str">
         <f>H115&amp;E115&amp;H115</f>
-        <v>"SWP CSEA-39.pdf"</v>
+        <v>"SWP CSEA-76.pdf"</v>
       </c>
       <c r="J115" t="str">
         <f>G115&amp;F115&amp;I115&amp;F115&amp;K115</f>
-        <v>ren "SWP CSEA-39.pdf" "2210030434.pdf"</v>
+        <v>ren "SWP CSEA-76.pdf" "2210030439.pdf"</v>
       </c>
       <c r="K115" t="str">
         <f>H115&amp;A115&amp;L115&amp;H115</f>
-        <v>"2210030434.pdf"</v>
+        <v>"2210030439.pdf"</v>
       </c>
       <c r="L115" t="s">
         <v>288</v>
@@ -6452,19 +6452,19 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
-        <v>2210030435</v>
+        <v>2210030442</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="E116" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="F116" t="s">
         <v>286</v>
@@ -6477,15 +6477,15 @@
       </c>
       <c r="I116" t="str">
         <f>H116&amp;E116&amp;H116</f>
-        <v>"SWP CSEA-101.pdf"</v>
+        <v>"SWP CSEA-77.pdf"</v>
       </c>
       <c r="J116" t="str">
         <f>G116&amp;F116&amp;I116&amp;F116&amp;K116</f>
-        <v>ren "SWP CSEA-101.pdf" "2210030435.pdf"</v>
+        <v>ren "SWP CSEA-77.pdf" "2210030442.pdf"</v>
       </c>
       <c r="K116" t="str">
         <f>H116&amp;A116&amp;L116&amp;H116</f>
-        <v>"2210030435.pdf"</v>
+        <v>"2210030442.pdf"</v>
       </c>
       <c r="L116" t="s">
         <v>288</v>
@@ -6493,19 +6493,19 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
-        <v>2210030437</v>
+        <v>2210030493</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="E117" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="F117" t="s">
         <v>286</v>
@@ -6518,15 +6518,15 @@
       </c>
       <c r="I117" t="str">
         <f>H117&amp;E117&amp;H117</f>
-        <v>"SWP CSEA-121.pdf"</v>
+        <v>"SWP CSEA-78.pdf"</v>
       </c>
       <c r="J117" t="str">
         <f>G117&amp;F117&amp;I117&amp;F117&amp;K117</f>
-        <v>ren "SWP CSEA-121.pdf" "2210030437.pdf"</v>
+        <v>ren "SWP CSEA-78.pdf" "2210030493.pdf"</v>
       </c>
       <c r="K117" t="str">
         <f>H117&amp;A117&amp;L117&amp;H117</f>
-        <v>"2210030437.pdf"</v>
+        <v>"2210030493.pdf"</v>
       </c>
       <c r="L117" t="s">
         <v>288</v>
@@ -6534,19 +6534,19 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
-        <v>2210030439</v>
+        <v>2210030006</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E118" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F118" t="s">
         <v>286</v>
@@ -6559,15 +6559,15 @@
       </c>
       <c r="I118" t="str">
         <f>H118&amp;E118&amp;H118</f>
-        <v>"SWP CSEA-76.pdf"</v>
+        <v>"SWP CSEA-79.pdf"</v>
       </c>
       <c r="J118" t="str">
         <f>G118&amp;F118&amp;I118&amp;F118&amp;K118</f>
-        <v>ren "SWP CSEA-76.pdf" "2210030439.pdf"</v>
+        <v>ren "SWP CSEA-79.pdf" "2210030006.pdf"</v>
       </c>
       <c r="K118" t="str">
         <f>H118&amp;A118&amp;L118&amp;H118</f>
-        <v>"2210030439.pdf"</v>
+        <v>"2210030006.pdf"</v>
       </c>
       <c r="L118" t="s">
         <v>288</v>
@@ -6575,19 +6575,19 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
-        <v>2210030442</v>
+        <v>2210030352</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="E119" t="s">
-        <v>365</v>
+        <v>297</v>
       </c>
       <c r="F119" t="s">
         <v>286</v>
@@ -6600,15 +6600,15 @@
       </c>
       <c r="I119" t="str">
         <f>H119&amp;E119&amp;H119</f>
-        <v>"SWP CSEA-77.pdf"</v>
+        <v>"SWP CSEA-8.pdf"</v>
       </c>
       <c r="J119" t="str">
         <f>G119&amp;F119&amp;I119&amp;F119&amp;K119</f>
-        <v>ren "SWP CSEA-77.pdf" "2210030442.pdf"</v>
+        <v>ren "SWP CSEA-8.pdf" "2210030352.pdf"</v>
       </c>
       <c r="K119" t="str">
         <f>H119&amp;A119&amp;L119&amp;H119</f>
-        <v>"2210030442.pdf"</v>
+        <v>"2210030352.pdf"</v>
       </c>
       <c r="L119" t="s">
         <v>288</v>
@@ -6616,19 +6616,19 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
-        <v>2210030447</v>
+        <v>2210030007</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E120" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F120" t="s">
         <v>286</v>
@@ -6641,15 +6641,15 @@
       </c>
       <c r="I120" t="str">
         <f>H120&amp;E120&amp;H120</f>
-        <v>"SWP CSEA-70.pdf"</v>
+        <v>"SWP CSEA-80.pdf"</v>
       </c>
       <c r="J120" t="str">
         <f>G120&amp;F120&amp;I120&amp;F120&amp;K120</f>
-        <v>ren "SWP CSEA-70.pdf" "2210030447.pdf"</v>
+        <v>ren "SWP CSEA-80.pdf" "2210030007.pdf"</v>
       </c>
       <c r="K120" t="str">
         <f>H120&amp;A120&amp;L120&amp;H120</f>
-        <v>"2210030447.pdf"</v>
+        <v>"2210030007.pdf"</v>
       </c>
       <c r="L120" t="s">
         <v>288</v>
@@ -6657,19 +6657,19 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
-        <v>2210030451</v>
+        <v>2210030464</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>276</v>
+        <v>163</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>277</v>
+        <v>164</v>
       </c>
       <c r="E121" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="F121" t="s">
         <v>286</v>
@@ -6682,15 +6682,15 @@
       </c>
       <c r="I121" t="str">
         <f>H121&amp;E121&amp;H121</f>
-        <v>"SWP CSEA-139.pdf"</v>
+        <v>"SWP CSEA-81.pdf"</v>
       </c>
       <c r="J121" t="str">
         <f>G121&amp;F121&amp;I121&amp;F121&amp;K121</f>
-        <v>ren "SWP CSEA-139.pdf" "2210030451.pdf"</v>
+        <v>ren "SWP CSEA-81.pdf" "2210030464.pdf"</v>
       </c>
       <c r="K121" t="str">
         <f>H121&amp;A121&amp;L121&amp;H121</f>
-        <v>"2210030451.pdf"</v>
+        <v>"2210030464.pdf"</v>
       </c>
       <c r="L121" t="s">
         <v>288</v>
@@ -6739,19 +6739,19 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
-        <v>2210030453</v>
+        <v>2210030073</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="E123" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="F123" t="s">
         <v>286</v>
@@ -6764,15 +6764,15 @@
       </c>
       <c r="I123" t="str">
         <f>H123&amp;E123&amp;H123</f>
-        <v>"SWP CSEA-131.pdf"</v>
+        <v>"SWP CSEA-83.pdf"</v>
       </c>
       <c r="J123" t="str">
         <f>G123&amp;F123&amp;I123&amp;F123&amp;K123</f>
-        <v>ren "SWP CSEA-131.pdf" "2210030453.pdf"</v>
+        <v>ren "SWP CSEA-83.pdf" "2210030073.pdf"</v>
       </c>
       <c r="K123" t="str">
         <f>H123&amp;A123&amp;L123&amp;H123</f>
-        <v>"2210030453.pdf"</v>
+        <v>"2210030073.pdf"</v>
       </c>
       <c r="L123" t="s">
         <v>288</v>
@@ -6780,19 +6780,19 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
-        <v>2210030455</v>
+        <v>2210030067</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="E124" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="F124" t="s">
         <v>286</v>
@@ -6805,15 +6805,15 @@
       </c>
       <c r="I124" t="str">
         <f>H124&amp;E124&amp;H124</f>
-        <v>"SWP CSEA-41.pdf"</v>
+        <v>"SWP CSEA-84.pdf"</v>
       </c>
       <c r="J124" t="str">
         <f>G124&amp;F124&amp;I124&amp;F124&amp;K124</f>
-        <v>ren "SWP CSEA-41.pdf" "2210030455.pdf"</v>
+        <v>ren "SWP CSEA-84.pdf" "2210030067.pdf"</v>
       </c>
       <c r="K124" t="str">
         <f>H124&amp;A124&amp;L124&amp;H124</f>
-        <v>"2210030455.pdf"</v>
+        <v>"2210030067.pdf"</v>
       </c>
       <c r="L124" t="s">
         <v>288</v>
@@ -6821,19 +6821,19 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
-        <v>2210030458</v>
+        <v>2210030066</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="E125" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="F125" t="s">
         <v>286</v>
@@ -6846,15 +6846,15 @@
       </c>
       <c r="I125" t="str">
         <f>H125&amp;E125&amp;H125</f>
-        <v>"SWP CSEA-99.pdf"</v>
+        <v>"SWP CSEA-85.pdf"</v>
       </c>
       <c r="J125" t="str">
         <f>G125&amp;F125&amp;I125&amp;F125&amp;K125</f>
-        <v>ren "SWP CSEA-99.pdf" "2210030458.pdf"</v>
+        <v>ren "SWP CSEA-85.pdf" "2210030066.pdf"</v>
       </c>
       <c r="K125" t="str">
         <f>H125&amp;A125&amp;L125&amp;H125</f>
-        <v>"2210030458.pdf"</v>
+        <v>"2210030066.pdf"</v>
       </c>
       <c r="L125" t="s">
         <v>288</v>
@@ -6862,19 +6862,19 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
-        <v>2210030459</v>
+        <v>2210030085</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>259</v>
+        <v>174</v>
       </c>
       <c r="E126" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="F126" t="s">
         <v>286</v>
@@ -6887,15 +6887,15 @@
       </c>
       <c r="I126" t="str">
         <f>H126&amp;E126&amp;H126</f>
-        <v>"SWP CSEA-130.pdf"</v>
+        <v>"SWP CSEA-86.pdf"</v>
       </c>
       <c r="J126" t="str">
         <f>G126&amp;F126&amp;I126&amp;F126&amp;K126</f>
-        <v>ren "SWP CSEA-130.pdf" "2210030459.pdf"</v>
+        <v>ren "SWP CSEA-86.pdf" "2210030085.pdf"</v>
       </c>
       <c r="K126" t="str">
         <f>H126&amp;A126&amp;L126&amp;H126</f>
-        <v>"2210030459.pdf"</v>
+        <v>"2210030085.pdf"</v>
       </c>
       <c r="L126" t="s">
         <v>288</v>
@@ -6903,19 +6903,19 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
-        <v>2210030462</v>
+        <v>2210030260</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="E127" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="F127" t="s">
         <v>286</v>
@@ -6928,15 +6928,15 @@
       </c>
       <c r="I127" t="str">
         <f>H127&amp;E127&amp;H127</f>
-        <v>"SWP CSEA-36.pdf"</v>
+        <v>"SWP CSEA-87.pdf"</v>
       </c>
       <c r="J127" t="str">
         <f>G127&amp;F127&amp;I127&amp;F127&amp;K127</f>
-        <v>ren "SWP CSEA-36.pdf" "2210030462.pdf"</v>
+        <v>ren "SWP CSEA-87.pdf" "2210030260.pdf"</v>
       </c>
       <c r="K127" t="str">
         <f>H127&amp;A127&amp;L127&amp;H127</f>
-        <v>"2210030462.pdf"</v>
+        <v>"2210030260.pdf"</v>
       </c>
       <c r="L127" t="s">
         <v>288</v>
@@ -6944,19 +6944,19 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
-        <v>2210030464</v>
+        <v>2210030019</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="E128" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F128" t="s">
         <v>286</v>
@@ -6969,15 +6969,15 @@
       </c>
       <c r="I128" t="str">
         <f>H128&amp;E128&amp;H128</f>
-        <v>"SWP CSEA-81.pdf"</v>
+        <v>"SWP CSEA-88.pdf"</v>
       </c>
       <c r="J128" t="str">
         <f>G128&amp;F128&amp;I128&amp;F128&amp;K128</f>
-        <v>ren "SWP CSEA-81.pdf" "2210030464.pdf"</v>
+        <v>ren "SWP CSEA-88.pdf" "2210030019.pdf"</v>
       </c>
       <c r="K128" t="str">
         <f>H128&amp;A128&amp;L128&amp;H128</f>
-        <v>"2210030464.pdf"</v>
+        <v>"2210030019.pdf"</v>
       </c>
       <c r="L128" t="s">
         <v>288</v>
@@ -6985,19 +6985,19 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
-        <v>2210030467</v>
+        <v>2210030012</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E129" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="F129" t="s">
         <v>286</v>
@@ -7010,15 +7010,15 @@
       </c>
       <c r="I129" t="str">
         <f>H129&amp;E129&amp;H129</f>
-        <v>"SWP CSEA-72.pdf"</v>
+        <v>"SWP CSEA-89.pdf"</v>
       </c>
       <c r="J129" t="str">
         <f>G129&amp;F129&amp;I129&amp;F129&amp;K129</f>
-        <v>ren "SWP CSEA-72.pdf" "2210030467.pdf"</v>
+        <v>ren "SWP CSEA-89.pdf" "2210030012.pdf"</v>
       </c>
       <c r="K129" t="str">
         <f>H129&amp;A129&amp;L129&amp;H129</f>
-        <v>"2210030467.pdf"</v>
+        <v>"2210030012.pdf"</v>
       </c>
       <c r="L129" t="s">
         <v>288</v>
@@ -7026,19 +7026,19 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
-        <v>2210030468</v>
+        <v>2210030075</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="E130" t="s">
-        <v>411</v>
+        <v>298</v>
       </c>
       <c r="F130" t="s">
         <v>286</v>
@@ -7051,15 +7051,15 @@
       </c>
       <c r="I130" t="str">
         <f>H130&amp;E130&amp;H130</f>
-        <v>"SWP CSEA-123.pdf"</v>
+        <v>"SWP CSEA-9.pdf"</v>
       </c>
       <c r="J130" t="str">
         <f>G130&amp;F130&amp;I130&amp;F130&amp;K130</f>
-        <v>ren "SWP CSEA-123.pdf" "2210030468.pdf"</v>
+        <v>ren "SWP CSEA-9.pdf" "2210030075.pdf"</v>
       </c>
       <c r="K130" t="str">
         <f>H130&amp;A130&amp;L130&amp;H130</f>
-        <v>"2210030468.pdf"</v>
+        <v>"2210030075.pdf"</v>
       </c>
       <c r="L130" t="s">
         <v>288</v>
@@ -7067,19 +7067,19 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
-        <v>2210030472</v>
+        <v>2210030279</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="E131" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="F131" t="s">
         <v>286</v>
@@ -7092,15 +7092,15 @@
       </c>
       <c r="I131" t="str">
         <f>H131&amp;E131&amp;H131</f>
-        <v>"SWP CSEA-120.pdf"</v>
+        <v>"SWP CSEA-90.pdf"</v>
       </c>
       <c r="J131" t="str">
         <f>G131&amp;F131&amp;I131&amp;F131&amp;K131</f>
-        <v>ren "SWP CSEA-120.pdf" "2210030472.pdf"</v>
+        <v>ren "SWP CSEA-90.pdf" "2210030279.pdf"</v>
       </c>
       <c r="K131" t="str">
         <f>H131&amp;A131&amp;L131&amp;H131</f>
-        <v>"2210030472.pdf"</v>
+        <v>"2210030279.pdf"</v>
       </c>
       <c r="L131" t="s">
         <v>288</v>
@@ -7108,19 +7108,19 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
-        <v>2210030473</v>
+        <v>2210030134</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="E132" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F132" t="s">
         <v>286</v>
@@ -7133,15 +7133,15 @@
       </c>
       <c r="I132" t="str">
         <f>H132&amp;E132&amp;H132</f>
-        <v>"SWP CSEA-100.pdf"</v>
+        <v>"SWP CSEA-91.pdf"</v>
       </c>
       <c r="J132" t="str">
         <f>G132&amp;F132&amp;I132&amp;F132&amp;K132</f>
-        <v>ren "SWP CSEA-100.pdf" "2210030473.pdf"</v>
+        <v>ren "SWP CSEA-91.pdf" "2210030134.pdf"</v>
       </c>
       <c r="K132" t="str">
         <f>H132&amp;A132&amp;L132&amp;H132</f>
-        <v>"2210030473.pdf"</v>
+        <v>"2210030134.pdf"</v>
       </c>
       <c r="L132" t="s">
         <v>288</v>
@@ -7149,19 +7149,19 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
-        <v>2210030485</v>
+        <v>2210030378</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E133" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F133" t="s">
         <v>286</v>
@@ -7174,15 +7174,15 @@
       </c>
       <c r="I133" t="str">
         <f>H133&amp;E133&amp;H133</f>
-        <v>"SWP CSEA-94.pdf"</v>
+        <v>"SWP CSEA-92.pdf"</v>
       </c>
       <c r="J133" t="str">
         <f>G133&amp;F133&amp;I133&amp;F133&amp;K133</f>
-        <v>ren "SWP CSEA-94.pdf" "2210030485.pdf"</v>
+        <v>ren "SWP CSEA-92.pdf" "2210030378.pdf"</v>
       </c>
       <c r="K133" t="str">
         <f>H133&amp;A133&amp;L133&amp;H133</f>
-        <v>"2210030485.pdf"</v>
+        <v>"2210030378.pdf"</v>
       </c>
       <c r="L133" t="s">
         <v>288</v>
@@ -7190,19 +7190,19 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
-        <v>2210030487</v>
+        <v>2210030348</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="E134" t="s">
-        <v>304</v>
+        <v>381</v>
       </c>
       <c r="F134" t="s">
         <v>286</v>
@@ -7215,15 +7215,15 @@
       </c>
       <c r="I134" t="str">
         <f>H134&amp;E134&amp;H134</f>
-        <v>"SWP CSEA-15.pdf"</v>
+        <v>"SWP CSEA-93.pdf"</v>
       </c>
       <c r="J134" t="str">
         <f>G134&amp;F134&amp;I134&amp;F134&amp;K134</f>
-        <v>ren "SWP CSEA-15.pdf" "2210030487.pdf"</v>
+        <v>ren "SWP CSEA-93.pdf" "2210030348.pdf"</v>
       </c>
       <c r="K134" t="str">
         <f>H134&amp;A134&amp;L134&amp;H134</f>
-        <v>"2210030487.pdf"</v>
+        <v>"2210030348.pdf"</v>
       </c>
       <c r="L134" t="s">
         <v>288</v>
@@ -7231,19 +7231,19 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
-        <v>2210030491</v>
+        <v>2210030485</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="E135" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="F135" t="s">
         <v>286</v>
@@ -7256,15 +7256,15 @@
       </c>
       <c r="I135" t="str">
         <f>H135&amp;E135&amp;H135</f>
-        <v>"SWP CSEA-61.pdf"</v>
+        <v>"SWP CSEA-94.pdf"</v>
       </c>
       <c r="J135" t="str">
         <f>G135&amp;F135&amp;I135&amp;F135&amp;K135</f>
-        <v>ren "SWP CSEA-61.pdf" "2210030491.pdf"</v>
+        <v>ren "SWP CSEA-94.pdf" "2210030485.pdf"</v>
       </c>
       <c r="K135" t="str">
         <f>H135&amp;A135&amp;L135&amp;H135</f>
-        <v>"2210030491.pdf"</v>
+        <v>"2210030485.pdf"</v>
       </c>
       <c r="L135" t="s">
         <v>288</v>
@@ -7272,19 +7272,19 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
-        <v>2210030492</v>
+        <v>2210030341</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="E136" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="F136" t="s">
         <v>286</v>
@@ -7297,15 +7297,15 @@
       </c>
       <c r="I136" t="str">
         <f>H136&amp;E136&amp;H136</f>
-        <v>"SWP CSEA-42.pdf"</v>
+        <v>"SWP CSEA-95.pdf"</v>
       </c>
       <c r="J136" t="str">
         <f>G136&amp;F136&amp;I136&amp;F136&amp;K136</f>
-        <v>ren "SWP CSEA-42.pdf" "2210030492.pdf"</v>
+        <v>ren "SWP CSEA-95.pdf" "2210030341.pdf"</v>
       </c>
       <c r="K136" t="str">
         <f>H136&amp;A136&amp;L136&amp;H136</f>
-        <v>"2210030492.pdf"</v>
+        <v>"2210030341.pdf"</v>
       </c>
       <c r="L136" t="s">
         <v>288</v>
@@ -7313,19 +7313,19 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
-        <v>2210030493</v>
+        <v>2210030408</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E137" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F137" t="s">
         <v>286</v>
@@ -7338,15 +7338,15 @@
       </c>
       <c r="I137" t="str">
         <f>H137&amp;E137&amp;H137</f>
-        <v>"SWP CSEA-78.pdf"</v>
+        <v>"SWP CSEA-96.pdf"</v>
       </c>
       <c r="J137" t="str">
         <f>G137&amp;F137&amp;I137&amp;F137&amp;K137</f>
-        <v>ren "SWP CSEA-78.pdf" "2210030493.pdf"</v>
+        <v>ren "SWP CSEA-96.pdf" "2210030408.pdf"</v>
       </c>
       <c r="K137" t="str">
         <f>H137&amp;A137&amp;L137&amp;H137</f>
-        <v>"2210030493.pdf"</v>
+        <v>"2210030408.pdf"</v>
       </c>
       <c r="L137" t="s">
         <v>288</v>
@@ -7354,19 +7354,19 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
-        <v>2210030494</v>
+        <v>2210030411</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="E138" t="s">
-        <v>305</v>
+        <v>385</v>
       </c>
       <c r="F138" t="s">
         <v>286</v>
@@ -7379,15 +7379,15 @@
       </c>
       <c r="I138" t="str">
         <f>H138&amp;E138&amp;H138</f>
-        <v>"SWP CSEA-16.pdf"</v>
+        <v>"SWP CSEA-97.pdf"</v>
       </c>
       <c r="J138" t="str">
         <f>G138&amp;F138&amp;I138&amp;F138&amp;K138</f>
-        <v>ren "SWP CSEA-16.pdf" "2210030494.pdf"</v>
+        <v>ren "SWP CSEA-97.pdf" "2210030411.pdf"</v>
       </c>
       <c r="K138" t="str">
         <f>H138&amp;A138&amp;L138&amp;H138</f>
-        <v>"2210030494.pdf"</v>
+        <v>"2210030411.pdf"</v>
       </c>
       <c r="L138" t="s">
         <v>288</v>
@@ -7395,19 +7395,19 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
-        <v>2210030504</v>
+        <v>2210030422</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="E139" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="F139" t="s">
         <v>286</v>
@@ -7420,15 +7420,15 @@
       </c>
       <c r="I139" t="str">
         <f>H139&amp;E139&amp;H139</f>
-        <v>"SWP CSEA-40.pdf"</v>
+        <v>"SWP CSEA-98.pdf"</v>
       </c>
       <c r="J139" t="str">
         <f>G139&amp;F139&amp;I139&amp;F139&amp;K139</f>
-        <v>ren "SWP CSEA-40.pdf" "2210030504.pdf"</v>
+        <v>ren "SWP CSEA-98.pdf" "2210030422.pdf"</v>
       </c>
       <c r="K139" t="str">
         <f>H139&amp;A139&amp;L139&amp;H139</f>
-        <v>"2210030504.pdf"</v>
+        <v>"2210030422.pdf"</v>
       </c>
       <c r="L139" t="s">
         <v>288</v>
@@ -7436,19 +7436,19 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
-        <v>2210039514</v>
+        <v>2210030458</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="E140" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="F140" t="s">
         <v>286</v>
@@ -7461,15 +7461,15 @@
       </c>
       <c r="I140" t="str">
         <f>H140&amp;E140&amp;H140</f>
-        <v>"SWP CSEA-115.pdf"</v>
+        <v>"SWP CSEA-99.pdf"</v>
       </c>
       <c r="J140" t="str">
         <f>G140&amp;F140&amp;I140&amp;F140&amp;K140</f>
-        <v>ren "SWP CSEA-115.pdf" "2210039514.pdf"</v>
+        <v>ren "SWP CSEA-99.pdf" "2210030458.pdf"</v>
       </c>
       <c r="K140" t="str">
         <f>H140&amp;A140&amp;L140&amp;H140</f>
-        <v>"2210039514.pdf"</v>
+        <v>"2210030458.pdf"</v>
       </c>
       <c r="L140" t="s">
         <v>288</v>
@@ -11493,7 +11493,7 @@
     <row r="944" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L944">
-    <sortCondition ref="A1:A944"/>
+    <sortCondition ref="E1:E944"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
